--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -10548,7 +10548,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-10-02T14:20:06.225504+00:00</t>
+    <t>2025-10-04T19:59:04.699467+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -4393,7 +4393,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9715" uniqueCount="1989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9719" uniqueCount="1993">
   <si>
     <t>Find potential digital evidence sources</t>
   </si>
@@ -9251,16 +9251,32 @@
     <t>Running commands on a live system to collect specific pieces of information e.g. running processes or open ports</t>
   </si>
   <si>
+    <t>['Live response data collection', 'Volatile data collection']</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prior to collecting data from the system, pre-stages are described in (Waits et al 2008) as:
 - Establish trusted command shell
 - Establish method for transmitting and storing the information
 </t>
   </si>
   <si>
+    <t>['observable:Process',
+ 'observable:NetworkConnection',
+ 'observable:IPAddress',
+ 'observable:MACAddress',
+ 'observable:UserAccount']</t>
+  </si>
+  <si>
+    <t>['pslist', 'procdump', 'psloggedon', 'ipconfig', 'netstat']</t>
+  </si>
+  <si>
     <t>M1014, M1015</t>
   </si>
   <si>
     <t>Waits, C., Akinyele, J.A., Nolan, R. and Rogers, L., 2008. Computer forensics: results of live response inquiry vs. memory image analysis. CERT program, CMU/SEI-2008-TN-017.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent, K., Chevalier, S., Grance, T. &amp; Dang, H. (2006) Guide to Integrating Forensic Techniques into Incident Response. NIST Special Publication 800‑86. National Institute of Standards and Technology (NIST). Available at: https://nvlpubs.nist.gov/nistpubs/legacy/sp/nistspecialpublication800-86.pdf </t>
   </si>
   <si>
     <t>Hargreaves, C.J., 2009. Assessing the reliability of digital evidence from live investigations involving encryption. Chapter 5</t>
@@ -10548,7 +10564,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-10-04T19:59:04.699467+00:00</t>
+    <t>2025-10-04T20:00:35.390774+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>
@@ -12187,7 +12203,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1835</v>
+        <v>1839</v>
       </c>
     </row>
   </sheetData>
@@ -12239,7 +12255,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1825</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12342,7 +12358,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1836</v>
+        <v>1840</v>
       </c>
     </row>
   </sheetData>
@@ -12394,7 +12410,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1748</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12402,7 +12418,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1837</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12497,7 +12513,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1838</v>
+        <v>1842</v>
       </c>
     </row>
   </sheetData>
@@ -12549,7 +12565,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1748</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12557,7 +12573,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1839</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12652,7 +12668,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1840</v>
+        <v>1844</v>
       </c>
     </row>
   </sheetData>
@@ -12704,7 +12720,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1748</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12712,7 +12728,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1841</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12807,7 +12823,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1842</v>
+        <v>1846</v>
       </c>
     </row>
   </sheetData>
@@ -12859,7 +12875,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1595</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12867,7 +12883,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1843</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13003,7 +13019,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1595</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13106,7 +13122,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1844</v>
+        <v>1848</v>
       </c>
     </row>
   </sheetData>
@@ -13158,7 +13174,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1825</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13166,7 +13182,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1845</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13182,7 +13198,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1846</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -13258,18 +13274,18 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1847</v>
+        <v>1851</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1848</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
-        <v>1849</v>
+        <v>1853</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1848</v>
+        <v>1852</v>
       </c>
     </row>
   </sheetData>
@@ -13322,7 +13338,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1652</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13466,7 +13482,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1850</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13474,7 +13490,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1851</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13975,7 +13991,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1754</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14263,7 +14279,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1754</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14407,7 +14423,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1754</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14551,7 +14567,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1754</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14719,7 +14735,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1852</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -14822,7 +14838,7 @@
         <v>1209</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1853</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -14832,7 +14848,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1854</v>
+        <v>1858</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>678</v>
@@ -14897,7 +14913,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1855</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -14913,7 +14929,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1856</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -14929,7 +14945,7 @@
         <v>1480</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1857</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -15071,7 +15087,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1858</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -15248,7 +15264,7 @@
         <v>1173</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1859</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -15258,10 +15274,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>1860</v>
+        <v>1864</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1861</v>
+        <v>1865</v>
       </c>
     </row>
   </sheetData>
@@ -15323,7 +15339,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1862</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -15363,7 +15379,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1863</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -15429,7 +15445,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1864</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -15458,7 +15474,7 @@
         <v>1476</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1865</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -15516,7 +15532,7 @@
         <v>1476</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1866</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -15529,7 +15545,7 @@
         <v>1173</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1859</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -15595,7 +15611,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="7" t="s">
-        <v>1860</v>
+        <v>1864</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>691</v>
@@ -15603,7 +15619,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="7" t="s">
-        <v>1867</v>
+        <v>1871</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>691</v>
@@ -15611,7 +15627,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="7" t="s">
-        <v>1868</v>
+        <v>1872</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>691</v>
@@ -15619,10 +15635,10 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="7" t="s">
-        <v>1869</v>
+        <v>1873</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>1870</v>
+        <v>1874</v>
       </c>
     </row>
   </sheetData>
@@ -15872,7 +15888,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1871</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -15880,7 +15896,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1872</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -15888,7 +15904,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1873</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -15993,10 +16009,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
-        <v>1617</v>
+        <v>1621</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1874</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -16004,7 +16020,7 @@
         <v>1526</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1875</v>
+        <v>1879</v>
       </c>
     </row>
   </sheetData>
@@ -16058,7 +16074,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1850</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -16066,7 +16082,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1876</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -16106,7 +16122,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1877</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -16158,26 +16174,26 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1878</v>
+        <v>1882</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1879</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
-        <v>1880</v>
+        <v>1884</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1879</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1881</v>
+        <v>1885</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1879</v>
+        <v>1883</v>
       </c>
     </row>
   </sheetData>
@@ -16231,7 +16247,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1748</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -16239,7 +16255,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1882</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -16279,7 +16295,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1883</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -16345,7 +16361,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1884</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -16374,7 +16390,7 @@
         <v>293</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1885</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -16458,7 +16474,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="7" t="s">
-        <v>1886</v>
+        <v>1890</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>705</v>
@@ -16514,7 +16530,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1819</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -16522,7 +16538,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1887</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -16680,18 +16696,18 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>1695</v>
+        <v>1699</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1888</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>1889</v>
+        <v>1893</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1890</v>
+        <v>1894</v>
       </c>
     </row>
   </sheetData>
@@ -16745,7 +16761,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1674</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -16753,7 +16769,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1891</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -16785,7 +16801,7 @@
         <v>1480</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1667</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -16793,7 +16809,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1892</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -16940,7 +16956,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>1893</v>
+        <v>1897</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>713</v>
@@ -16996,7 +17012,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1825</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -17004,7 +17020,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1894</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -17012,7 +17028,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1895</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -17036,7 +17052,7 @@
         <v>1480</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1896</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -17044,7 +17060,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1897</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -17133,7 +17149,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1898</v>
+        <v>1902</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>725</v>
@@ -17141,7 +17157,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>1899</v>
+        <v>1903</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>725</v>
@@ -17198,7 +17214,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1595</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -17206,7 +17222,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1900</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -17214,7 +17230,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1901</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -17222,7 +17238,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1902</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -17238,7 +17254,7 @@
         <v>1480</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1903</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -17246,7 +17262,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1904</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -17354,7 +17370,7 @@
         <v>1209</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1853</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -17410,7 +17426,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1674</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -17418,7 +17434,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1905</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -17524,7 +17540,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1906</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -17553,7 +17569,7 @@
         <v>1476</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1907</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -17582,7 +17598,7 @@
         <v>1476</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1908</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -17611,7 +17627,7 @@
         <v>1476</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -17640,7 +17656,7 @@
         <v>1476</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1910</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -17661,7 +17677,7 @@
         <v>931</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1911</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -17757,7 +17773,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1674</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -17765,7 +17781,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1912</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -17781,7 +17797,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1913</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -17805,7 +17821,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1914</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -17871,7 +17887,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1915</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -17900,7 +17916,7 @@
         <v>1476</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1680</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -17947,18 +17963,18 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="7" t="s">
-        <v>1685</v>
+        <v>1689</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>1686</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="7" t="s">
-        <v>1681</v>
+        <v>1685</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>1916</v>
+        <v>1920</v>
       </c>
     </row>
   </sheetData>
@@ -18012,7 +18028,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1674</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -18020,7 +18036,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1917</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -18036,7 +18052,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1918</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -18126,7 +18142,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1919</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -18155,7 +18171,7 @@
         <v>1476</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1920</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -18218,10 +18234,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="7" t="s">
-        <v>1681</v>
+        <v>1685</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1916</v>
+        <v>1920</v>
       </c>
     </row>
   </sheetData>
@@ -18625,7 +18641,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1674</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -18633,7 +18649,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1921</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -18641,7 +18657,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1922</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -18739,7 +18755,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1923</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -18760,7 +18776,7 @@
         <v>931</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1911</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -18770,7 +18786,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>1684</v>
+        <v>1688</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>410</v>
@@ -18827,7 +18843,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1674</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -18835,7 +18851,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1924</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -18843,7 +18859,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1925</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -18851,7 +18867,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1926</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -18954,7 +18970,7 @@
         <v>1250</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1927</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -18964,7 +18980,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1684</v>
+        <v>1688</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>747</v>
@@ -18972,7 +18988,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>1928</v>
+        <v>1932</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>747</v>
@@ -18980,7 +18996,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>1929</v>
+        <v>1933</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>747</v>
@@ -19047,7 +19063,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1930</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -19055,7 +19071,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1925</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -19153,7 +19169,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1931</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -19182,7 +19198,7 @@
         <v>1476</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1931</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -19224,7 +19240,7 @@
         <v>1222</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1932</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -19232,7 +19248,7 @@
         <v>1225</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1933</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -19250,7 +19266,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="7" t="s">
-        <v>1684</v>
+        <v>1688</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>731</v>
@@ -19258,7 +19274,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="7" t="s">
-        <v>1928</v>
+        <v>1932</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>731</v>
@@ -19325,7 +19341,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1934</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -19333,7 +19349,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1925</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -19341,7 +19357,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1935</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -19454,18 +19470,18 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1684</v>
+        <v>1688</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1936</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>1929</v>
+        <v>1933</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1936</v>
+        <v>1940</v>
       </c>
     </row>
   </sheetData>
@@ -19519,7 +19535,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1703</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -19527,7 +19543,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1937</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -19535,7 +19551,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1938</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -19543,7 +19559,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1939</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -19663,7 +19679,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1703</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -19671,7 +19687,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1940</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -19763,18 +19779,18 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1941</v>
+        <v>1945</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1942</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
-        <v>1693</v>
+        <v>1697</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1942</v>
+        <v>1946</v>
       </c>
     </row>
   </sheetData>
@@ -19827,7 +19843,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1703</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -19835,7 +19851,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1943</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -19851,7 +19867,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1944</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -19971,7 +19987,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1703</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -19979,7 +19995,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1945</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -20071,10 +20087,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1946</v>
+        <v>1950</v>
       </c>
     </row>
   </sheetData>
@@ -20126,7 +20142,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1703</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -20134,7 +20150,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -20142,7 +20158,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -20226,10 +20242,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1949</v>
+        <v>1953</v>
       </c>
     </row>
   </sheetData>
@@ -20281,7 +20297,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1754</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -20289,7 +20305,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1950</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -20305,7 +20321,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1951</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -20321,7 +20337,7 @@
         <v>1480</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1952</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -20329,7 +20345,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1953</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -20395,7 +20411,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1954</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -20424,7 +20440,7 @@
         <v>1476</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1955</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -20453,7 +20469,7 @@
         <v>1476</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1954</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -20482,7 +20498,7 @@
         <v>1476</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1956</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -20511,7 +20527,7 @@
         <v>1476</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1957</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -20540,7 +20556,7 @@
         <v>1476</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1958</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -20598,7 +20614,7 @@
         <v>1476</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1959</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -20627,7 +20643,7 @@
         <v>1476</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1960</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -20656,7 +20672,7 @@
         <v>1476</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1961</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -20685,7 +20701,7 @@
         <v>1476</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>1962</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -20714,7 +20730,7 @@
         <v>1476</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>1963</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -20772,7 +20788,7 @@
         <v>1476</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1964</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -20801,7 +20817,7 @@
         <v>1476</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>1965</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -20830,7 +20846,7 @@
         <v>1476</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>1966</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -20859,7 +20875,7 @@
         <v>1476</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1966</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -20888,7 +20904,7 @@
         <v>1476</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>1967</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -20917,7 +20933,7 @@
         <v>1476</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>1968</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -20946,7 +20962,7 @@
         <v>291</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>1969</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -20975,7 +20991,7 @@
         <v>1476</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>1970</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -21004,7 +21020,7 @@
         <v>1476</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>1971</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -21033,7 +21049,7 @@
         <v>1476</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>1972</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -21062,7 +21078,7 @@
         <v>1476</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>1973</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -21091,7 +21107,7 @@
         <v>1476</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>1974</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -21120,7 +21136,7 @@
         <v>1476</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>1975</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -21149,7 +21165,7 @@
         <v>1476</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>1976</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -21332,7 +21348,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="B66" s="7" t="s">
-        <v>1977</v>
+        <v>1981</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>750</v>
@@ -21340,7 +21356,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="B67" s="7" t="s">
-        <v>1978</v>
+        <v>1982</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>750</v>
@@ -22516,23 +22532,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>1979</v>
+        <v>1983</v>
       </c>
       <c r="B1" t="s">
-        <v>1980</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1981</v>
+        <v>1985</v>
       </c>
       <c r="B2" t="s">
-        <v>1982</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="B3">
         <v>19</v>
@@ -22540,7 +22556,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="B4">
         <v>134</v>
@@ -22548,7 +22564,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="B5">
         <v>236</v>
@@ -22556,7 +22572,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="B6">
         <v>181</v>
@@ -22564,7 +22580,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="B7">
         <v>57</v>
@@ -22572,7 +22588,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="B8">
         <v>0.43</v>
@@ -23036,7 +23052,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -23088,7 +23104,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>700</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -23096,7 +23112,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -23112,7 +23128,7 @@
         <v>1480</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>700</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -23120,7 +23136,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>700</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -23197,7 +23213,7 @@
         <v>370</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>1476</v>
+        <v>291</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>291</v>
@@ -23209,7 +23225,7 @@
         <v>1476</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>1476</v>
+        <v>291</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>1476</v>
@@ -23226,17 +23242,17 @@
         <v>372</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>1476</v>
+        <v>291</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>1476</v>
-      </c>
       <c r="G15" s="8" t="s">
         <v>1476</v>
       </c>
@@ -23244,7 +23260,7 @@
         <v>1476</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1572</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -23283,7 +23299,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="7" t="s">
-        <v>1573</v>
+        <v>1576</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>368</v>
@@ -23291,25 +23307,34 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="7" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>1575</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="7" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1577</v>
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>1581</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B24:H24"/>
     <mergeCell ref="B25:H25"/>
     <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1" location="Main!A1" display="back to main"/>
@@ -23460,7 +23485,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1578</v>
+        <v>1582</v>
       </c>
     </row>
   </sheetData>
@@ -23615,7 +23640,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1579</v>
+        <v>1583</v>
       </c>
     </row>
   </sheetData>
@@ -23675,7 +23700,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1580</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -23715,7 +23740,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -23781,7 +23806,7 @@
         <v>291</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1582</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -23868,7 +23893,7 @@
         <v>1476</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1583</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -24016,7 +24041,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1584</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -24032,7 +24057,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1585</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -24048,7 +24073,7 @@
         <v>1480</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1586</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -24267,7 +24292,7 @@
         <v>1476</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1587</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -24280,7 +24305,7 @@
         <v>1140</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1588</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -24296,7 +24321,7 @@
         <v>1146</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1589</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -24304,7 +24329,7 @@
         <v>1149</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1590</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -24312,7 +24337,7 @@
         <v>1151</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1591</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -24322,7 +24347,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="7" t="s">
-        <v>1592</v>
+        <v>1596</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>649</v>
@@ -24330,7 +24355,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="7" t="s">
-        <v>1593</v>
+        <v>1597</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>649</v>
@@ -24338,7 +24363,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="7" t="s">
-        <v>1594</v>
+        <v>1598</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>649</v>
@@ -24400,7 +24425,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1595</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -24408,7 +24433,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1596</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -24440,7 +24465,7 @@
         <v>1480</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1597</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -24448,7 +24473,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1598</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -24552,7 +24577,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1599</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -24644,10 +24669,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1593</v>
+        <v>1597</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1600</v>
+        <v>1604</v>
       </c>
     </row>
   </sheetData>
@@ -24802,7 +24827,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1601</v>
+        <v>1605</v>
       </c>
     </row>
   </sheetData>
@@ -26846,7 +26871,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
     </row>
   </sheetData>
@@ -26906,7 +26931,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -26914,7 +26939,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1604</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -26922,7 +26947,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1605</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -26946,7 +26971,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1606</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -27099,7 +27124,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1607</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -27131,7 +27156,7 @@
         <v>1480</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1586</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -27368,7 +27393,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
     </row>
   </sheetData>
@@ -27523,7 +27548,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1609</v>
+        <v>1613</v>
       </c>
     </row>
   </sheetData>
@@ -27678,7 +27703,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1610</v>
+        <v>1614</v>
       </c>
     </row>
   </sheetData>
@@ -27833,7 +27858,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1611</v>
+        <v>1615</v>
       </c>
     </row>
   </sheetData>
@@ -27885,7 +27910,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -27893,7 +27918,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1613</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -27933,7 +27958,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1614</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -28059,7 +28084,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>1615</v>
+        <v>1619</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>392</v>
@@ -28067,7 +28092,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="B23" s="7" t="s">
-        <v>1616</v>
+        <v>1620</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>392</v>
@@ -28075,7 +28100,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="7" t="s">
-        <v>1617</v>
+        <v>1621</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>392</v>
@@ -28133,7 +28158,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -28236,7 +28261,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1618</v>
+        <v>1622</v>
       </c>
     </row>
   </sheetData>
@@ -28288,7 +28313,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -28391,7 +28416,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1619</v>
+        <v>1623</v>
       </c>
     </row>
   </sheetData>
@@ -29105,10 +29130,16 @@
       <c r="E36" t="s">
         <v>368</v>
       </c>
+      <c r="F36" t="s">
+        <v>293</v>
+      </c>
       <c r="G36" t="s">
         <v>293</v>
       </c>
       <c r="I36" t="s">
+        <v>293</v>
+      </c>
+      <c r="J36" t="s">
         <v>293</v>
       </c>
     </row>
@@ -29125,10 +29156,10 @@
       <c r="E37" t="s">
         <v>368</v>
       </c>
-      <c r="G37" t="s">
+      <c r="F37" t="s">
         <v>293</v>
       </c>
-      <c r="I37" t="s">
+      <c r="H37" t="s">
         <v>293</v>
       </c>
     </row>
@@ -32845,7 +32876,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -32853,7 +32884,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1620</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -32861,7 +32892,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -32869,7 +32900,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1622</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -32885,7 +32916,7 @@
         <v>1480</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1623</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -32959,7 +32990,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -32988,7 +33019,7 @@
         <v>1476</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1625</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -33017,7 +33048,7 @@
         <v>1476</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -33046,7 +33077,7 @@
         <v>1106</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1626</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -33064,7 +33095,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="7" t="s">
-        <v>1627</v>
+        <v>1631</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>605</v>
@@ -33121,7 +33152,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -33129,7 +33160,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1628</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -33145,7 +33176,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1629</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -33161,7 +33192,7 @@
         <v>1480</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1623</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -33235,7 +33266,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1630</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -33264,7 +33295,7 @@
         <v>1476</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1631</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -33293,7 +33324,7 @@
         <v>1476</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1632</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -33364,7 +33395,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="7" t="s">
-        <v>1633</v>
+        <v>1637</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>598</v>
@@ -33372,10 +33403,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="7" t="s">
-        <v>1634</v>
+        <v>1638</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1635</v>
+        <v>1639</v>
       </c>
     </row>
   </sheetData>
@@ -33429,7 +33460,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -33532,7 +33563,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1636</v>
+        <v>1640</v>
       </c>
     </row>
   </sheetData>
@@ -33584,7 +33615,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -33687,7 +33718,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1637</v>
+        <v>1641</v>
       </c>
     </row>
   </sheetData>
@@ -33739,7 +33770,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -33842,7 +33873,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1638</v>
+        <v>1642</v>
       </c>
     </row>
   </sheetData>
@@ -33894,7 +33925,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -33902,7 +33933,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1639</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -33994,18 +34025,18 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1640</v>
+        <v>1644</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1641</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
-        <v>1642</v>
+        <v>1646</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1641</v>
+        <v>1645</v>
       </c>
     </row>
   </sheetData>
@@ -34058,7 +34089,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -34066,7 +34097,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1643</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -34106,7 +34137,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1644</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -34216,26 +34247,26 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1645</v>
+        <v>1649</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1646</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>1647</v>
+        <v>1651</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1648</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>1649</v>
+        <v>1653</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1650</v>
+        <v>1654</v>
       </c>
     </row>
   </sheetData>
@@ -34290,7 +34321,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -34393,7 +34424,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1651</v>
+        <v>1655</v>
       </c>
     </row>
   </sheetData>
@@ -34445,7 +34476,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1652</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -34453,7 +34484,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1653</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -34559,7 +34590,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1654</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -34588,7 +34619,7 @@
         <v>1476</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1655</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -34617,7 +34648,7 @@
         <v>1476</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1655</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -34646,7 +34677,7 @@
         <v>1476</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1655</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -34704,7 +34735,7 @@
         <v>1476</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1656</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -34783,7 +34814,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="7" t="s">
-        <v>1657</v>
+        <v>1661</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>386</v>
@@ -34791,7 +34822,7 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="7" t="s">
-        <v>1658</v>
+        <v>1662</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>386</v>
@@ -34799,7 +34830,7 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="7" t="s">
-        <v>1659</v>
+        <v>1663</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>386</v>
@@ -34807,15 +34838,15 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="7" t="s">
-        <v>1660</v>
+        <v>1664</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>1661</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="7" t="s">
-        <v>1662</v>
+        <v>1666</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>1039</v>
@@ -34875,7 +34906,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1652</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -34883,7 +34914,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1663</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -35070,10 +35101,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>1660</v>
+        <v>1664</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1664</v>
+        <v>1668</v>
       </c>
     </row>
   </sheetData>
@@ -38234,7 +38265,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1652</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -38348,7 +38379,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1665</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -38377,7 +38408,7 @@
         <v>1476</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1665</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -38406,7 +38437,7 @@
         <v>1476</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1665</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -38435,7 +38466,7 @@
         <v>1476</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1665</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -38588,7 +38619,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1652</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -38596,7 +38627,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1666</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -38628,7 +38659,7 @@
         <v>1480</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1667</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -38702,7 +38733,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1668</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -38786,7 +38817,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1669</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -38889,7 +38920,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1670</v>
+        <v>1674</v>
       </c>
     </row>
   </sheetData>
@@ -38941,7 +38972,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1669</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -39073,15 +39104,15 @@
         <v>1489</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1671</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1660</v>
+        <v>1664</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1672</v>
+        <v>1676</v>
       </c>
     </row>
   </sheetData>
@@ -39135,7 +39166,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1669</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -39238,7 +39269,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1673</v>
+        <v>1677</v>
       </c>
     </row>
   </sheetData>
@@ -39290,7 +39321,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1674</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -39298,7 +39329,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1675</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -39306,7 +39337,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1676</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -39314,7 +39345,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1677</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -39322,7 +39353,7 @@
         <v>1479</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1678</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -39404,7 +39435,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1679</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -39462,7 +39493,7 @@
         <v>1476</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1680</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -39562,15 +39593,15 @@
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="7" t="s">
-        <v>1681</v>
+        <v>1685</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1682</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="7" t="s">
-        <v>1683</v>
+        <v>1687</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>413</v>
@@ -39578,7 +39609,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="7" t="s">
-        <v>1684</v>
+        <v>1688</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>413</v>
@@ -39586,10 +39617,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="7" t="s">
-        <v>1685</v>
+        <v>1689</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>1686</v>
+        <v>1690</v>
       </c>
     </row>
   </sheetData>
@@ -39645,7 +39676,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1674</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -39777,15 +39808,15 @@
         <v>1489</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1687</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1660</v>
+        <v>1664</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1672</v>
+        <v>1676</v>
       </c>
     </row>
   </sheetData>
@@ -39839,7 +39870,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1674</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -39942,7 +39973,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1688</v>
+        <v>1692</v>
       </c>
     </row>
   </sheetData>
@@ -39994,7 +40025,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1595</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -40002,7 +40033,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1689</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -40010,7 +40041,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1690</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -40042,7 +40073,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1691</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -40268,7 +40299,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="7" t="s">
-        <v>1692</v>
+        <v>1696</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>614</v>
@@ -40276,18 +40307,18 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="7" t="s">
-        <v>1693</v>
+        <v>1697</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>1694</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="7" t="s">
-        <v>1695</v>
+        <v>1699</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1696</v>
+        <v>1700</v>
       </c>
     </row>
   </sheetData>
@@ -40342,7 +40373,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1595</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -40445,7 +40476,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
     </row>
   </sheetData>
@@ -40652,7 +40683,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1698</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -40766,7 +40797,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -40795,7 +40826,7 @@
         <v>1476</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1700</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -40824,7 +40855,7 @@
         <v>1476</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1700</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -40916,7 +40947,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1698</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -41019,7 +41050,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1701</v>
+        <v>1705</v>
       </c>
     </row>
   </sheetData>
@@ -41071,7 +41102,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1595</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -41174,7 +41205,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1702</v>
+        <v>1706</v>
       </c>
     </row>
   </sheetData>
@@ -41226,7 +41257,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1703</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -41234,7 +41265,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1704</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -41326,10 +41357,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1706</v>
+        <v>1710</v>
       </c>
     </row>
   </sheetData>
@@ -41381,7 +41412,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1703</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -41484,7 +41515,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1707</v>
+        <v>1711</v>
       </c>
     </row>
   </sheetData>
@@ -41536,7 +41567,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1708</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -41544,7 +41575,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1709</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -41552,7 +41583,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1710</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -41560,7 +41591,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -41576,7 +41607,7 @@
         <v>1480</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1712</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -41584,7 +41615,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1713</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -41679,7 +41710,7 @@
         <v>1476</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1714</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -41737,7 +41768,7 @@
         <v>1476</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1715</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -41766,7 +41797,7 @@
         <v>1476</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1716</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -41837,7 +41868,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="7" t="s">
-        <v>1717</v>
+        <v>1721</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>962</v>
@@ -41845,7 +41876,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="7" t="s">
-        <v>1660</v>
+        <v>1664</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>957</v>
@@ -41853,7 +41884,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="7" t="s">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>957</v>
@@ -41861,10 +41892,10 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="7" t="s">
-        <v>1719</v>
+        <v>1723</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>1720</v>
+        <v>1724</v>
       </c>
     </row>
   </sheetData>
@@ -41920,7 +41951,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1708</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -41928,7 +41959,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1721</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -41968,7 +41999,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1722</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -42034,7 +42065,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -42063,7 +42094,7 @@
         <v>1476</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -42092,7 +42123,7 @@
         <v>1476</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -42121,7 +42152,7 @@
         <v>1476</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -42150,7 +42181,7 @@
         <v>1476</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -42179,7 +42210,7 @@
         <v>1476</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -42208,7 +42239,7 @@
         <v>1476</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -42237,7 +42268,7 @@
         <v>1476</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -42266,7 +42297,7 @@
         <v>1476</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -42295,7 +42326,7 @@
         <v>293</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -42324,7 +42355,7 @@
         <v>293</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -42353,7 +42384,7 @@
         <v>1476</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -42382,7 +42413,7 @@
         <v>1476</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -42411,7 +42442,7 @@
         <v>1476</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -42440,7 +42471,7 @@
         <v>1476</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -42469,7 +42500,7 @@
         <v>1476</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -42498,7 +42529,7 @@
         <v>1476</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -42545,7 +42576,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="7" t="s">
-        <v>1724</v>
+        <v>1728</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>449</v>
@@ -42601,7 +42632,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1708</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -42609,7 +42640,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1725</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -42617,7 +42648,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1726</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -42744,7 +42775,7 @@
         <v>293</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1727</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -42773,7 +42804,7 @@
         <v>293</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1728</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -42844,7 +42875,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="7" t="s">
-        <v>1660</v>
+        <v>1664</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>1066</v>
@@ -42852,10 +42883,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="7" t="s">
-        <v>1724</v>
+        <v>1728</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1729</v>
+        <v>1733</v>
       </c>
     </row>
   </sheetData>
@@ -42910,7 +42941,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1708</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -43013,7 +43044,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1730</v>
+        <v>1734</v>
       </c>
     </row>
   </sheetData>
@@ -43065,7 +43096,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1708</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -43073,7 +43104,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1731</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -43089,7 +43120,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1732</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -43179,7 +43210,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1733</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -43208,7 +43239,7 @@
         <v>1476</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1734</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -43237,7 +43268,7 @@
         <v>1476</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1733</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -43284,7 +43315,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="7" t="s">
-        <v>1735</v>
+        <v>1739</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>579</v>
@@ -43292,42 +43323,42 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="7" t="s">
-        <v>1660</v>
+        <v>1664</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1736</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="7" t="s">
-        <v>1737</v>
+        <v>1741</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>1738</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="7" t="s">
-        <v>1739</v>
+        <v>1743</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>1740</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="7" t="s">
-        <v>1741</v>
+        <v>1745</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1740</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="7" t="s">
-        <v>1742</v>
+        <v>1746</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>1740</v>
+        <v>1744</v>
       </c>
     </row>
   </sheetData>
@@ -43663,7 +43694,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1708</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -43806,7 +43837,7 @@
         <v>1476</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1743</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -43835,7 +43866,7 @@
         <v>1476</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1743</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -43893,7 +43924,7 @@
         <v>1476</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1744</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -43906,7 +43937,7 @@
         <v>1003</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1745</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -43972,10 +44003,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="7" t="s">
-        <v>1746</v>
+        <v>1750</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>1747</v>
+        <v>1751</v>
       </c>
     </row>
   </sheetData>
@@ -44029,7 +44060,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1748</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -44037,7 +44068,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1749</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -44132,7 +44163,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1750</v>
+        <v>1754</v>
       </c>
     </row>
   </sheetData>
@@ -44184,7 +44215,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1748</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -44287,7 +44318,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1751</v>
+        <v>1755</v>
       </c>
     </row>
   </sheetData>
@@ -44339,7 +44370,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1748</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -44442,7 +44473,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1752</v>
+        <v>1756</v>
       </c>
     </row>
   </sheetData>
@@ -44494,7 +44525,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1748</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -44597,7 +44628,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1753</v>
+        <v>1757</v>
       </c>
     </row>
   </sheetData>
@@ -44649,7 +44680,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1754</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -44657,7 +44688,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1755</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -44673,7 +44704,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1756</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -44689,7 +44720,7 @@
         <v>1480</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1757</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -44763,7 +44794,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1758</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -44939,7 +44970,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="7" t="s">
-        <v>1759</v>
+        <v>1763</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>532</v>
@@ -44947,7 +44978,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="7" t="s">
-        <v>1760</v>
+        <v>1764</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>532</v>
@@ -44955,7 +44986,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="7" t="s">
-        <v>1761</v>
+        <v>1765</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>1020</v>
@@ -44963,10 +44994,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="7" t="s">
-        <v>1762</v>
+        <v>1766</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1763</v>
+        <v>1767</v>
       </c>
     </row>
   </sheetData>
@@ -45022,7 +45053,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1754</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -45166,7 +45197,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1595</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -45174,7 +45205,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1764</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -45182,7 +45213,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1765</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -45206,7 +45237,7 @@
         <v>1480</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1766</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -45214,7 +45245,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1767</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -45280,7 +45311,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1768</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -45309,7 +45340,7 @@
         <v>293</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1769</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -45462,7 +45493,7 @@
         <v>1160</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1770</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -45504,7 +45535,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="7" t="s">
-        <v>1771</v>
+        <v>1775</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>665</v>
@@ -45512,26 +45543,26 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="7" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>1773</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="7" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>1775</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="7" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
     </row>
   </sheetData>
@@ -45588,7 +45619,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1754</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -45596,7 +45627,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -45604,7 +45635,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1779</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -45612,7 +45643,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1780</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -45628,7 +45659,7 @@
         <v>1480</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -45702,7 +45733,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1782</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -45731,7 +45762,7 @@
         <v>1476</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1783</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -45760,7 +45791,7 @@
         <v>1476</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1784</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -45789,7 +45820,7 @@
         <v>1476</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1784</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -45818,7 +45849,7 @@
         <v>1476</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1785</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -45847,7 +45878,7 @@
         <v>1476</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1785</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -45876,7 +45907,7 @@
         <v>1476</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1785</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -45905,7 +45936,7 @@
         <v>1476</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1785</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -45934,7 +45965,7 @@
         <v>293</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1784</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -45963,7 +45994,7 @@
         <v>1476</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1784</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -45992,7 +46023,7 @@
         <v>1476</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>1784</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -46021,7 +46052,7 @@
         <v>1476</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>1782</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -46050,7 +46081,7 @@
         <v>1476</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>1782</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -46079,7 +46110,7 @@
         <v>1476</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1784</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -46108,7 +46139,7 @@
         <v>1476</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>1784</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -46137,7 +46168,7 @@
         <v>1476</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>1784</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -46166,7 +46197,7 @@
         <v>1476</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1784</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -46195,7 +46226,7 @@
         <v>293</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>1784</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -46258,26 +46289,26 @@
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="7" t="s">
-        <v>1786</v>
+        <v>1790</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>1787</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="7" t="s">
-        <v>1788</v>
+        <v>1792</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>1789</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="7" t="s">
-        <v>1790</v>
+        <v>1794</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>1791</v>
+        <v>1795</v>
       </c>
     </row>
   </sheetData>
@@ -46332,7 +46363,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1754</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -46987,7 +47018,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1754</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -47131,7 +47162,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1754</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -47275,7 +47306,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1595</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -47283,7 +47314,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1792</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -47299,7 +47330,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1793</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -47315,7 +47346,7 @@
         <v>1480</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1794</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -47323,7 +47354,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1795</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -47389,7 +47420,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1796</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -47447,7 +47478,7 @@
         <v>1476</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1797</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -47505,7 +47536,7 @@
         <v>1476</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1798</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -47563,7 +47594,7 @@
         <v>291</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1799</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -47592,7 +47623,7 @@
         <v>1476</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1800</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -47732,10 +47763,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="7" t="s">
-        <v>1801</v>
+        <v>1805</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>1802</v>
+        <v>1806</v>
       </c>
     </row>
   </sheetData>
@@ -47788,7 +47819,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1754</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -47932,7 +47963,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1754</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -48076,7 +48107,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1698</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -48179,7 +48210,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1803</v>
+        <v>1807</v>
       </c>
     </row>
   </sheetData>
@@ -48231,7 +48262,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1698</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -48263,7 +48294,7 @@
         <v>1479</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1804</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -48334,7 +48365,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1805</v>
+        <v>1809</v>
       </c>
     </row>
   </sheetData>
@@ -48386,7 +48417,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1698</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -48489,7 +48520,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1806</v>
+        <v>1810</v>
       </c>
     </row>
   </sheetData>
@@ -48541,7 +48572,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1698</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -48644,7 +48675,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1807</v>
+        <v>1811</v>
       </c>
     </row>
   </sheetData>
@@ -48696,7 +48727,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1748</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -49246,7 +49277,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1808</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -49349,7 +49380,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1809</v>
+        <v>1813</v>
       </c>
     </row>
   </sheetData>
@@ -49401,7 +49432,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1808</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -49504,7 +49535,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1810</v>
+        <v>1814</v>
       </c>
     </row>
   </sheetData>
@@ -49556,7 +49587,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1674</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -49564,7 +49595,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1811</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -49572,7 +49603,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1812</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -49580,7 +49611,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1813</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -49604,7 +49635,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1814</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -49656,34 +49687,34 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1815</v>
+        <v>1819</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1816</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
-        <v>1817</v>
+        <v>1821</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1816</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1818</v>
+        <v>1822</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1816</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>1692</v>
+        <v>1696</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1816</v>
+        <v>1820</v>
       </c>
     </row>
   </sheetData>
@@ -49738,7 +49769,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1819</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -49746,7 +49777,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1820</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -49882,7 +49913,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1819</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -49890,7 +49921,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1821</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -49898,7 +49929,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1822</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -49982,10 +50013,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1823</v>
+        <v>1827</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1824</v>
+        <v>1828</v>
       </c>
     </row>
   </sheetData>
@@ -50037,7 +50068,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1825</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -50140,7 +50171,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1826</v>
+        <v>1830</v>
       </c>
     </row>
   </sheetData>
@@ -50192,7 +50223,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1825</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -50295,7 +50326,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1827</v>
+        <v>1831</v>
       </c>
     </row>
   </sheetData>
@@ -50355,7 +50386,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1828</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -50363,7 +50394,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1829</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -50558,7 +50589,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1830</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -50598,7 +50629,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1831</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -50664,7 +50695,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1832</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -50693,7 +50724,7 @@
         <v>1476</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1833</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -50925,7 +50956,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1834</v>
+        <v>1838</v>
       </c>
     </row>
   </sheetData>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -2237,8 +2237,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>M1066 (Extract URLs from other areas of the disk)
-M1067 (Extract URLs from a memory image)</t>
+          <t>M1066 (Attempt to reconstruct browser activity from other areas of disk)
+M1067 (Analyze web browser memory for web browsing activity)</t>
         </r>
       </text>
     </comment>
@@ -4393,7 +4393,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9719" uniqueCount="1993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9719" uniqueCount="1994">
   <si>
     <t>Find potential digital evidence sources</t>
   </si>
@@ -7452,7 +7452,7 @@
     <t>M1066</t>
   </si>
   <si>
-    <t>Extract URLs from other areas of the disk</t>
+    <t>Attempt to reconstruct browser activity from other areas of disk</t>
   </si>
   <si>
     <t>['W1108']</t>
@@ -7461,7 +7461,7 @@
     <t>M1067</t>
   </si>
   <si>
-    <t>Extract URLs from a memory image</t>
+    <t>Analyze web browser memory for web browsing activity</t>
   </si>
   <si>
     <t>M1068</t>
@@ -9866,6 +9866,9 @@
     <t>M1066, M1067</t>
   </si>
   <si>
+    <t>Analyze web browser memory for web browsing activity (T1105)</t>
+  </si>
+  <si>
     <t>Digital Detective Knowledgebase https://kb.digital-detective.net/display/BF</t>
   </si>
   <si>
@@ -10564,7 +10567,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-10-04T20:00:35.390774+00:00</t>
+    <t>2025-10-04T20:01:24.341285+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>
@@ -12203,7 +12206,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
   </sheetData>
@@ -12255,7 +12258,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12358,7 +12361,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
   </sheetData>
@@ -12418,7 +12421,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12513,7 +12516,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
   </sheetData>
@@ -12573,7 +12576,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12668,7 +12671,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
   </sheetData>
@@ -12728,7 +12731,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12823,7 +12826,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
   </sheetData>
@@ -12883,7 +12886,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13122,7 +13125,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
   </sheetData>
@@ -13174,7 +13177,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13182,7 +13185,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13198,7 +13201,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -13274,18 +13277,18 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
+        <v>1854</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>1853</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>1852</v>
       </c>
     </row>
   </sheetData>
@@ -13482,7 +13485,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13490,7 +13493,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -14735,7 +14738,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -14838,7 +14841,7 @@
         <v>1209</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -14848,7 +14851,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>678</v>
@@ -14913,7 +14916,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -14929,7 +14932,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -14945,7 +14948,7 @@
         <v>1480</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -15087,7 +15090,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -15264,7 +15267,7 @@
         <v>1173</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -15274,10 +15277,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
     </row>
   </sheetData>
@@ -15339,7 +15342,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -15379,7 +15382,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -15445,7 +15448,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -15474,7 +15477,7 @@
         <v>1476</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -15532,7 +15535,7 @@
         <v>1476</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -15545,7 +15548,7 @@
         <v>1173</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -15611,7 +15614,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="7" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>691</v>
@@ -15619,7 +15622,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="7" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>691</v>
@@ -15627,7 +15630,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="7" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>691</v>
@@ -15635,10 +15638,10 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="7" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
     </row>
   </sheetData>
@@ -15888,7 +15891,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -15896,7 +15899,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -15904,7 +15907,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -16012,7 +16015,7 @@
         <v>1621</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -16020,7 +16023,7 @@
         <v>1526</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
     </row>
   </sheetData>
@@ -16074,7 +16077,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -16082,7 +16085,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -16122,7 +16125,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -16174,26 +16177,26 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
+        <v>1885</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>1884</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>1883</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
   </sheetData>
@@ -16255,7 +16258,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -16295,7 +16298,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -16361,7 +16364,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -16390,7 +16393,7 @@
         <v>293</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -16474,7 +16477,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="7" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>705</v>
@@ -16530,7 +16533,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -16538,7 +16541,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -16699,15 +16702,15 @@
         <v>1699</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
     </row>
   </sheetData>
@@ -16769,7 +16772,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -16809,7 +16812,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -16956,7 +16959,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>713</v>
@@ -17012,7 +17015,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -17020,7 +17023,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -17028,7 +17031,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -17052,7 +17055,7 @@
         <v>1480</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -17060,7 +17063,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -17149,7 +17152,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>725</v>
@@ -17157,7 +17160,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>725</v>
@@ -17222,7 +17225,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -17230,7 +17233,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -17238,7 +17241,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -17254,7 +17257,7 @@
         <v>1480</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -17262,7 +17265,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -17370,7 +17373,7 @@
         <v>1209</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -17434,7 +17437,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -17540,7 +17543,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -17569,7 +17572,7 @@
         <v>1476</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -17598,7 +17601,7 @@
         <v>1476</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -17627,7 +17630,7 @@
         <v>1476</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -17656,7 +17659,7 @@
         <v>1476</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -17677,7 +17680,7 @@
         <v>931</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -17781,7 +17784,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -17797,7 +17800,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -17821,7 +17824,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -17887,7 +17890,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -17974,7 +17977,7 @@
         <v>1685</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
     </row>
   </sheetData>
@@ -18036,7 +18039,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -18052,7 +18055,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -18142,7 +18145,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -18171,7 +18174,7 @@
         <v>1476</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -18237,7 +18240,7 @@
         <v>1685</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
     </row>
   </sheetData>
@@ -18649,7 +18652,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -18657,7 +18660,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -18755,7 +18758,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -18776,7 +18779,7 @@
         <v>931</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -18851,7 +18854,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -18859,7 +18862,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -18867,7 +18870,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -18970,7 +18973,7 @@
         <v>1250</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -18988,7 +18991,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>747</v>
@@ -18996,7 +18999,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>747</v>
@@ -19063,7 +19066,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -19071,7 +19074,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -19169,7 +19172,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -19198,7 +19201,7 @@
         <v>1476</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -19240,7 +19243,7 @@
         <v>1222</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -19248,7 +19251,7 @@
         <v>1225</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -19274,7 +19277,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="7" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>731</v>
@@ -19341,7 +19344,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -19349,7 +19352,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -19357,7 +19360,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -19473,15 +19476,15 @@
         <v>1688</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
     </row>
   </sheetData>
@@ -19543,7 +19546,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -19551,7 +19554,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -19559,7 +19562,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -19687,7 +19690,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -19779,10 +19782,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -19790,7 +19793,7 @@
         <v>1697</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
     </row>
   </sheetData>
@@ -19851,7 +19854,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -19867,7 +19870,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -19995,7 +19998,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -20090,7 +20093,7 @@
         <v>1709</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
     </row>
   </sheetData>
@@ -20150,7 +20153,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -20158,7 +20161,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -20245,7 +20248,7 @@
         <v>1709</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
     </row>
   </sheetData>
@@ -20305,7 +20308,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -20321,7 +20324,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -20337,7 +20340,7 @@
         <v>1480</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -20345,7 +20348,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -20411,7 +20414,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -20440,7 +20443,7 @@
         <v>1476</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -20469,7 +20472,7 @@
         <v>1476</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -20498,7 +20501,7 @@
         <v>1476</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -20527,7 +20530,7 @@
         <v>1476</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -20556,7 +20559,7 @@
         <v>1476</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -20614,7 +20617,7 @@
         <v>1476</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -20643,7 +20646,7 @@
         <v>1476</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -20672,7 +20675,7 @@
         <v>1476</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -20701,7 +20704,7 @@
         <v>1476</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -20730,7 +20733,7 @@
         <v>1476</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -20788,7 +20791,7 @@
         <v>1476</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -20817,7 +20820,7 @@
         <v>1476</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -20846,7 +20849,7 @@
         <v>1476</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -20875,7 +20878,7 @@
         <v>1476</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -20904,7 +20907,7 @@
         <v>1476</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -20933,7 +20936,7 @@
         <v>1476</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -20962,7 +20965,7 @@
         <v>291</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -20991,7 +20994,7 @@
         <v>1476</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -21020,7 +21023,7 @@
         <v>1476</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -21049,7 +21052,7 @@
         <v>1476</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -21078,7 +21081,7 @@
         <v>1476</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -21107,7 +21110,7 @@
         <v>1476</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -21136,7 +21139,7 @@
         <v>1476</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -21165,7 +21168,7 @@
         <v>1476</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -21348,7 +21351,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="B66" s="7" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>750</v>
@@ -21356,7 +21359,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="B67" s="7" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>750</v>
@@ -22532,23 +22535,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B1" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B2" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B3">
         <v>19</v>
@@ -22556,7 +22559,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B4">
         <v>134</v>
@@ -22564,7 +22567,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B5">
         <v>236</v>
@@ -22572,7 +22575,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B6">
         <v>181</v>
@@ -22580,7 +22583,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B7">
         <v>57</v>
@@ -22588,7 +22591,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B8">
         <v>0.43</v>
@@ -44959,8 +44962,8 @@
       <c r="A22" t="s">
         <v>1021</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>1022</v>
+      <c r="B22" s="3" t="s">
+        <v>1763</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -44970,7 +44973,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="7" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>532</v>
@@ -44978,7 +44981,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="7" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>532</v>
@@ -44986,7 +44989,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="7" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>1020</v>
@@ -44994,10 +44997,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="7" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
   </sheetData>
@@ -45009,6 +45012,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1" location="Main!A1" display="back to main"/>
+    <hyperlink ref="B22" location="T1105!A1" display="Analyze web browser memory for web browsing activity (T1105)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -45205,7 +45209,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -45213,7 +45217,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -45237,7 +45241,7 @@
         <v>1480</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -45245,7 +45249,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -45311,7 +45315,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -45340,7 +45344,7 @@
         <v>293</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -45493,7 +45497,7 @@
         <v>1160</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -45535,7 +45539,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="7" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>665</v>
@@ -45543,26 +45547,26 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="7" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="7" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="7" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
   </sheetData>
@@ -45627,7 +45631,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -45635,7 +45639,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -45643,7 +45647,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -45659,7 +45663,7 @@
         <v>1480</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -45733,7 +45737,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -45762,7 +45766,7 @@
         <v>1476</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -45791,7 +45795,7 @@
         <v>1476</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -45820,7 +45824,7 @@
         <v>1476</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -45849,7 +45853,7 @@
         <v>1476</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -45878,7 +45882,7 @@
         <v>1476</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -45907,7 +45911,7 @@
         <v>1476</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -45936,7 +45940,7 @@
         <v>1476</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -45965,7 +45969,7 @@
         <v>293</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -45994,7 +45998,7 @@
         <v>1476</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -46023,7 +46027,7 @@
         <v>1476</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -46052,7 +46056,7 @@
         <v>1476</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -46081,7 +46085,7 @@
         <v>1476</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -46110,7 +46114,7 @@
         <v>1476</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -46139,7 +46143,7 @@
         <v>1476</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -46168,7 +46172,7 @@
         <v>1476</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -46197,7 +46201,7 @@
         <v>1476</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -46226,7 +46230,7 @@
         <v>293</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -46289,26 +46293,26 @@
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="7" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="7" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="7" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
     </row>
   </sheetData>
@@ -47314,7 +47318,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -47330,7 +47334,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -47346,7 +47350,7 @@
         <v>1480</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -47354,7 +47358,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -47420,7 +47424,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -47478,7 +47482,7 @@
         <v>1476</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -47536,7 +47540,7 @@
         <v>1476</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -47594,7 +47598,7 @@
         <v>291</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -47623,7 +47627,7 @@
         <v>1476</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -47763,10 +47767,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="7" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
     </row>
   </sheetData>
@@ -48210,7 +48214,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
   </sheetData>
@@ -48294,7 +48298,7 @@
         <v>1479</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -48365,7 +48369,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
     </row>
   </sheetData>
@@ -48520,7 +48524,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
     </row>
   </sheetData>
@@ -48675,7 +48679,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
   </sheetData>
@@ -49277,7 +49281,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -49380,7 +49384,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
     </row>
   </sheetData>
@@ -49432,7 +49436,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -49535,7 +49539,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
   </sheetData>
@@ -49595,7 +49599,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -49603,7 +49607,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -49611,7 +49615,7 @@
         <v>1478</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -49635,7 +49639,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -49687,26 +49691,26 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
+        <v>1822</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>1821</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>1820</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -49714,7 +49718,7 @@
         <v>1696</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
     </row>
   </sheetData>
@@ -49769,7 +49773,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -49777,7 +49781,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -49913,7 +49917,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -49921,7 +49925,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -49929,7 +49933,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -50013,10 +50017,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
     </row>
   </sheetData>
@@ -50068,7 +50072,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -50171,7 +50175,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
   </sheetData>
@@ -50223,7 +50227,7 @@
         <v>1474</v>
       </c>
       <c r="B3" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -50326,7 +50330,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
   </sheetData>
@@ -50386,7 +50390,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -50394,7 +50398,7 @@
         <v>1477</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -50589,7 +50593,7 @@
         <v>1475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -50629,7 +50633,7 @@
         <v>1481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -50695,7 +50699,7 @@
         <v>1476</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -50724,7 +50728,7 @@
         <v>1476</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -50956,7 +50960,7 @@
         <v>1489</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
   </sheetData>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -4589,7 +4589,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10407" uniqueCount="2130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10405" uniqueCount="2133">
   <si>
     <t>Find potential digital evidence sources</t>
   </si>
@@ -9060,16 +9060,16 @@
 T1061</t>
   </si>
   <si>
+    <t>&gt; File carving
+T1064</t>
+  </si>
+  <si>
     <t>Decryption of encrypted file systems/volumes
 T1062</t>
   </si>
   <si>
     <t>Identify file types
 T1063</t>
-  </si>
-  <si>
-    <t>File carving
-T1064</t>
   </si>
   <si>
     <t>Content indexer examination (OS)
@@ -10241,6 +10241,22 @@
     <t>['Deleted file recovery']</t>
   </si>
   <si>
+    <t>['T1064:File carving']</t>
+  </si>
+  <si>
+    <t>['observable:File',
+ 'observable:filePath',
+ 'observable:modifiedTime',
+ 'observable:creationTime',
+ 'observable:accessedTime',
+ 'observable:mftRecordChangeTime',
+ 'observable:mftFileNameAccessedTime',
+ 'observable:mftFileNameCreatedTime',
+ 'observable:mftFileNameModifiedTime',
+ 'observable:mftFileNameRecordChangeTime',
+ 'core:confidence']</t>
+  </si>
+  <si>
     <t>M1079, M1080, M1081</t>
   </si>
   <si>
@@ -10287,6 +10303,9 @@
   </si>
   <si>
     <t>Karampidis, K. and Papadourakis, G., 2017. File type identification-computational intelligence for digital forensics. Journal of Digital Forensics, Security and Law, 12(2), p.6.</t>
+  </si>
+  <si>
+    <t>['observable:File', 'observable:rangeOffset', 'observable:rangeOffsetType']</t>
   </si>
   <si>
     <t>M1062, M1063, M1064, M1090</t>
@@ -11204,7 +11223,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-10-04T20:05:10.044714+00:00</t>
+    <t>2025-10-04T20:05:45.918447+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>
@@ -11891,7 +11910,7 @@
       <c r="F5" s="2" t="s">
         <v>1463</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>1471</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -11935,7 +11954,7 @@
       <c r="F6" s="3" t="s">
         <v>1464</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>1472</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -12258,7 +12277,7 @@
     <hyperlink ref="D5" location="T1015!A1" display="Privacy preserving selective extraction&#10;T1015"/>
     <hyperlink ref="E5" location="T1034!A1" display="Brute force attack&#10;T1034"/>
     <hyperlink ref="F5" location="T1045!A1" display="Decode standard archive format&#10;T1045"/>
-    <hyperlink ref="H5" location="T1062!A1" display="Decryption of encrypted file systems/volumes&#10;T1062"/>
+    <hyperlink ref="H5" location="T1064!A1" display="&gt; File carving&#10;T1064"/>
     <hyperlink ref="I5" location="T1068!A1" display="Recently used file identification (OS)&#10;T1068"/>
     <hyperlink ref="J5" location="T1139!A1" display="&gt; Browser session examination&#10;T1139"/>
     <hyperlink ref="K5" location="T1056!A1" display="Entity connection enumeration&#10;T1056"/>
@@ -12272,7 +12291,7 @@
     <hyperlink ref="D6" location="T1016!A1" display="Live data collection&#10;T1016"/>
     <hyperlink ref="E6" location="T1035!A1" display="Dictionary attack&#10;T1035"/>
     <hyperlink ref="F6" location="T1102!A1" display="Decode data from image from unmanaged NAND&#10;T1102"/>
-    <hyperlink ref="H6" location="T1063!A1" display="Identify file types&#10;T1063"/>
+    <hyperlink ref="H6" location="T1062!A1" display="Decryption of encrypted file systems/volumes&#10;T1062"/>
     <hyperlink ref="I6" location="T1083!A1" display="Memory examination (OS-level)&#10;T1083"/>
     <hyperlink ref="J6" location="T1140!A1" display="&gt; Browser autofill examination&#10;T1140"/>
     <hyperlink ref="K6" location="T1071!A1" display="Database examination&#10;T1071"/>
@@ -12283,7 +12302,7 @@
     <hyperlink ref="S6" location="T1094!A1" display="Disclosure&#10;T1094"/>
     <hyperlink ref="D7" location="T1017!A1" display="Network packet capture&#10;T1017"/>
     <hyperlink ref="E7" location="T1036!A1" display="Smudge attack&#10;T1036"/>
-    <hyperlink ref="H7" location="T1064!A1" display="File carving&#10;T1064"/>
+    <hyperlink ref="H7" location="T1063!A1" display="Identify file types&#10;T1063"/>
     <hyperlink ref="I7" location="T1096!A1" display="Run programs identification (OS)&#10;T1096"/>
     <hyperlink ref="J7" location="T1141!A1" display="&gt; Browser bookmarks examination&#10;T1141"/>
     <hyperlink ref="K7" location="T1076!A1" display="Log file examination&#10;T1076"/>
@@ -12899,7 +12918,7 @@
         <v>1622</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1927</v>
+        <v>1930</v>
       </c>
     </row>
   </sheetData>
@@ -12951,7 +12970,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13054,7 +13073,7 @@
         <v>1622</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1928</v>
+        <v>1931</v>
       </c>
     </row>
   </sheetData>
@@ -13106,7 +13125,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1841</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13114,7 +13133,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1929</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13209,7 +13228,7 @@
         <v>1622</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1930</v>
+        <v>1933</v>
       </c>
     </row>
   </sheetData>
@@ -13261,7 +13280,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1841</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13269,7 +13288,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1931</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13364,7 +13383,7 @@
         <v>1622</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1932</v>
+        <v>1935</v>
       </c>
     </row>
   </sheetData>
@@ -13416,7 +13435,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1841</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13424,7 +13443,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1933</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13519,7 +13538,7 @@
         <v>1622</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1934</v>
+        <v>1937</v>
       </c>
     </row>
   </sheetData>
@@ -13579,7 +13598,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13818,7 +13837,7 @@
         <v>1622</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1936</v>
+        <v>1939</v>
       </c>
     </row>
   </sheetData>
@@ -13870,7 +13889,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13878,7 +13897,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1937</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13894,7 +13913,7 @@
         <v>1568</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1938</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -13970,18 +13989,18 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1939</v>
+        <v>1942</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1940</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
-        <v>1941</v>
+        <v>1944</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1940</v>
+        <v>1943</v>
       </c>
     </row>
   </sheetData>
@@ -14178,7 +14197,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1942</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14186,7 +14205,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1943</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -14687,7 +14706,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14975,7 +14994,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -15119,7 +15138,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -15263,7 +15282,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -15431,7 +15450,7 @@
         <v>1568</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1944</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -15534,7 +15553,7 @@
         <v>1260</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1945</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -15544,7 +15563,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1946</v>
+        <v>1949</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>705</v>
@@ -15609,7 +15628,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1947</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -15625,7 +15644,7 @@
         <v>1568</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1948</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -15641,7 +15660,7 @@
         <v>1570</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1949</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -15783,7 +15802,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1950</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -15960,7 +15979,7 @@
         <v>1224</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1951</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -15970,10 +15989,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>1952</v>
+        <v>1955</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1953</v>
+        <v>1956</v>
       </c>
     </row>
   </sheetData>
@@ -16035,7 +16054,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1954</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -16075,7 +16094,7 @@
         <v>1571</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1955</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -16141,7 +16160,7 @@
         <v>1566</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1956</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -16170,7 +16189,7 @@
         <v>1566</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1957</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -16228,7 +16247,7 @@
         <v>1566</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1958</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -16241,7 +16260,7 @@
         <v>1224</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1951</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -16307,7 +16326,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="7" t="s">
-        <v>1952</v>
+        <v>1955</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>718</v>
@@ -16315,7 +16334,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="7" t="s">
-        <v>1959</v>
+        <v>1962</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>718</v>
@@ -16323,7 +16342,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="7" t="s">
-        <v>1960</v>
+        <v>1963</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>718</v>
@@ -16331,10 +16350,10 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="7" t="s">
-        <v>1961</v>
+        <v>1964</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>1962</v>
+        <v>1965</v>
       </c>
     </row>
   </sheetData>
@@ -16584,7 +16603,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1963</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -16592,7 +16611,7 @@
         <v>1567</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1964</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -16600,7 +16619,7 @@
         <v>1568</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1965</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -16708,7 +16727,7 @@
         <v>1710</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1966</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -16716,7 +16735,7 @@
         <v>1614</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
     </row>
   </sheetData>
@@ -16770,7 +16789,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1942</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -16778,7 +16797,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1968</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -16818,7 +16837,7 @@
         <v>1571</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1969</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -16870,26 +16889,26 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1970</v>
+        <v>1973</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
     </row>
   </sheetData>
@@ -16943,7 +16962,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1841</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -16951,7 +16970,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1974</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -16991,7 +17010,7 @@
         <v>1571</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1975</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -17057,7 +17076,7 @@
         <v>1566</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1976</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -17086,7 +17105,7 @@
         <v>319</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1977</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -17170,7 +17189,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="7" t="s">
-        <v>1978</v>
+        <v>1981</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>732</v>
@@ -17226,7 +17245,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1911</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -17234,7 +17253,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1979</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -17395,15 +17414,15 @@
         <v>1788</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1980</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>1981</v>
+        <v>1984</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1982</v>
+        <v>1985</v>
       </c>
     </row>
   </sheetData>
@@ -17465,7 +17484,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1983</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -17505,7 +17524,7 @@
         <v>1571</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1984</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -17652,7 +17671,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>740</v>
@@ -17708,7 +17727,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -17716,7 +17735,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1986</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -17724,7 +17743,7 @@
         <v>1567</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1987</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -17748,7 +17767,7 @@
         <v>1570</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1988</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -17756,7 +17775,7 @@
         <v>1571</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1989</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -17845,7 +17864,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1990</v>
+        <v>1993</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>752</v>
@@ -17853,7 +17872,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>1991</v>
+        <v>1994</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>752</v>
@@ -17918,7 +17937,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1992</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -17926,7 +17945,7 @@
         <v>1567</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1993</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -17934,7 +17953,7 @@
         <v>1568</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1994</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -17950,7 +17969,7 @@
         <v>1570</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1995</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -17958,7 +17977,7 @@
         <v>1571</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1996</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -18066,7 +18085,7 @@
         <v>1260</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1945</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -18130,7 +18149,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1997</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -18236,7 +18255,7 @@
         <v>1566</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1998</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -18265,7 +18284,7 @@
         <v>1566</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1999</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -18294,7 +18313,7 @@
         <v>1566</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -18323,7 +18342,7 @@
         <v>1566</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>2001</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -18352,7 +18371,7 @@
         <v>1566</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>2002</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -18373,7 +18392,7 @@
         <v>982</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>2003</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -18477,7 +18496,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2004</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -18493,7 +18512,7 @@
         <v>1568</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2005</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -18517,7 +18536,7 @@
         <v>1571</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>2006</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -18583,7 +18602,7 @@
         <v>1566</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>2007</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -18670,7 +18689,7 @@
         <v>1774</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>2008</v>
+        <v>2011</v>
       </c>
     </row>
   </sheetData>
@@ -18732,7 +18751,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2009</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -18748,7 +18767,7 @@
         <v>1568</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2010</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -18838,7 +18857,7 @@
         <v>1566</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>2011</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -18867,7 +18886,7 @@
         <v>1566</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>2012</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -18933,7 +18952,7 @@
         <v>1774</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>2008</v>
+        <v>2011</v>
       </c>
     </row>
   </sheetData>
@@ -19345,7 +19364,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2013</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -19353,7 +19372,7 @@
         <v>1567</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2014</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -19451,7 +19470,7 @@
         <v>1566</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>2015</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -19472,7 +19491,7 @@
         <v>982</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>2003</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -19547,7 +19566,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2016</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -19555,7 +19574,7 @@
         <v>1567</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2017</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -19563,7 +19582,7 @@
         <v>1568</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -19666,7 +19685,7 @@
         <v>1301</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -19684,7 +19703,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>774</v>
@@ -19692,7 +19711,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>774</v>
@@ -19759,7 +19778,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2022</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -19767,7 +19786,7 @@
         <v>1567</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2017</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -19865,7 +19884,7 @@
         <v>1566</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>2023</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -19894,7 +19913,7 @@
         <v>1566</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>2023</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -19936,7 +19955,7 @@
         <v>1273</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>2024</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -19944,7 +19963,7 @@
         <v>1276</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>2025</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -19970,7 +19989,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="7" t="s">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>758</v>
@@ -20037,7 +20056,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2026</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -20045,7 +20064,7 @@
         <v>1567</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2017</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -20053,7 +20072,7 @@
         <v>1568</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2027</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -20169,15 +20188,15 @@
         <v>1777</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>2028</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>2028</v>
+        <v>2031</v>
       </c>
     </row>
   </sheetData>
@@ -20239,7 +20258,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2029</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -20247,7 +20266,7 @@
         <v>1567</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2030</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -20255,7 +20274,7 @@
         <v>1568</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2031</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -20383,7 +20402,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2032</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -20475,10 +20494,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>2033</v>
+        <v>2036</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2034</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -20486,7 +20505,7 @@
         <v>1786</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>2034</v>
+        <v>2037</v>
       </c>
     </row>
   </sheetData>
@@ -20547,7 +20566,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2035</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -20563,7 +20582,7 @@
         <v>1568</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2036</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -20691,7 +20710,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2037</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -20786,7 +20805,7 @@
         <v>1798</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2038</v>
+        <v>2041</v>
       </c>
     </row>
   </sheetData>
@@ -20846,7 +20865,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2039</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -20854,7 +20873,7 @@
         <v>1567</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2040</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -20941,7 +20960,7 @@
         <v>1798</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
     </row>
   </sheetData>
@@ -20993,7 +21012,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -21001,7 +21020,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2042</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -21017,7 +21036,7 @@
         <v>1568</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2043</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -21033,7 +21052,7 @@
         <v>1570</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>2044</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -21041,7 +21060,7 @@
         <v>1571</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>2045</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -21107,7 +21126,7 @@
         <v>1566</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>2046</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -21136,7 +21155,7 @@
         <v>1566</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>2047</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -21165,7 +21184,7 @@
         <v>1566</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>2046</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -21194,7 +21213,7 @@
         <v>1566</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>2048</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -21223,7 +21242,7 @@
         <v>1566</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>2049</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -21252,7 +21271,7 @@
         <v>1566</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -21310,7 +21329,7 @@
         <v>1566</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>2051</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -21339,7 +21358,7 @@
         <v>1566</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>2052</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -21368,7 +21387,7 @@
         <v>1566</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>2053</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -21397,7 +21416,7 @@
         <v>1566</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>2054</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -21426,7 +21445,7 @@
         <v>1566</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -21484,7 +21503,7 @@
         <v>1566</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>2056</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -21513,7 +21532,7 @@
         <v>1566</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>2057</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -21542,7 +21561,7 @@
         <v>1566</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>2058</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -21571,7 +21590,7 @@
         <v>1566</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>2058</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -21600,7 +21619,7 @@
         <v>1566</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>2059</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -21629,7 +21648,7 @@
         <v>1566</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>2060</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -21658,7 +21677,7 @@
         <v>317</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>2061</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -21687,7 +21706,7 @@
         <v>1566</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>2062</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -21716,7 +21735,7 @@
         <v>1566</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>2063</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -21745,7 +21764,7 @@
         <v>1566</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>2064</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -21774,7 +21793,7 @@
         <v>1566</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>2065</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -21803,7 +21822,7 @@
         <v>1566</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>2066</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -21832,7 +21851,7 @@
         <v>1566</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>2067</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -21861,7 +21880,7 @@
         <v>1566</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>2068</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -22044,7 +22063,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="B66" s="7" t="s">
-        <v>2069</v>
+        <v>2072</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>777</v>
@@ -22052,7 +22071,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="B67" s="7" t="s">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>777</v>
@@ -22272,7 +22291,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2071</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -22280,7 +22299,7 @@
         <v>1567</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2072</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -22288,7 +22307,7 @@
         <v>1568</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -22304,7 +22323,7 @@
         <v>1570</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>2074</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -22378,7 +22397,7 @@
         <v>1566</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>2075</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -22436,7 +22455,7 @@
         <v>1566</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -22494,7 +22513,7 @@
         <v>319</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>2077</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -22631,7 +22650,7 @@
         <v>1072</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>2078</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -22639,7 +22658,7 @@
         <v>1401</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>2079</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -22663,7 +22682,7 @@
         <v>1410</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>2080</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -22673,15 +22692,15 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="7" t="s">
-        <v>2081</v>
+        <v>2084</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>2082</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="7" t="s">
-        <v>2083</v>
+        <v>2086</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>1071</v>
@@ -22689,18 +22708,18 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="7" t="s">
-        <v>2084</v>
+        <v>2087</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>2085</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="7" t="s">
-        <v>2086</v>
+        <v>2089</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>2087</v>
+        <v>2090</v>
       </c>
     </row>
   </sheetData>
@@ -22767,7 +22786,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2088</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -22775,7 +22794,7 @@
         <v>1567</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2089</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -22799,7 +22818,7 @@
         <v>1570</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>2090</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -22896,10 +22915,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>2091</v>
+        <v>2094</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>2092</v>
+        <v>2095</v>
       </c>
     </row>
   </sheetData>
@@ -22960,7 +22979,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2093</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -23104,7 +23123,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2094</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -23248,7 +23267,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2095</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -23422,7 +23441,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2096</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -23596,7 +23615,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2097</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -23740,7 +23759,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2098</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -23859,7 +23878,7 @@
         <v>1398</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>2099</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -23869,10 +23888,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>2100</v>
+        <v>2103</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>2101</v>
+        <v>2104</v>
       </c>
     </row>
   </sheetData>
@@ -23934,7 +23953,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2102</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -24078,7 +24097,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2103</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -24377,7 +24396,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2104</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -24521,7 +24540,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2105</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -24529,7 +24548,7 @@
         <v>1567</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2106</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -24537,7 +24556,7 @@
         <v>1568</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2107</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -24613,10 +24632,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>2108</v>
+        <v>2111</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2109</v>
+        <v>2112</v>
       </c>
     </row>
   </sheetData>
@@ -24668,7 +24687,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1841</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -24676,7 +24695,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2110</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -24684,7 +24703,7 @@
         <v>1567</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2111</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -24692,7 +24711,7 @@
         <v>1568</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -24708,7 +24727,7 @@
         <v>1570</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -24716,7 +24735,7 @@
         <v>1571</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -24768,34 +24787,34 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
+        <v>2122</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>2119</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>2116</v>
       </c>
     </row>
   </sheetData>
@@ -25659,23 +25678,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="B1" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="B2" t="s">
-        <v>2123</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
       <c r="B3">
         <v>19</v>
@@ -25683,7 +25702,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="B4">
         <v>147</v>
@@ -25691,7 +25710,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
       <c r="B5">
         <v>246</v>
@@ -25699,7 +25718,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="B6">
         <v>190</v>
@@ -25707,7 +25726,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
       <c r="B7">
         <v>62</v>
@@ -25715,7 +25734,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="B8">
         <v>0.42</v>
@@ -46238,7 +46257,7 @@
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -46306,7 +46325,7 @@
         <v>1569</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>727</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -46314,7 +46333,7 @@
         <v>1570</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>727</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -46417,7 +46436,7 @@
         <v>319</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -46446,7 +46465,7 @@
         <v>319</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -46509,33 +46528,24 @@
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="7" t="s">
-        <v>1622</v>
+        <v>1753</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>616</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="7" t="s">
-        <v>1753</v>
+        <v>1817</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="B29" s="7" t="s">
-        <v>1817</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B27:H27"/>
     <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1" location="Main!A1" display="back to main"/>
@@ -46686,7 +46696,7 @@
         <v>1622</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
     </row>
   </sheetData>
@@ -46746,7 +46756,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -46762,7 +46772,7 @@
         <v>1568</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -46852,7 +46862,7 @@
         <v>1566</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -46881,7 +46891,7 @@
         <v>1566</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -46910,7 +46920,7 @@
         <v>1566</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -46957,7 +46967,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="7" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>606</v>
@@ -46968,39 +46978,39 @@
         <v>1753</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="7" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="7" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="7" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="7" t="s">
+        <v>1837</v>
+      </c>
+      <c r="I30" s="7" t="s">
         <v>1835</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>1833</v>
       </c>
     </row>
   </sheetData>
@@ -47336,7 +47346,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1801</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -47376,7 +47386,7 @@
         <v>1570</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>727</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -47479,7 +47489,7 @@
         <v>1566</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1836</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -47508,7 +47518,7 @@
         <v>1566</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1836</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -47566,7 +47576,7 @@
         <v>1566</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1837</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -47579,7 +47589,7 @@
         <v>1054</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -47645,10 +47655,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="7" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
     </row>
   </sheetData>
@@ -47702,7 +47712,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1841</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -47710,7 +47720,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1842</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -47805,7 +47815,7 @@
         <v>1622</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1843</v>
+        <v>1846</v>
       </c>
     </row>
   </sheetData>
@@ -47857,7 +47867,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1841</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -47960,7 +47970,7 @@
         <v>1622</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1844</v>
+        <v>1847</v>
       </c>
     </row>
   </sheetData>
@@ -48012,7 +48022,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1841</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -48115,7 +48125,7 @@
         <v>1622</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1845</v>
+        <v>1848</v>
       </c>
     </row>
   </sheetData>
@@ -48167,7 +48177,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1841</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -48270,7 +48280,7 @@
         <v>1622</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1846</v>
+        <v>1849</v>
       </c>
     </row>
   </sheetData>
@@ -48322,7 +48332,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -48330,7 +48340,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1848</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -48346,7 +48356,7 @@
         <v>1568</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1849</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -48354,7 +48364,7 @@
         <v>1569</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1850</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -48362,7 +48372,7 @@
         <v>1570</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1851</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -48507,7 +48517,7 @@
         <v>1386</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -48515,7 +48525,7 @@
         <v>1389</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1853</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -48533,7 +48543,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="7" t="s">
-        <v>1854</v>
+        <v>1857</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>569</v>
@@ -48541,7 +48551,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="7" t="s">
-        <v>1855</v>
+        <v>1858</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>569</v>
@@ -48600,7 +48610,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -48752,7 +48762,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1856</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -48760,7 +48770,7 @@
         <v>1567</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1857</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -48784,7 +48794,7 @@
         <v>1570</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1858</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -48792,7 +48802,7 @@
         <v>1571</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1859</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -48858,7 +48868,7 @@
         <v>1566</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1860</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -48887,7 +48897,7 @@
         <v>319</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1861</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -49040,7 +49050,7 @@
         <v>1211</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1862</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -49082,7 +49092,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="7" t="s">
-        <v>1863</v>
+        <v>1866</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>692</v>
@@ -49090,26 +49100,26 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="7" t="s">
-        <v>1864</v>
+        <v>1867</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>1865</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="7" t="s">
-        <v>1866</v>
+        <v>1869</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>1867</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="7" t="s">
-        <v>1868</v>
+        <v>1871</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>1869</v>
+        <v>1872</v>
       </c>
     </row>
   </sheetData>
@@ -49166,7 +49176,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -49174,7 +49184,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1870</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -49182,7 +49192,7 @@
         <v>1567</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1871</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -49190,7 +49200,7 @@
         <v>1568</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1872</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -49206,7 +49216,7 @@
         <v>1570</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1873</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -49280,7 +49290,7 @@
         <v>1566</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1874</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -49309,7 +49319,7 @@
         <v>1566</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -49338,7 +49348,7 @@
         <v>1566</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1876</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -49367,7 +49377,7 @@
         <v>1566</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1876</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -49396,7 +49406,7 @@
         <v>1566</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -49425,7 +49435,7 @@
         <v>1566</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -49454,7 +49464,7 @@
         <v>1566</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -49483,7 +49493,7 @@
         <v>1566</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -49512,7 +49522,7 @@
         <v>319</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1876</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -49541,7 +49551,7 @@
         <v>1566</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1876</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -49570,7 +49580,7 @@
         <v>1566</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>1876</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -49599,7 +49609,7 @@
         <v>1566</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>1874</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -49628,7 +49638,7 @@
         <v>1566</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>1874</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -49657,7 +49667,7 @@
         <v>1566</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1876</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -49686,7 +49696,7 @@
         <v>1566</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>1876</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -49715,7 +49725,7 @@
         <v>1566</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>1876</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -49744,7 +49754,7 @@
         <v>1566</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1876</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -49773,7 +49783,7 @@
         <v>319</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>1876</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -49836,26 +49846,26 @@
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="7" t="s">
-        <v>1878</v>
+        <v>1881</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>1879</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="7" t="s">
-        <v>1880</v>
+        <v>1883</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>1881</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="7" t="s">
-        <v>1882</v>
+        <v>1885</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>1883</v>
+        <v>1886</v>
       </c>
     </row>
   </sheetData>
@@ -49910,7 +49920,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -50565,7 +50575,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -50709,7 +50719,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -50861,7 +50871,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1884</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -50877,7 +50887,7 @@
         <v>1568</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1885</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -50893,7 +50903,7 @@
         <v>1570</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1886</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -50901,7 +50911,7 @@
         <v>1571</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1887</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -50967,7 +50977,7 @@
         <v>1566</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1888</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -51025,7 +51035,7 @@
         <v>1566</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1889</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -51083,7 +51093,7 @@
         <v>1566</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1890</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -51141,7 +51151,7 @@
         <v>317</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1891</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -51170,7 +51180,7 @@
         <v>1566</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1892</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -51310,10 +51320,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="7" t="s">
-        <v>1893</v>
+        <v>1896</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>1894</v>
+        <v>1897</v>
       </c>
     </row>
   </sheetData>
@@ -51366,7 +51376,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -51510,7 +51520,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -51757,7 +51767,7 @@
         <v>1622</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1895</v>
+        <v>1898</v>
       </c>
     </row>
   </sheetData>
@@ -51841,7 +51851,7 @@
         <v>1569</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1896</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -51912,7 +51922,7 @@
         <v>1622</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
     </row>
   </sheetData>
@@ -52067,7 +52077,7 @@
         <v>1622</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1898</v>
+        <v>1901</v>
       </c>
     </row>
   </sheetData>
@@ -52222,7 +52232,7 @@
         <v>1622</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1899</v>
+        <v>1902</v>
       </c>
     </row>
   </sheetData>
@@ -52274,7 +52284,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1841</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -52824,7 +52834,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -52927,7 +52937,7 @@
         <v>1622</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1901</v>
+        <v>1904</v>
       </c>
     </row>
   </sheetData>
@@ -52979,7 +52989,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -53082,7 +53092,7 @@
         <v>1622</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1902</v>
+        <v>1905</v>
       </c>
     </row>
   </sheetData>
@@ -53142,7 +53152,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1903</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -53150,7 +53160,7 @@
         <v>1567</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1904</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -53158,7 +53168,7 @@
         <v>1568</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1905</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -53182,7 +53192,7 @@
         <v>1571</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1906</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -53234,26 +53244,26 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
-        <v>1909</v>
+        <v>1912</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1910</v>
+        <v>1913</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -53261,7 +53271,7 @@
         <v>1785</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
     </row>
   </sheetData>
@@ -53316,7 +53326,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1911</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -53324,7 +53334,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1912</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -53460,7 +53470,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1911</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -53468,7 +53478,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1913</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -53476,7 +53486,7 @@
         <v>1567</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1914</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -53560,10 +53570,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1915</v>
+        <v>1918</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
     </row>
   </sheetData>
@@ -53615,7 +53625,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -53718,7 +53728,7 @@
         <v>1622</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1918</v>
+        <v>1921</v>
       </c>
     </row>
   </sheetData>
@@ -53770,7 +53780,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -53873,7 +53883,7 @@
         <v>1622</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1919</v>
+        <v>1922</v>
       </c>
     </row>
   </sheetData>
@@ -53933,7 +53943,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1920</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -53941,7 +53951,7 @@
         <v>1567</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1921</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -54136,7 +54146,7 @@
         <v>1565</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1922</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -54176,7 +54186,7 @@
         <v>1571</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1923</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -54242,7 +54252,7 @@
         <v>1566</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1924</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -54271,7 +54281,7 @@
         <v>1566</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1925</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -54503,7 +54513,7 @@
         <v>1622</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1926</v>
+        <v>1929</v>
       </c>
     </row>
   </sheetData>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -11223,7 +11223,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-10-04T20:05:45.918447+00:00</t>
+    <t>2025-10-04T20:06:13.921384+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -11223,7 +11223,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-10-04T20:06:13.921384+00:00</t>
+    <t>2025-10-04T20:06:44.409493+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -11223,7 +11223,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-10-04T20:06:44.409493+00:00</t>
+    <t>2025-10-04T20:07:20.041534+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>
@@ -18141,7 +18141,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1767</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -18488,7 +18488,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1767</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -18743,7 +18743,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1767</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -19356,7 +19356,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1767</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -19558,7 +19558,7 @@
         <v>1564</v>
       </c>
       <c r="B3" t="s">
-        <v>1767</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:10">

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -11223,7 +11223,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-10-04T20:07:20.041534+00:00</t>
+    <t>2025-10-07T11:15:07.362184+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -6538,7 +6538,7 @@
     <t>W1148</t>
   </si>
   <si>
-    <t>Incorrect time skew applied to a timeline entry</t>
+    <t>Incorrect time offset applied to a timeline entry</t>
   </si>
   <si>
     <t>W1149</t>
@@ -11223,7 +11223,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-10-07T11:15:07.362184+00:00</t>
+    <t>2025-10-10T15:07:46.171896+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -11223,7 +11223,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-10-10T15:07:46.171896+00:00</t>
+    <t>2025-10-27T16:17:46.062157+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -11223,7 +11223,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-10-27T16:17:46.062157+00:00</t>
+    <t>2025-11-02T14:29:52.137960+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -4694,7 +4694,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11192" uniqueCount="2210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11192" uniqueCount="2213">
   <si>
     <t>Find potential digital evidence sources</t>
   </si>
@@ -5659,7 +5659,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>TODO</t>
+    <t>The process of 'carefully documenting the conditions at a crime scene and identifying all relevant physical evidence.' (Birzer 2018).</t>
   </si>
   <si>
     <t>The use of canines to locate obscured digital storage devices.</t>
@@ -10147,6 +10147,44 @@
   </si>
   <si>
     <t>['Find potential digital evidence sources']</t>
+  </si>
+  <si>
+    <t>['observable:Device',
+ 'observable:Computer',
+ 'observable:MobileDevice',
+ 'observable:SmartDevice',
+ 'observable:WearableDevice',
+ 'observable:location']</t>
+  </si>
+  <si>
+    <t>M1068, M1069</t>
+  </si>
+  <si>
+    <t>Use of digital sniffer dogs (T1006)</t>
+  </si>
+  <si>
+    <t>Use of SyncTriage approach to determine existence other syncronised devices (T1007)</t>
+  </si>
+  <si>
+    <t>Birzer, M.L., 2018. Crime Scene Search. Introduction to Criminal Investigation, p.35.</t>
+  </si>
+  <si>
+    <t>Petersen, S.J. and Schoon, A., 2022. Dogs as Detectors for Hidden Digital Storage Devices: A Pilot Study from the National Police of The Netherlands. In Canines (pp. 535-557). Jenny Stanford Publishing.</t>
+  </si>
+  <si>
+    <t>['M1068']</t>
+  </si>
+  <si>
+    <t>Hargreaves, C. and Marshall, A., 2019. SyncTriage: Using synchronisation artefacts to optimise acquisition order. Digital Investigation, 28, pp.S134-S140.</t>
+  </si>
+  <si>
+    <t>['M1069']</t>
+  </si>
+  <si>
+    <t>['Digital Storage Device Dogs']</t>
+  </si>
+  <si>
+    <t>['observable:location', 'observable:Device']</t>
   </si>
   <si>
     <t>['observable:Device',
@@ -10154,30 +10192,6 @@
  'observable:MobileDevice',
  'observable:SmartDevice',
  'observable:WearableDevice']</t>
-  </si>
-  <si>
-    <t>M1068, M1069</t>
-  </si>
-  <si>
-    <t>Use of digital sniffer dogs (T1006)</t>
-  </si>
-  <si>
-    <t>Use of SyncTriage approach to determine existence other syncronised devices (T1007)</t>
-  </si>
-  <si>
-    <t>Petersen, S.J. and Schoon, A., 2022. Dogs as Detectors for Hidden Digital Storage Devices: A Pilot Study from the National Police of The Netherlands. In Canines (pp. 535-557). Jenny Stanford Publishing.</t>
-  </si>
-  <si>
-    <t>['M1068']</t>
-  </si>
-  <si>
-    <t>Hargreaves, C. and Marshall, A., 2019. SyncTriage: Using synchronisation artefacts to optimise acquisition order. Digital Investigation, 28, pp.S134-S140.</t>
-  </si>
-  <si>
-    <t>['M1069']</t>
-  </si>
-  <si>
-    <t>['Digital Storage Device Dogs']</t>
   </si>
   <si>
     <t>['SyncTriage - https://bitbucket.org/chrishargreaves/synctriage']</t>
@@ -11588,7 +11602,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-11-02T14:37:56.309426+00:00</t>
+    <t>2025-11-02T14:38:30.141048+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>
@@ -13189,7 +13203,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13292,7 +13306,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2035</v>
+        <v>2038</v>
       </c>
     </row>
   </sheetData>
@@ -13344,7 +13358,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13447,7 +13461,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2036</v>
+        <v>2039</v>
       </c>
     </row>
   </sheetData>
@@ -13499,7 +13513,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>2028</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13602,7 +13616,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2037</v>
+        <v>2040</v>
       </c>
     </row>
   </sheetData>
@@ -13654,7 +13668,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1960</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13757,7 +13771,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2038</v>
+        <v>2041</v>
       </c>
     </row>
   </sheetData>
@@ -13809,7 +13823,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1960</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13912,7 +13926,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2039</v>
+        <v>2042</v>
       </c>
     </row>
   </sheetData>
@@ -13964,7 +13978,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1960</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14067,7 +14081,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2040</v>
+        <v>2043</v>
       </c>
     </row>
   </sheetData>
@@ -14119,7 +14133,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14263,7 +14277,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14366,7 +14380,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
     </row>
   </sheetData>
@@ -14418,7 +14432,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>2028</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14442,7 +14456,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2042</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -14518,18 +14532,18 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>2043</v>
+        <v>2046</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2044</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
-        <v>2045</v>
+        <v>2048</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>2044</v>
+        <v>2047</v>
       </c>
     </row>
   </sheetData>
@@ -14582,7 +14596,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1870</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -15132,7 +15146,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>2046</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -15420,7 +15434,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1965</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -15708,7 +15722,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1965</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -15852,7 +15866,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1965</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -15996,7 +16010,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1965</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -16140,7 +16154,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -16164,7 +16178,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2047</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -16267,7 +16281,7 @@
         <v>1388</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>2048</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -16277,7 +16291,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>2049</v>
+        <v>2052</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>823</v>
@@ -16358,7 +16372,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -16374,7 +16388,7 @@
         <v>1718</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>2051</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -16693,7 +16707,7 @@
         <v>1352</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>2052</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -16703,10 +16717,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>2053</v>
+        <v>2056</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>2054</v>
+        <v>2057</v>
       </c>
     </row>
   </sheetData>
@@ -16905,7 +16919,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>1766</v>
+        <v>1772</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>689</v>
@@ -16913,18 +16927,18 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="B23" s="7" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
   </sheetData>
@@ -17029,7 +17043,7 @@
         <v>1719</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -17095,7 +17109,7 @@
         <v>323</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>2056</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -17124,7 +17138,7 @@
         <v>323</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>2057</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -17182,7 +17196,7 @@
         <v>323</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>2058</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -17195,7 +17209,7 @@
         <v>1352</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>2052</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -17261,7 +17275,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="7" t="s">
-        <v>2053</v>
+        <v>2056</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>836</v>
@@ -17269,7 +17283,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="7" t="s">
-        <v>2059</v>
+        <v>2062</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>836</v>
@@ -17277,7 +17291,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="7" t="s">
-        <v>2060</v>
+        <v>2063</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>836</v>
@@ -17285,10 +17299,10 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="7" t="s">
-        <v>2061</v>
+        <v>2064</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>2062</v>
+        <v>2065</v>
       </c>
     </row>
   </sheetData>
@@ -17361,7 +17375,7 @@
         <v>1715</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2063</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -17369,7 +17383,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2064</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -17474,10 +17488,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>2065</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -17485,7 +17499,7 @@
         <v>1759</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>2066</v>
+        <v>2069</v>
       </c>
     </row>
   </sheetData>
@@ -17539,7 +17553,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>2046</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -17587,7 +17601,7 @@
         <v>1719</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>2067</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -17639,26 +17653,26 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>2068</v>
+        <v>2071</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2069</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>2069</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>2069</v>
+        <v>2072</v>
       </c>
     </row>
   </sheetData>
@@ -17712,7 +17726,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1960</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -17752,7 +17766,7 @@
         <v>1718</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1768</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -17760,7 +17774,7 @@
         <v>1719</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>2072</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -17826,7 +17840,7 @@
         <v>323</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -17855,7 +17869,7 @@
         <v>436</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>2074</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -17884,7 +17898,7 @@
         <v>323</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -17939,7 +17953,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="7" t="s">
-        <v>2075</v>
+        <v>2078</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>850</v>
@@ -17995,7 +18009,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>2024</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -18161,18 +18175,18 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>2077</v>
+        <v>2080</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>2078</v>
+        <v>2081</v>
       </c>
     </row>
   </sheetData>
@@ -18226,7 +18240,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1889</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -18266,7 +18280,7 @@
         <v>1718</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1882</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -18274,7 +18288,7 @@
         <v>1719</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>2079</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -18421,7 +18435,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>2080</v>
+        <v>2083</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>858</v>
@@ -18477,7 +18491,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>2028</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -18493,7 +18507,7 @@
         <v>1715</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2081</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -18517,7 +18531,7 @@
         <v>1718</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>2082</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -18525,7 +18539,7 @@
         <v>1719</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>2083</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -18614,7 +18628,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>2084</v>
+        <v>2087</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>870</v>
@@ -18622,7 +18636,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>2085</v>
+        <v>2088</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>870</v>
@@ -18679,7 +18693,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -18695,7 +18709,7 @@
         <v>1715</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2086</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -18703,7 +18717,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2087</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -18719,7 +18733,7 @@
         <v>1718</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>2088</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -18727,7 +18741,7 @@
         <v>1719</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>2089</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -18835,7 +18849,7 @@
         <v>1388</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>2048</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -19005,7 +19019,7 @@
         <v>323</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>2090</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -19034,7 +19048,7 @@
         <v>323</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>2091</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -19063,7 +19077,7 @@
         <v>323</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>2092</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -19092,7 +19106,7 @@
         <v>323</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>2093</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -19121,7 +19135,7 @@
         <v>323</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>2094</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -19142,7 +19156,7 @@
         <v>1109</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>2095</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -19262,7 +19276,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2096</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -19286,7 +19300,7 @@
         <v>1719</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>2097</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -19352,7 +19366,7 @@
         <v>323</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>2098</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -19381,7 +19395,7 @@
         <v>323</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1894</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -19428,18 +19442,18 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="7" t="s">
-        <v>1899</v>
+        <v>1902</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="7" t="s">
-        <v>1895</v>
+        <v>1898</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>2099</v>
+        <v>2102</v>
       </c>
     </row>
   </sheetData>
@@ -19509,7 +19523,7 @@
         <v>1715</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -19533,7 +19547,7 @@
         <v>1718</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>845</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -19622,7 +19636,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>446</v>
@@ -19702,7 +19716,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2100</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -19792,7 +19806,7 @@
         <v>323</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>2101</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -19821,7 +19835,7 @@
         <v>323</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>2102</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -19884,10 +19898,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="7" t="s">
-        <v>1895</v>
+        <v>1898</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>2099</v>
+        <v>2102</v>
       </c>
     </row>
   </sheetData>
@@ -19956,7 +19970,7 @@
         <v>1715</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2103</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -20054,7 +20068,7 @@
         <v>323</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>2104</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -20075,7 +20089,7 @@
         <v>1109</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>2095</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -20085,7 +20099,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>1898</v>
+        <v>1901</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>553</v>
@@ -20158,7 +20172,7 @@
         <v>1715</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2105</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -20166,7 +20180,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2106</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -20269,7 +20283,7 @@
         <v>1429</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>2107</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -20279,7 +20293,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1898</v>
+        <v>1901</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>892</v>
@@ -20287,7 +20301,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>2108</v>
+        <v>2111</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>892</v>
@@ -20295,7 +20309,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>2109</v>
+        <v>2112</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>892</v>
@@ -20370,7 +20384,7 @@
         <v>1715</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2105</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -20468,7 +20482,7 @@
         <v>323</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>2110</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -20497,7 +20511,7 @@
         <v>323</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>2110</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -20539,7 +20553,7 @@
         <v>1401</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>2111</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -20547,7 +20561,7 @@
         <v>1404</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -20565,7 +20579,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="7" t="s">
-        <v>1898</v>
+        <v>1901</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>876</v>
@@ -20573,7 +20587,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="7" t="s">
-        <v>2108</v>
+        <v>2111</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>876</v>
@@ -20648,7 +20662,7 @@
         <v>1715</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2105</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -20656,7 +20670,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -20769,18 +20783,18 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1898</v>
+        <v>1901</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>2109</v>
+        <v>2112</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
     </row>
   </sheetData>
@@ -20834,7 +20848,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -20850,7 +20864,7 @@
         <v>1715</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -20858,7 +20872,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -20978,7 +20992,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -21078,18 +21092,18 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
     </row>
   </sheetData>
@@ -21142,7 +21156,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -21166,7 +21180,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -21286,7 +21300,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -21386,10 +21400,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
     </row>
   </sheetData>
@@ -21441,7 +21455,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -21457,7 +21471,7 @@
         <v>1715</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -21541,10 +21555,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
     </row>
   </sheetData>
@@ -21636,7 +21650,7 @@
         <v>1718</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1768</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -21644,7 +21658,7 @@
         <v>1719</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -21710,7 +21724,7 @@
         <v>323</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1778</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -21797,7 +21811,7 @@
         <v>323</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -21889,7 +21903,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="7" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>453</v>
@@ -21947,7 +21961,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1965</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -21971,7 +21985,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2123</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -21987,7 +22001,7 @@
         <v>1718</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -21995,7 +22009,7 @@
         <v>1719</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -22061,7 +22075,7 @@
         <v>323</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -22090,7 +22104,7 @@
         <v>323</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -22119,7 +22133,7 @@
         <v>323</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -22148,7 +22162,7 @@
         <v>323</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -22177,7 +22191,7 @@
         <v>323</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -22206,7 +22220,7 @@
         <v>323</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2130</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -22264,7 +22278,7 @@
         <v>323</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -22293,7 +22307,7 @@
         <v>323</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>2132</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -22322,7 +22336,7 @@
         <v>323</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -22351,7 +22365,7 @@
         <v>323</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>2134</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -22380,7 +22394,7 @@
         <v>323</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>2135</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -22438,7 +22452,7 @@
         <v>323</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>2136</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -22467,7 +22481,7 @@
         <v>323</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>2137</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -22496,7 +22510,7 @@
         <v>323</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>2138</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -22525,7 +22539,7 @@
         <v>323</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>2138</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -22554,7 +22568,7 @@
         <v>323</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>2139</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -22583,7 +22597,7 @@
         <v>323</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>2140</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -22612,7 +22626,7 @@
         <v>434</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>2141</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -22641,7 +22655,7 @@
         <v>323</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>2142</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -22670,7 +22684,7 @@
         <v>323</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>2143</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -22699,7 +22713,7 @@
         <v>323</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>2144</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -22728,7 +22742,7 @@
         <v>323</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>2145</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -22757,7 +22771,7 @@
         <v>323</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>2146</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -22786,7 +22800,7 @@
         <v>323</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>2147</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -22815,7 +22829,7 @@
         <v>323</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>2148</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -22998,7 +23012,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="B66" s="7" t="s">
-        <v>2149</v>
+        <v>2152</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>895</v>
@@ -23006,7 +23020,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="B67" s="7" t="s">
-        <v>2150</v>
+        <v>2153</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>895</v>
@@ -23079,7 +23093,7 @@
         <v>1715</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2151</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -23087,7 +23101,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2152</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -23103,7 +23117,7 @@
         <v>1718</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>2153</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -23177,7 +23191,7 @@
         <v>323</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>2154</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -23235,7 +23249,7 @@
         <v>323</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>2155</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -23293,7 +23307,7 @@
         <v>436</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>2156</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -23430,7 +23444,7 @@
         <v>1199</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>2157</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -23438,7 +23452,7 @@
         <v>1529</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>2158</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -23462,7 +23476,7 @@
         <v>1538</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>2159</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -23472,15 +23486,15 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="7" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>2161</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="7" t="s">
-        <v>2162</v>
+        <v>2165</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>1198</v>
@@ -23488,18 +23502,18 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="7" t="s">
-        <v>2163</v>
+        <v>2166</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>2164</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="7" t="s">
-        <v>2165</v>
+        <v>2168</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>2166</v>
+        <v>2169</v>
       </c>
     </row>
   </sheetData>
@@ -23574,7 +23588,7 @@
         <v>1715</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2167</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -23598,7 +23612,7 @@
         <v>1718</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>2168</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -23695,10 +23709,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>2169</v>
+        <v>2172</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>2170</v>
+        <v>2173</v>
       </c>
     </row>
   </sheetData>
@@ -24658,7 +24672,7 @@
         <v>1526</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>2171</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -24668,10 +24682,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>2172</v>
+        <v>2175</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>2173</v>
+        <v>2176</v>
       </c>
     </row>
   </sheetData>
@@ -24972,7 +24986,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
     </row>
   </sheetData>
@@ -25328,7 +25342,7 @@
         <v>1715</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2174</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -25336,7 +25350,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2175</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -25412,10 +25426,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>2176</v>
+        <v>2179</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2177</v>
+        <v>2180</v>
       </c>
     </row>
   </sheetData>
@@ -25467,7 +25481,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1960</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -25483,7 +25497,7 @@
         <v>1715</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -25491,7 +25505,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2179</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -25507,7 +25521,7 @@
         <v>1718</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>2180</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -25515,7 +25529,7 @@
         <v>1719</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>2181</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -25567,34 +25581,34 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>2182</v>
+        <v>2185</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2183</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
-        <v>2184</v>
+        <v>2187</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>2183</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>2185</v>
+        <v>2188</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>2183</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
+        <v>2189</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>2186</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>2183</v>
       </c>
     </row>
   </sheetData>
@@ -25689,7 +25703,7 @@
         <v>1718</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1933</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -25763,7 +25777,7 @@
         <v>436</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>2187</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -25792,7 +25806,7 @@
         <v>436</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>2187</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -25821,7 +25835,7 @@
         <v>436</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>2188</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -25850,7 +25864,7 @@
         <v>323</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>2189</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -25879,7 +25893,7 @@
         <v>323</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>2190</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -25908,7 +25922,7 @@
         <v>436</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2191</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -26003,15 +26017,15 @@
     </row>
     <row r="34" spans="1:9">
       <c r="B34" s="7" t="s">
-        <v>1936</v>
+        <v>1939</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>2192</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="7" t="s">
-        <v>1937</v>
+        <v>1940</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>736</v>
@@ -26084,7 +26098,7 @@
         <v>1715</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2193</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -26092,7 +26106,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2194</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -26116,7 +26130,7 @@
         <v>1719</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>2195</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -26182,7 +26196,7 @@
         <v>323</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>2196</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -26195,7 +26209,7 @@
         <v>1552</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>2197</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -26203,7 +26217,7 @@
         <v>1555</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>2198</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -26213,7 +26227,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>2199</v>
+        <v>2202</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>1001</v>
@@ -26374,7 +26388,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
     </row>
   </sheetData>
@@ -26426,7 +26440,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -26450,7 +26464,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1783</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -26621,10 +26635,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
     </row>
   </sheetData>
@@ -26677,7 +26691,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -26821,7 +26835,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -26845,7 +26859,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -26935,7 +26949,7 @@
         <v>323</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1787</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -27048,10 +27062,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="7" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
     </row>
   </sheetData>
@@ -27080,23 +27094,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>2200</v>
+        <v>2203</v>
       </c>
       <c r="B1" t="s">
-        <v>2201</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2202</v>
+        <v>2205</v>
       </c>
       <c r="B2" t="s">
-        <v>2203</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2204</v>
+        <v>2207</v>
       </c>
       <c r="B3">
         <v>19</v>
@@ -27104,7 +27118,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2205</v>
+        <v>2208</v>
       </c>
       <c r="B4">
         <v>149</v>
@@ -27112,7 +27126,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2206</v>
+        <v>2209</v>
       </c>
       <c r="B5">
         <v>251</v>
@@ -27120,7 +27134,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>2207</v>
+        <v>2210</v>
       </c>
       <c r="B6">
         <v>197</v>
@@ -27128,7 +27142,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>2208</v>
+        <v>2211</v>
       </c>
       <c r="B7">
         <v>64</v>
@@ -27136,7 +27150,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>2209</v>
+        <v>2212</v>
       </c>
       <c r="B8">
         <v>0.43</v>
@@ -27185,7 +27199,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -27285,10 +27299,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1790</v>
+        <v>1793</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
     </row>
   </sheetData>
@@ -27340,7 +27354,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -27443,7 +27457,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1793</v>
+        <v>1796</v>
       </c>
     </row>
   </sheetData>
@@ -27543,7 +27557,7 @@
         <v>1719</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -27609,7 +27623,7 @@
         <v>323</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -27696,7 +27710,7 @@
         <v>323</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -27807,7 +27821,7 @@
         <v>1715</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -27815,7 +27829,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -27831,7 +27845,7 @@
         <v>1718</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -27839,7 +27853,7 @@
         <v>1719</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -27963,7 +27977,7 @@
         <v>323</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -28002,7 +28016,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="7" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>511</v>
@@ -28010,7 +28024,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="7" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>511</v>
@@ -28018,18 +28032,18 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="7" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="7" t="s">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
     </row>
   </sheetData>
@@ -28188,7 +28202,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
     </row>
   </sheetData>
@@ -28343,7 +28357,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
     </row>
   </sheetData>
@@ -28443,7 +28457,7 @@
         <v>1719</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -28509,7 +28523,7 @@
         <v>434</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -28596,7 +28610,7 @@
         <v>323</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -28760,7 +28774,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -28776,7 +28790,7 @@
         <v>1718</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -28995,7 +29009,7 @@
         <v>323</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1814</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -29008,7 +29022,7 @@
         <v>1319</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1815</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -29024,7 +29038,7 @@
         <v>1325</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -29032,7 +29046,7 @@
         <v>1328</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -29040,7 +29054,7 @@
         <v>1330</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1818</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -29050,7 +29064,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="7" t="s">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>794</v>
@@ -29058,7 +29072,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="7" t="s">
-        <v>1820</v>
+        <v>1823</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>794</v>
@@ -29066,7 +29080,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="7" t="s">
-        <v>1821</v>
+        <v>1824</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>794</v>
@@ -29128,7 +29142,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -29168,7 +29182,7 @@
         <v>1718</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1823</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -29176,7 +29190,7 @@
         <v>1719</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1824</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -29372,10 +29386,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1820</v>
+        <v>1823</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1825</v>
+        <v>1828</v>
       </c>
     </row>
   </sheetData>
@@ -31782,7 +31796,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1826</v>
+        <v>1829</v>
       </c>
     </row>
   </sheetData>
@@ -31937,7 +31951,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1827</v>
+        <v>1830</v>
       </c>
     </row>
   </sheetData>
@@ -32005,7 +32019,7 @@
         <v>1715</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1828</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -32013,7 +32027,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1829</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -32037,7 +32051,7 @@
         <v>1719</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1830</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -32222,7 +32236,7 @@
         <v>1718</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -32459,7 +32473,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1831</v>
+        <v>1834</v>
       </c>
     </row>
   </sheetData>
@@ -32614,7 +32628,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1832</v>
+        <v>1835</v>
       </c>
     </row>
   </sheetData>
@@ -32769,7 +32783,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1833</v>
+        <v>1836</v>
       </c>
     </row>
   </sheetData>
@@ -32924,7 +32938,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1834</v>
+        <v>1837</v>
       </c>
     </row>
   </sheetData>
@@ -32976,7 +32990,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1835</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -33024,7 +33038,7 @@
         <v>1719</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1836</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -33150,7 +33164,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>1837</v>
+        <v>1840</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>535</v>
@@ -33158,7 +33172,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="B23" s="7" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>535</v>
@@ -33166,7 +33180,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="7" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>535</v>
@@ -33224,7 +33238,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1835</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -33327,7 +33341,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
     </row>
   </sheetData>
@@ -35633,7 +35647,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1835</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -35736,7 +35750,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1841</v>
+        <v>1844</v>
       </c>
     </row>
   </sheetData>
@@ -35788,7 +35802,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1835</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -35804,7 +35818,7 @@
         <v>1715</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1842</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -35812,7 +35826,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1843</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -35828,7 +35842,7 @@
         <v>1718</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1844</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -35902,7 +35916,7 @@
         <v>323</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1845</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -35931,7 +35945,7 @@
         <v>323</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1846</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -35960,7 +35974,7 @@
         <v>323</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1845</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -35989,7 +36003,7 @@
         <v>1285</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -36007,7 +36021,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="7" t="s">
-        <v>1848</v>
+        <v>1851</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>750</v>
@@ -36064,7 +36078,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1835</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -36088,7 +36102,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1849</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -36104,7 +36118,7 @@
         <v>1718</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1844</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -36178,7 +36192,7 @@
         <v>323</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1850</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -36207,7 +36221,7 @@
         <v>323</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1851</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -36236,7 +36250,7 @@
         <v>323</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -36307,7 +36321,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="7" t="s">
-        <v>1853</v>
+        <v>1856</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>743</v>
@@ -36315,10 +36329,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="7" t="s">
-        <v>1854</v>
+        <v>1857</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1855</v>
+        <v>1858</v>
       </c>
     </row>
   </sheetData>
@@ -36372,7 +36386,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1835</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -36475,7 +36489,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1856</v>
+        <v>1859</v>
       </c>
     </row>
   </sheetData>
@@ -36527,7 +36541,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1835</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -36630,7 +36644,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1857</v>
+        <v>1860</v>
       </c>
     </row>
   </sheetData>
@@ -36682,7 +36696,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1835</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -36785,7 +36799,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1858</v>
+        <v>1861</v>
       </c>
     </row>
   </sheetData>
@@ -36837,7 +36851,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1835</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -36937,18 +36951,18 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1859</v>
+        <v>1862</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1860</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
-        <v>1861</v>
+        <v>1864</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1860</v>
+        <v>1863</v>
       </c>
     </row>
   </sheetData>
@@ -37001,7 +37015,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1835</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -37049,7 +37063,7 @@
         <v>1719</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1862</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -37159,26 +37173,26 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1863</v>
+        <v>1866</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1864</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>1865</v>
+        <v>1868</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1866</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>1867</v>
+        <v>1870</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1868</v>
+        <v>1871</v>
       </c>
     </row>
   </sheetData>
@@ -37233,7 +37247,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1835</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -37336,7 +37350,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1869</v>
+        <v>1872</v>
       </c>
     </row>
   </sheetData>
@@ -37388,7 +37402,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1870</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -37502,7 +37516,7 @@
         <v>323</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1871</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -37531,7 +37545,7 @@
         <v>323</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1872</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -37560,7 +37574,7 @@
         <v>323</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1872</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -37589,7 +37603,7 @@
         <v>323</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1872</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -37647,7 +37661,7 @@
         <v>323</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1873</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -37726,7 +37740,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="7" t="s">
-        <v>1874</v>
+        <v>1877</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>529</v>
@@ -37734,7 +37748,7 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="7" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>529</v>
@@ -37742,7 +37756,7 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="7" t="s">
-        <v>1876</v>
+        <v>1879</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>529</v>
@@ -37750,15 +37764,15 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="7" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>1878</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="7" t="s">
-        <v>1879</v>
+        <v>1882</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>1217</v>
@@ -42508,7 +42522,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1870</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -42703,10 +42717,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="7" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1880</v>
+        <v>1883</v>
       </c>
     </row>
   </sheetData>
@@ -42760,7 +42774,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1870</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -42874,7 +42888,7 @@
         <v>323</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1881</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -42903,7 +42917,7 @@
         <v>323</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1881</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -42932,7 +42946,7 @@
         <v>323</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1881</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -42961,7 +42975,7 @@
         <v>323</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1881</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -43114,7 +43128,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1870</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -43154,7 +43168,7 @@
         <v>1718</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1882</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -43228,7 +43242,7 @@
         <v>323</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1883</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -43312,7 +43326,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1884</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -43415,7 +43429,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1885</v>
+        <v>1888</v>
       </c>
     </row>
   </sheetData>
@@ -43467,7 +43481,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1884</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -43599,15 +43613,15 @@
         <v>1766</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1886</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1887</v>
+        <v>1890</v>
       </c>
     </row>
   </sheetData>
@@ -43661,7 +43675,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1884</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -43764,7 +43778,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1888</v>
+        <v>1891</v>
       </c>
     </row>
   </sheetData>
@@ -43816,7 +43830,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1889</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -43832,7 +43846,7 @@
         <v>1715</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1890</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -43840,7 +43854,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1891</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -43848,7 +43862,7 @@
         <v>1717</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1892</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -43930,7 +43944,7 @@
         <v>323</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1893</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -43988,7 +44002,7 @@
         <v>323</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1894</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -44088,15 +44102,15 @@
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="7" t="s">
-        <v>1895</v>
+        <v>1898</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1896</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="7" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>556</v>
@@ -44104,7 +44118,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="7" t="s">
-        <v>1898</v>
+        <v>1901</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>556</v>
@@ -44112,10 +44126,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="7" t="s">
-        <v>1899</v>
+        <v>1902</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
     </row>
   </sheetData>
@@ -44171,7 +44185,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1889</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -44303,15 +44317,15 @@
         <v>1766</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1901</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1887</v>
+        <v>1890</v>
       </c>
     </row>
   </sheetData>
@@ -44365,7 +44379,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1889</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -44468,7 +44482,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1902</v>
+        <v>1905</v>
       </c>
     </row>
   </sheetData>
@@ -44520,7 +44534,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -44536,7 +44550,7 @@
         <v>1715</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1903</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -44568,7 +44582,7 @@
         <v>1719</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1904</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -44794,7 +44808,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="7" t="s">
-        <v>1905</v>
+        <v>1908</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>759</v>
@@ -44802,18 +44816,18 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="7" t="s">
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="7" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1909</v>
+        <v>1912</v>
       </c>
     </row>
   </sheetData>
@@ -48247,7 +48261,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -48350,7 +48364,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1910</v>
+        <v>1913</v>
       </c>
     </row>
   </sheetData>
@@ -48402,7 +48416,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1911</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -48516,7 +48530,7 @@
         <v>323</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1912</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -48545,7 +48559,7 @@
         <v>323</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1913</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -48574,7 +48588,7 @@
         <v>323</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1913</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -48666,7 +48680,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1911</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -48769,7 +48783,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1914</v>
+        <v>1917</v>
       </c>
     </row>
   </sheetData>
@@ -48821,7 +48835,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -48924,7 +48938,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1915</v>
+        <v>1918</v>
       </c>
     </row>
   </sheetData>
@@ -48976,7 +48990,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -49076,10 +49090,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1918</v>
+        <v>1921</v>
       </c>
     </row>
   </sheetData>
@@ -49131,7 +49145,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -49234,7 +49248,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1919</v>
+        <v>1922</v>
       </c>
     </row>
   </sheetData>
@@ -49286,7 +49300,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1920</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -49302,7 +49316,7 @@
         <v>1715</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1921</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -49310,7 +49324,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1922</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -49326,7 +49340,7 @@
         <v>1718</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1923</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -49334,7 +49348,7 @@
         <v>1719</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1924</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -49429,7 +49443,7 @@
         <v>323</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1925</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -49487,7 +49501,7 @@
         <v>323</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1926</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -49516,7 +49530,7 @@
         <v>323</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1927</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -49587,7 +49601,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="7" t="s">
-        <v>1928</v>
+        <v>1931</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>1140</v>
@@ -49595,7 +49609,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="7" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>1135</v>
@@ -49603,7 +49617,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="7" t="s">
-        <v>1929</v>
+        <v>1932</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>1135</v>
@@ -49611,10 +49625,10 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="7" t="s">
-        <v>1930</v>
+        <v>1933</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>1931</v>
+        <v>1934</v>
       </c>
     </row>
   </sheetData>
@@ -49670,7 +49684,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1920</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -49686,7 +49700,7 @@
         <v>1715</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1932</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -49710,7 +49724,7 @@
         <v>1718</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1933</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -49718,7 +49732,7 @@
         <v>1719</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1934</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -49784,7 +49798,7 @@
         <v>323</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -49813,7 +49827,7 @@
         <v>323</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -49842,7 +49856,7 @@
         <v>323</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -49871,7 +49885,7 @@
         <v>323</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -49900,7 +49914,7 @@
         <v>323</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -49929,7 +49943,7 @@
         <v>323</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -49958,7 +49972,7 @@
         <v>323</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -49987,7 +50001,7 @@
         <v>323</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -50016,7 +50030,7 @@
         <v>323</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -50045,7 +50059,7 @@
         <v>436</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -50074,7 +50088,7 @@
         <v>436</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -50103,7 +50117,7 @@
         <v>323</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -50132,7 +50146,7 @@
         <v>323</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -50161,7 +50175,7 @@
         <v>323</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -50190,7 +50204,7 @@
         <v>323</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -50219,7 +50233,7 @@
         <v>323</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -50248,7 +50262,7 @@
         <v>323</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -50295,7 +50309,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="7" t="s">
-        <v>1936</v>
+        <v>1939</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>592</v>
@@ -50303,7 +50317,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="7" t="s">
-        <v>1937</v>
+        <v>1940</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>592</v>
@@ -50360,7 +50374,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1920</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -50376,7 +50390,7 @@
         <v>1715</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1938</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -50392,7 +50406,7 @@
         <v>1717</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1939</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -50400,7 +50414,7 @@
         <v>1718</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1940</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -50497,15 +50511,15 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>1936</v>
+        <v>1939</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1941</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>1245</v>
@@ -50562,7 +50576,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1920</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -50665,7 +50679,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1942</v>
+        <v>1945</v>
       </c>
     </row>
   </sheetData>
@@ -50861,7 +50875,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1920</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -50885,7 +50899,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1943</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -50975,7 +50989,7 @@
         <v>323</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1944</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -51004,7 +51018,7 @@
         <v>323</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1945</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -51033,7 +51047,7 @@
         <v>323</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1944</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -51080,7 +51094,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="7" t="s">
-        <v>1946</v>
+        <v>1949</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>723</v>
@@ -51088,42 +51102,42 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="7" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1947</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="7" t="s">
-        <v>1948</v>
+        <v>1951</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>1949</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="7" t="s">
-        <v>1950</v>
+        <v>1953</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>1951</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="7" t="s">
-        <v>1952</v>
+        <v>1955</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1951</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="7" t="s">
-        <v>1953</v>
+        <v>1956</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>1951</v>
+        <v>1954</v>
       </c>
     </row>
   </sheetData>
@@ -51221,7 +51235,7 @@
         <v>1718</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1954</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -51324,7 +51338,7 @@
         <v>323</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1955</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -51353,7 +51367,7 @@
         <v>323</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1955</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -51411,7 +51425,7 @@
         <v>323</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1956</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -51424,7 +51438,7 @@
         <v>1181</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1957</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -51490,10 +51504,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="7" t="s">
-        <v>1958</v>
+        <v>1961</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>1959</v>
+        <v>1962</v>
       </c>
     </row>
   </sheetData>
@@ -51547,7 +51561,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1960</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -51650,7 +51664,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1961</v>
+        <v>1964</v>
       </c>
     </row>
   </sheetData>
@@ -51702,7 +51716,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1960</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -51805,7 +51819,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1962</v>
+        <v>1965</v>
       </c>
     </row>
   </sheetData>
@@ -51857,7 +51871,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1960</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -51960,7 +51974,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1963</v>
+        <v>1966</v>
       </c>
     </row>
   </sheetData>
@@ -52012,7 +52026,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1960</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -52115,7 +52129,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1964</v>
+        <v>1967</v>
       </c>
     </row>
   </sheetData>
@@ -52167,7 +52181,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1965</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -52191,7 +52205,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1966</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -52199,7 +52213,7 @@
         <v>1717</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -52207,7 +52221,7 @@
         <v>1718</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1968</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -52352,7 +52366,7 @@
         <v>1514</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1969</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -52360,7 +52374,7 @@
         <v>1517</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1970</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -52378,7 +52392,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="7" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>686</v>
@@ -52386,7 +52400,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="7" t="s">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>686</v>
@@ -52445,7 +52459,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1965</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -52589,7 +52603,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -52605,7 +52619,7 @@
         <v>1715</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1973</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -52629,7 +52643,7 @@
         <v>1718</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1974</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -52637,7 +52651,7 @@
         <v>1719</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1975</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -52703,7 +52717,7 @@
         <v>323</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1976</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -52732,7 +52746,7 @@
         <v>436</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1977</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -52885,7 +52899,7 @@
         <v>1339</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1978</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -52927,7 +52941,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="7" t="s">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>810</v>
@@ -52935,26 +52949,26 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="7" t="s">
-        <v>1980</v>
+        <v>1983</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>1981</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="7" t="s">
-        <v>1982</v>
+        <v>1985</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>1983</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="7" t="s">
-        <v>1984</v>
+        <v>1987</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>1985</v>
+        <v>1988</v>
       </c>
     </row>
   </sheetData>
@@ -53011,7 +53025,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1965</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -53027,7 +53041,7 @@
         <v>1715</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1986</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -53035,7 +53049,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1987</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -53051,7 +53065,7 @@
         <v>1718</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1988</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -53125,7 +53139,7 @@
         <v>323</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1989</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -53154,7 +53168,7 @@
         <v>323</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1990</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -53183,7 +53197,7 @@
         <v>323</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1991</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -53212,7 +53226,7 @@
         <v>323</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1991</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -53241,7 +53255,7 @@
         <v>323</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1992</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -53270,7 +53284,7 @@
         <v>323</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1992</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -53299,7 +53313,7 @@
         <v>323</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1992</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -53328,7 +53342,7 @@
         <v>323</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1992</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -53357,7 +53371,7 @@
         <v>436</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1991</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -53386,7 +53400,7 @@
         <v>323</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1991</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -53415,7 +53429,7 @@
         <v>323</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>1991</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -53444,7 +53458,7 @@
         <v>323</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>1989</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -53473,7 +53487,7 @@
         <v>323</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>1989</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -53502,7 +53516,7 @@
         <v>323</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1991</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -53531,7 +53545,7 @@
         <v>323</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>1991</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -53560,7 +53574,7 @@
         <v>323</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>1991</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -53589,7 +53603,7 @@
         <v>323</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1991</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -53618,7 +53632,7 @@
         <v>436</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>1991</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -53681,26 +53695,26 @@
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="7" t="s">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>1994</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="7" t="s">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>1996</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="7" t="s">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>1998</v>
+        <v>2001</v>
       </c>
     </row>
   </sheetData>
@@ -54033,7 +54047,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1965</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -54177,7 +54191,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1965</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -54321,7 +54335,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1965</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -54465,7 +54479,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -54489,7 +54503,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1999</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -54505,7 +54519,7 @@
         <v>1718</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -54513,7 +54527,7 @@
         <v>1719</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>2001</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -54579,7 +54593,7 @@
         <v>323</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>2002</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -54637,7 +54651,7 @@
         <v>323</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>2003</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -54695,7 +54709,7 @@
         <v>323</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>2004</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -54753,7 +54767,7 @@
         <v>434</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>2005</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -54782,7 +54796,7 @@
         <v>323</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>2006</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -54922,10 +54936,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="7" t="s">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>2008</v>
+        <v>2011</v>
       </c>
     </row>
   </sheetData>
@@ -54978,7 +54992,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1965</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -55122,7 +55136,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1965</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -55266,7 +55280,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1911</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -55369,7 +55383,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2009</v>
+        <v>2012</v>
       </c>
     </row>
   </sheetData>
@@ -55421,7 +55435,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1911</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -55453,7 +55467,7 @@
         <v>1717</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>2010</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -55524,7 +55538,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2011</v>
+        <v>2014</v>
       </c>
     </row>
   </sheetData>
@@ -55576,7 +55590,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1911</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -55679,7 +55693,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2012</v>
+        <v>2015</v>
       </c>
     </row>
   </sheetData>
@@ -55731,7 +55745,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1911</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -55834,7 +55848,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2013</v>
+        <v>2016</v>
       </c>
     </row>
   </sheetData>
@@ -56397,7 +56411,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1960</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -56541,7 +56555,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>2014</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -56644,7 +56658,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2015</v>
+        <v>2018</v>
       </c>
     </row>
   </sheetData>
@@ -56696,7 +56710,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>2014</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -56799,7 +56813,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2016</v>
+        <v>2019</v>
       </c>
     </row>
   </sheetData>
@@ -56851,7 +56865,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1889</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -56867,7 +56881,7 @@
         <v>1715</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2017</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -56875,7 +56889,7 @@
         <v>1716</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -56899,7 +56913,7 @@
         <v>1719</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -56951,34 +56965,34 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2021</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="7" t="s">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>2021</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="7" t="s">
-        <v>2023</v>
+        <v>2026</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>2021</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="7" t="s">
-        <v>1905</v>
+        <v>1908</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>2021</v>
+        <v>2024</v>
       </c>
     </row>
   </sheetData>
@@ -57033,7 +57047,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>2024</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -57177,7 +57191,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>2024</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -57193,7 +57207,7 @@
         <v>1715</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2025</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -57277,10 +57291,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="7" t="s">
-        <v>2026</v>
+        <v>2029</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2027</v>
+        <v>2030</v>
       </c>
     </row>
   </sheetData>
@@ -57332,7 +57346,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>2028</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -57435,7 +57449,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2029</v>
+        <v>2032</v>
       </c>
     </row>
   </sheetData>
@@ -57487,7 +57501,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>2028</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -57590,7 +57604,7 @@
         <v>1766</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>2030</v>
+        <v>2033</v>
       </c>
     </row>
   </sheetData>
@@ -57642,7 +57656,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -57658,7 +57672,7 @@
         <v>1715</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2031</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -57845,7 +57859,7 @@
         <v>1713</v>
       </c>
       <c r="B3" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -57893,7 +57907,7 @@
         <v>1719</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>2032</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -57959,7 +57973,7 @@
         <v>323</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>2033</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -57988,7 +58002,7 @@
         <v>323</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>2034</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="15" spans="1:10">

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -11619,7 +11619,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-11-02T14:38:58.024533+00:00</t>
+    <t>2025-11-03T13:46:06.813449+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -11619,7 +11619,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-11-03T13:46:06.813449+00:00</t>
+    <t>2025-11-03T13:47:40.537599+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -11619,7 +11619,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-11-03T13:47:40.537599+00:00</t>
+    <t>2025-11-03T13:51:13.429567+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -11619,7 +11619,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-11-03T13:51:13.429567+00:00</t>
+    <t>2025-11-03T13:54:03.112657+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -11619,7 +11619,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-11-03T13:54:03.112657+00:00</t>
+    <t>2025-11-03T14:35:27.826940+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -11619,7 +11619,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-11-03T14:35:27.826940+00:00</t>
+    <t>2025-11-03T14:51:57.336856+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -11693,7 +11693,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-11-05T21:49:38.439857+00:00</t>
+    <t>2025-11-05T22:16:56.739567+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -11693,7 +11693,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-11-05T22:16:56.739567+00:00</t>
+    <t>2025-11-05T22:25:17.131195+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -11693,7 +11693,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-11-05T22:25:17.131195+00:00</t>
+    <t>2025-11-05T22:28:39.244921+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -11693,7 +11693,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-11-05T22:28:39.244921+00:00</t>
+    <t>2025-11-09T10:14:37.912256+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -11693,7 +11693,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-11-09T10:14:37.912256+00:00</t>
+    <t>2025-11-09T13:27:18.997200+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -11693,7 +11693,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-11-09T13:27:18.997200+00:00</t>
+    <t>2025-11-13T10:28:55.801887+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -11693,7 +11693,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-11-13T10:28:55.801887+00:00</t>
+    <t>2025-11-13T10:29:58.937761+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -11693,7 +11693,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-11-13T10:29:58.937761+00:00</t>
+    <t>2025-11-13T10:49:34.475891+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -11693,7 +11693,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-11-13T10:49:34.475891+00:00</t>
+    <t>2025-11-13T14:28:03.564393+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -11693,7 +11693,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-11-13T14:28:03.564393+00:00</t>
+    <t>2025-11-14T15:15:23.415424+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -11693,7 +11693,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-11-14T15:15:23.415424+00:00</t>
+    <t>2025-11-18T11:15:54.822746+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -4922,7 +4922,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11613" uniqueCount="2332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11613" uniqueCount="2336">
   <si>
     <t>Find potential digital evidence sources</t>
   </si>
@@ -5248,7 +5248,7 @@
     <t>T1043</t>
   </si>
   <si>
-    <t>Forensic image format decoding</t>
+    <t>Decode forensic image format</t>
   </si>
   <si>
     <t>T1044</t>
@@ -10067,7 +10067,7 @@
 T1042</t>
   </si>
   <si>
-    <t>Forensic image format decoding
+    <t>Decode forensic image format
 T1043</t>
   </si>
   <si>
@@ -11057,7 +11057,19 @@
     <t>Kemmerich, T., Junge, F., Kuntze, N., Rudolph, C., Endicott-Popovsky, B. and Großkopf, L., 2014. Generation and handling of hard drive duplicates as piece of evidence.</t>
   </si>
   <si>
+    <t>['Read forensic format', 'Read forensic image']</t>
+  </si>
+  <si>
+    <t>['Expert Witness Format (EWF)', 'Advanced Forensic Format (AFF)']</t>
+  </si>
+  <si>
     <t>M1004, M1009, M1210, M1211, M1212, M1213, M1214, M1215</t>
+  </si>
+  <si>
+    <t>Cohen, M., Garfinkel, S. and Schatz, B., 2009. Extending the advanced forensic format to accommodate multiple data sources, logical evidence, arbitrary information and forensic workflow. digital investigation, 6, pp.S57-S68.</t>
+  </si>
+  <si>
+    <t>['T1043', 'M1210']</t>
   </si>
   <si>
     <t>['W1121', 'W1122', 'W1123']</t>
@@ -12198,7 +12210,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-11-26T19:28:06.813676+00:00</t>
+    <t>2025-12-06T20:34:32.522418+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>
@@ -13272,7 +13284,7 @@
     <hyperlink ref="C4" location="T1011!A1" display="Store seized devices in evidence bags&#10;T1011"/>
     <hyperlink ref="D4" location="T1003!A1" display="Memory imaging&#10;T1003"/>
     <hyperlink ref="E4" location="T1032!A1" display="Side channel&#10;T1032"/>
-    <hyperlink ref="F4" location="T1043!A1" display="Forensic image format decoding&#10;T1043"/>
+    <hyperlink ref="F4" location="T1043!A1" display="Decode forensic image format&#10;T1043"/>
     <hyperlink ref="G4" location="T1047!A1" display="Hash matching (reduce)&#10;T1047"/>
     <hyperlink ref="H4" location="T1060!A1" display="Enumerate allocated files and folders&#10;T1060"/>
     <hyperlink ref="I4" location="T1066!A1" display="Log file examination (OS)&#10;T1066"/>
@@ -13952,7 +13964,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2145</v>
+        <v>2149</v>
       </c>
     </row>
   </sheetData>
@@ -14107,7 +14119,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2146</v>
+        <v>2150</v>
       </c>
     </row>
   </sheetData>
@@ -14159,7 +14171,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2138</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14262,7 +14274,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2147</v>
+        <v>2151</v>
       </c>
     </row>
   </sheetData>
@@ -14314,7 +14326,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2062</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14417,7 +14429,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2148</v>
+        <v>2152</v>
       </c>
     </row>
   </sheetData>
@@ -14469,7 +14481,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2062</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14572,7 +14584,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2149</v>
+        <v>2153</v>
       </c>
     </row>
   </sheetData>
@@ -14624,7 +14636,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2062</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14727,7 +14739,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2150</v>
+        <v>2154</v>
       </c>
     </row>
   </sheetData>
@@ -15026,7 +15038,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2151</v>
+        <v>2155</v>
       </c>
     </row>
   </sheetData>
@@ -15078,7 +15090,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2138</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -15102,7 +15114,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2152</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -15178,18 +15190,18 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="10" t="s">
-        <v>2153</v>
+        <v>2157</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2154</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>2155</v>
+        <v>2159</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2154</v>
+        <v>2158</v>
       </c>
     </row>
   </sheetData>
@@ -15792,7 +15804,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -16080,7 +16092,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2067</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -16368,7 +16380,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2067</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -16512,7 +16524,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2067</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -16656,7 +16668,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2067</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -16824,7 +16836,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2157</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -16927,7 +16939,7 @@
         <v>1427</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>2158</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -16937,7 +16949,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2159</v>
+        <v>2163</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>832</v>
@@ -17018,7 +17030,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2160</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -17034,7 +17046,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2161</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -17353,7 +17365,7 @@
         <v>1391</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>2162</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -17363,10 +17375,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="10" t="s">
-        <v>2163</v>
+        <v>2167</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>2164</v>
+        <v>2168</v>
       </c>
     </row>
   </sheetData>
@@ -17689,7 +17701,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2165</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -17755,7 +17767,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2166</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -17784,7 +17796,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2167</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -17842,7 +17854,7 @@
         <v>327</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2168</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -17855,7 +17867,7 @@
         <v>1391</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>2162</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -17921,7 +17933,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="10" t="s">
-        <v>2163</v>
+        <v>2167</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>845</v>
@@ -17929,7 +17941,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="10" t="s">
-        <v>2169</v>
+        <v>2173</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>845</v>
@@ -17937,7 +17949,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="10" t="s">
-        <v>2170</v>
+        <v>2174</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>845</v>
@@ -17945,10 +17957,10 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="10" t="s">
-        <v>2171</v>
+        <v>2175</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>2172</v>
+        <v>2176</v>
       </c>
     </row>
   </sheetData>
@@ -18021,7 +18033,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2173</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -18029,7 +18041,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2174</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -18137,7 +18149,7 @@
         <v>1937</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2175</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -18145,7 +18157,7 @@
         <v>1854</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
     </row>
   </sheetData>
@@ -18199,7 +18211,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -18247,7 +18259,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2177</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -18299,26 +18311,26 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="10" t="s">
-        <v>2178</v>
+        <v>2182</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2179</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>2180</v>
+        <v>2184</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2179</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2181</v>
+        <v>2185</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2179</v>
+        <v>2183</v>
       </c>
     </row>
   </sheetData>
@@ -18372,7 +18384,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2062</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -18420,7 +18432,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2182</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -18486,7 +18498,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2183</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -18515,7 +18527,7 @@
         <v>444</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2184</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -18599,7 +18611,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="10" t="s">
-        <v>2185</v>
+        <v>2189</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>859</v>
@@ -18655,7 +18667,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2134</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -18769,7 +18781,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2123</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -18798,7 +18810,7 @@
         <v>442</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2186</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -18856,7 +18868,7 @@
         <v>327</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2124</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -18869,7 +18881,7 @@
         <v>1325</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>2008</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -18877,7 +18889,7 @@
         <v>1332</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>2187</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -18893,7 +18905,7 @@
         <v>1636</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>2125</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -18901,7 +18913,7 @@
         <v>1641</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>2126</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -18909,7 +18921,7 @@
         <v>1643</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>2127</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -18935,26 +18947,26 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="10" t="s">
-        <v>2188</v>
+        <v>2192</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="10" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="10" t="s">
-        <v>2132</v>
+        <v>2136</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>2133</v>
+        <v>2137</v>
       </c>
     </row>
   </sheetData>
@@ -19014,7 +19026,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>1991</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -19054,7 +19066,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1984</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -19062,7 +19074,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2192</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -19209,7 +19221,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="10" t="s">
-        <v>2193</v>
+        <v>2197</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>867</v>
@@ -19265,7 +19277,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2138</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -19281,7 +19293,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2194</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -19305,7 +19317,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2195</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -19313,7 +19325,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2196</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -19402,7 +19414,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2197</v>
+        <v>2201</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>879</v>
@@ -19410,7 +19422,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2198</v>
+        <v>2202</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>879</v>
@@ -19483,7 +19495,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2199</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -19491,7 +19503,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2200</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -19507,7 +19519,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2201</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -19515,7 +19527,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2202</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -19623,7 +19635,7 @@
         <v>1427</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>2158</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -19793,7 +19805,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2203</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -19822,7 +19834,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2204</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -19851,7 +19863,7 @@
         <v>327</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2205</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -19880,7 +19892,7 @@
         <v>327</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2206</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -19909,7 +19921,7 @@
         <v>327</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2207</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -19930,7 +19942,7 @@
         <v>1144</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>2208</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -20050,7 +20062,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2209</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -20074,7 +20086,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2210</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -20140,7 +20152,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2211</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -20169,7 +20181,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>1996</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -20216,18 +20228,18 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="10" t="s">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>2002</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="10" t="s">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>2212</v>
+        <v>2216</v>
       </c>
     </row>
   </sheetData>
@@ -20490,7 +20502,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2213</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -20580,7 +20592,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2214</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -20609,7 +20621,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2215</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -20672,10 +20684,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="10" t="s">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>2212</v>
+        <v>2216</v>
       </c>
     </row>
   </sheetData>
@@ -20744,7 +20756,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2216</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -20842,7 +20854,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2217</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -20863,7 +20875,7 @@
         <v>1144</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>2208</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -20873,7 +20885,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>561</v>
@@ -20946,7 +20958,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2218</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -20954,7 +20966,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2219</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -21057,7 +21069,7 @@
         <v>1468</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>2220</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -21067,7 +21079,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>901</v>
@@ -21075,7 +21087,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2221</v>
+        <v>2225</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>901</v>
@@ -21083,7 +21095,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="10" t="s">
-        <v>2222</v>
+        <v>2226</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>901</v>
@@ -21158,7 +21170,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2218</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -21256,7 +21268,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2223</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -21285,7 +21297,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2223</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -21327,7 +21339,7 @@
         <v>1440</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>2224</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -21335,7 +21347,7 @@
         <v>1443</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>2225</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -21353,7 +21365,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="10" t="s">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>885</v>
@@ -21361,7 +21373,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="10" t="s">
-        <v>2221</v>
+        <v>2225</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>885</v>
@@ -21436,7 +21448,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2218</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -21444,7 +21456,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2226</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -21557,18 +21569,18 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2227</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2222</v>
+        <v>2226</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2227</v>
+        <v>2231</v>
       </c>
     </row>
   </sheetData>
@@ -21622,7 +21634,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2018</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -21638,7 +21650,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2228</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -21646,7 +21658,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2229</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -21766,7 +21778,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2018</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -21866,18 +21878,18 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="10" t="s">
-        <v>2230</v>
+        <v>2234</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2231</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2231</v>
+        <v>2235</v>
       </c>
     </row>
   </sheetData>
@@ -21930,7 +21942,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2018</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -21954,7 +21966,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2232</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -22074,7 +22086,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2018</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -22174,10 +22186,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="10" t="s">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2233</v>
+        <v>2237</v>
       </c>
     </row>
   </sheetData>
@@ -22229,7 +22241,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2018</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -22245,7 +22257,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2234</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -22329,10 +22341,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="10" t="s">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2235</v>
+        <v>2239</v>
       </c>
     </row>
   </sheetData>
@@ -22735,7 +22747,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2067</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -22759,7 +22771,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2236</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -22775,7 +22787,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2237</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -22783,7 +22795,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2238</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -22849,7 +22861,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2239</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -22878,7 +22890,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2240</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -22907,7 +22919,7 @@
         <v>327</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2239</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -22936,7 +22948,7 @@
         <v>327</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2241</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -22965,7 +22977,7 @@
         <v>327</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2242</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -22994,7 +23006,7 @@
         <v>327</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2243</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -23052,7 +23064,7 @@
         <v>327</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2244</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -23081,7 +23093,7 @@
         <v>327</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2245</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -23110,7 +23122,7 @@
         <v>327</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>2246</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -23139,7 +23151,7 @@
         <v>327</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>2247</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -23168,7 +23180,7 @@
         <v>327</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>2248</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -23226,7 +23238,7 @@
         <v>327</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>2249</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -23255,7 +23267,7 @@
         <v>327</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>2250</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -23284,7 +23296,7 @@
         <v>327</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>2251</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -23313,7 +23325,7 @@
         <v>327</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>2251</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -23342,7 +23354,7 @@
         <v>327</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>2252</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -23371,7 +23383,7 @@
         <v>327</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>2253</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -23400,7 +23412,7 @@
         <v>442</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>2254</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -23429,7 +23441,7 @@
         <v>327</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>2255</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -23458,7 +23470,7 @@
         <v>327</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>2256</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -23487,7 +23499,7 @@
         <v>327</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>2257</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -23516,7 +23528,7 @@
         <v>327</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>2258</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -23545,7 +23557,7 @@
         <v>327</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>2259</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -23574,7 +23586,7 @@
         <v>327</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>2260</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -23603,7 +23615,7 @@
         <v>327</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>2261</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -23786,7 +23798,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="B66" s="10" t="s">
-        <v>2262</v>
+        <v>2266</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>904</v>
@@ -23794,7 +23806,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="B67" s="10" t="s">
-        <v>2263</v>
+        <v>2267</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>904</v>
@@ -23867,7 +23879,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2264</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -23875,7 +23887,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2265</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -23899,7 +23911,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2266</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -23965,7 +23977,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2267</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -23994,7 +24006,7 @@
         <v>442</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2268</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -24052,7 +24064,7 @@
         <v>442</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2269</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -24097,7 +24109,7 @@
         <v>1623</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>2270</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -24123,7 +24135,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="10" t="s">
-        <v>2132</v>
+        <v>2136</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>1015</v>
@@ -24196,7 +24208,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2271</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -24204,7 +24216,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2272</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -24220,7 +24232,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2273</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -24294,7 +24306,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2274</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -24352,7 +24364,7 @@
         <v>327</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2275</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -24410,7 +24422,7 @@
         <v>444</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2276</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -24547,7 +24559,7 @@
         <v>1234</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>2277</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -24555,7 +24567,7 @@
         <v>1568</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>2278</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -24579,7 +24591,7 @@
         <v>1577</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>2279</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -24589,15 +24601,15 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="10" t="s">
-        <v>2280</v>
+        <v>2284</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>2281</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="10" t="s">
-        <v>2282</v>
+        <v>2286</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>1233</v>
@@ -24605,18 +24617,18 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="10" t="s">
-        <v>2283</v>
+        <v>2287</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>2284</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="10" t="s">
-        <v>2285</v>
+        <v>2289</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>2286</v>
+        <v>2290</v>
       </c>
     </row>
   </sheetData>
@@ -24691,7 +24703,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2287</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -24715,7 +24727,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2288</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -24812,10 +24824,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2289</v>
+        <v>2293</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2290</v>
+        <v>2294</v>
       </c>
     </row>
   </sheetData>
@@ -25775,7 +25787,7 @@
         <v>1565</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>2291</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -25785,10 +25797,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2292</v>
+        <v>2296</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2293</v>
+        <v>2297</v>
       </c>
     </row>
   </sheetData>
@@ -26445,7 +26457,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2294</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -26453,7 +26465,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2295</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -26529,10 +26541,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="10" t="s">
-        <v>2296</v>
+        <v>2300</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2297</v>
+        <v>2301</v>
       </c>
     </row>
   </sheetData>
@@ -26584,7 +26596,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2062</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -26600,7 +26612,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2298</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -26608,7 +26620,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2299</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -26624,7 +26636,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2300</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -26632,7 +26644,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2301</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -26684,34 +26696,34 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="10" t="s">
-        <v>2302</v>
+        <v>2306</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2303</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>2304</v>
+        <v>2308</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2303</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2305</v>
+        <v>2309</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2303</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2306</v>
+        <v>2310</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2303</v>
+        <v>2307</v>
       </c>
     </row>
   </sheetData>
@@ -26806,7 +26818,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2035</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -26880,7 +26892,7 @@
         <v>444</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2307</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -26909,7 +26921,7 @@
         <v>444</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2307</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -26938,7 +26950,7 @@
         <v>444</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2308</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -26967,7 +26979,7 @@
         <v>327</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2309</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -26996,7 +27008,7 @@
         <v>327</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2310</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -27025,7 +27037,7 @@
         <v>444</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2311</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -27120,15 +27132,15 @@
     </row>
     <row r="34" spans="1:9">
       <c r="B34" s="10" t="s">
-        <v>2038</v>
+        <v>2042</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>2312</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="10" t="s">
-        <v>2039</v>
+        <v>2043</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>744</v>
@@ -27201,7 +27213,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2313</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -27209,7 +27221,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2314</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -27233,7 +27245,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2315</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -27299,7 +27311,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2316</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -27312,7 +27324,7 @@
         <v>1591</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>2317</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -27320,7 +27332,7 @@
         <v>1594</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>2318</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -27330,7 +27342,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2319</v>
+        <v>2323</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>1010</v>
@@ -27412,7 +27424,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2320</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -27502,7 +27514,7 @@
         <v>442</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2321</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -27618,7 +27630,7 @@
         <v>1636</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>2125</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -27636,10 +27648,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="10" t="s">
-        <v>2132</v>
+        <v>2136</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>2133</v>
+        <v>2137</v>
       </c>
     </row>
   </sheetData>
@@ -28502,23 +28514,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>2322</v>
+        <v>2326</v>
       </c>
       <c r="B1" t="s">
-        <v>2323</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2324</v>
+        <v>2328</v>
       </c>
       <c r="B2" t="s">
-        <v>2325</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2326</v>
+        <v>2330</v>
       </c>
       <c r="B3">
         <v>19</v>
@@ -28526,7 +28538,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2327</v>
+        <v>2331</v>
       </c>
       <c r="B4">
         <v>151</v>
@@ -28534,7 +28546,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2328</v>
+        <v>2332</v>
       </c>
       <c r="B5">
         <v>262</v>
@@ -28542,7 +28554,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>2329</v>
+        <v>2333</v>
       </c>
       <c r="B6">
         <v>220</v>
@@ -28550,7 +28562,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>2330</v>
+        <v>2334</v>
       </c>
       <c r="B7">
         <v>67</v>
@@ -28558,7 +28570,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>2331</v>
+        <v>2335</v>
       </c>
       <c r="B8">
         <v>0.44</v>
@@ -44237,7 +44249,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -44261,7 +44273,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -44269,7 +44281,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -44422,7 +44434,7 @@
         <v>327</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>1981</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -44501,10 +44513,10 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="10" t="s">
-        <v>1861</v>
+        <v>1984</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>714</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -44512,7 +44524,7 @@
         <v>1978</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>1982</v>
+        <v>1986</v>
       </c>
     </row>
   </sheetData>
@@ -44681,7 +44693,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>1983</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -44710,7 +44722,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>1983</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -44739,7 +44751,7 @@
         <v>327</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>1983</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -44768,7 +44780,7 @@
         <v>327</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>1983</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -44961,7 +44973,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1984</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -45035,7 +45047,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>1985</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -45119,7 +45131,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>1986</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -45222,7 +45234,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>1987</v>
+        <v>1991</v>
       </c>
     </row>
   </sheetData>
@@ -45274,7 +45286,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>1986</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -45406,7 +45418,7 @@
         <v>1861</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>1988</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -45414,7 +45426,7 @@
         <v>1978</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>1989</v>
+        <v>1993</v>
       </c>
     </row>
   </sheetData>
@@ -45468,7 +45480,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>1986</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -45571,7 +45583,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>1990</v>
+        <v>1994</v>
       </c>
     </row>
   </sheetData>
@@ -45623,7 +45635,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>1991</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -45639,7 +45651,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1992</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -45647,7 +45659,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1993</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -45655,7 +45667,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>1994</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -45737,7 +45749,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>1995</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -45795,7 +45807,7 @@
         <v>327</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>1996</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -45895,15 +45907,15 @@
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="10" t="s">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>1998</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="10" t="s">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>564</v>
@@ -45911,7 +45923,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="10" t="s">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>564</v>
@@ -45919,10 +45931,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="10" t="s">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>2002</v>
+        <v>2006</v>
       </c>
     </row>
   </sheetData>
@@ -45978,7 +45990,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>1991</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -46110,7 +46122,7 @@
         <v>1861</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2003</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -46118,7 +46130,7 @@
         <v>1978</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>1989</v>
+        <v>1993</v>
       </c>
     </row>
   </sheetData>
@@ -46172,7 +46184,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>1991</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -46275,7 +46287,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2004</v>
+        <v>2008</v>
       </c>
     </row>
   </sheetData>
@@ -46343,7 +46355,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2005</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -46359,7 +46371,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>2006</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -46375,7 +46387,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2007</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -46599,7 +46611,7 @@
         <v>1325</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>2008</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -46609,7 +46621,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="10" t="s">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>767</v>
@@ -46617,10 +46629,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="10" t="s">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>2011</v>
+        <v>2015</v>
       </c>
     </row>
   </sheetData>
@@ -50548,7 +50560,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2012</v>
+        <v>2016</v>
       </c>
     </row>
   </sheetData>
@@ -50600,7 +50612,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2013</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -50714,7 +50726,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2014</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -50743,7 +50755,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2015</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -50772,7 +50784,7 @@
         <v>327</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2015</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -50864,7 +50876,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2013</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -50967,7 +50979,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2016</v>
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
@@ -51122,7 +51134,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2017</v>
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
@@ -51174,7 +51186,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2018</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -51274,10 +51286,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="10" t="s">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2020</v>
+        <v>2024</v>
       </c>
     </row>
   </sheetData>
@@ -51329,7 +51341,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2018</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -51432,7 +51444,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2021</v>
+        <v>2025</v>
       </c>
     </row>
   </sheetData>
@@ -51484,7 +51496,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2022</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -51500,7 +51512,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2023</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -51508,7 +51520,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2024</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -51524,7 +51536,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2025</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -51532,7 +51544,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2026</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -51627,7 +51639,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2027</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -51685,7 +51697,7 @@
         <v>327</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2028</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -51714,7 +51726,7 @@
         <v>327</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2029</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -51785,7 +51797,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="10" t="s">
-        <v>2030</v>
+        <v>2034</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>1175</v>
@@ -51801,7 +51813,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="10" t="s">
-        <v>2031</v>
+        <v>2035</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>1170</v>
@@ -51809,10 +51821,10 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="10" t="s">
-        <v>2032</v>
+        <v>2036</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>2033</v>
+        <v>2037</v>
       </c>
     </row>
   </sheetData>
@@ -51868,7 +51880,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2022</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -51884,7 +51896,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2034</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -51908,7 +51920,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2035</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -51916,7 +51928,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2036</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -51982,7 +51994,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -52011,7 +52023,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -52040,7 +52052,7 @@
         <v>327</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -52069,7 +52081,7 @@
         <v>327</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -52098,7 +52110,7 @@
         <v>327</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -52127,7 +52139,7 @@
         <v>327</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -52156,7 +52168,7 @@
         <v>327</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -52185,7 +52197,7 @@
         <v>327</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -52214,7 +52226,7 @@
         <v>327</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -52243,7 +52255,7 @@
         <v>444</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -52272,7 +52284,7 @@
         <v>444</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -52301,7 +52313,7 @@
         <v>327</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -52330,7 +52342,7 @@
         <v>327</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -52359,7 +52371,7 @@
         <v>327</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -52388,7 +52400,7 @@
         <v>327</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -52417,7 +52429,7 @@
         <v>327</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -52446,7 +52458,7 @@
         <v>327</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -52493,7 +52505,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="10" t="s">
-        <v>2038</v>
+        <v>2042</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>600</v>
@@ -52501,7 +52513,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="10" t="s">
-        <v>2039</v>
+        <v>2043</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>600</v>
@@ -52558,7 +52570,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2022</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -52574,7 +52586,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2040</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -52590,7 +52602,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>2041</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -52598,7 +52610,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2042</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -52695,10 +52707,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2038</v>
+        <v>2042</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2043</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -52760,7 +52772,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2022</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -52863,7 +52875,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2044</v>
+        <v>2048</v>
       </c>
     </row>
   </sheetData>
@@ -53059,7 +53071,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2022</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -53083,7 +53095,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2045</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -53173,7 +53185,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2046</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -53202,7 +53214,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -53231,7 +53243,7 @@
         <v>327</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2046</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -53278,7 +53290,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="10" t="s">
-        <v>2048</v>
+        <v>2052</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>731</v>
@@ -53289,39 +53301,39 @@
         <v>1978</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>2049</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="10" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>2051</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="10" t="s">
-        <v>2052</v>
+        <v>2056</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>2053</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="10" t="s">
-        <v>2054</v>
+        <v>2058</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>2053</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="10" t="s">
-        <v>2055</v>
+        <v>2059</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>2053</v>
+        <v>2057</v>
       </c>
     </row>
   </sheetData>
@@ -53419,7 +53431,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2056</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -53522,7 +53534,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2057</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -53551,7 +53563,7 @@
         <v>327</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2057</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -53609,7 +53621,7 @@
         <v>327</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2058</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -53622,7 +53634,7 @@
         <v>1216</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>2059</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -53688,10 +53700,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="10" t="s">
-        <v>2060</v>
+        <v>2064</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>2061</v>
+        <v>2065</v>
       </c>
     </row>
   </sheetData>
@@ -53745,7 +53757,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2062</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -53848,7 +53860,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2063</v>
+        <v>2067</v>
       </c>
     </row>
   </sheetData>
@@ -53900,7 +53912,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2062</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -54003,7 +54015,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
     </row>
   </sheetData>
@@ -54055,7 +54067,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2062</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -54158,7 +54170,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2065</v>
+        <v>2069</v>
       </c>
     </row>
   </sheetData>
@@ -54210,7 +54222,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2062</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -54313,7 +54325,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2066</v>
+        <v>2070</v>
       </c>
     </row>
   </sheetData>
@@ -54365,7 +54377,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2067</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -54389,7 +54401,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2068</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -54397,7 +54409,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>2069</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -54405,7 +54417,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2070</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -54550,7 +54562,7 @@
         <v>1553</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>2071</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -54558,7 +54570,7 @@
         <v>1556</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>2072</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -54576,7 +54588,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="10" t="s">
-        <v>2073</v>
+        <v>2077</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>694</v>
@@ -54584,7 +54596,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="10" t="s">
-        <v>2074</v>
+        <v>2078</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>694</v>
@@ -54643,7 +54655,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2067</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -54803,7 +54815,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2075</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -54827,7 +54839,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2076</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -54835,7 +54847,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2077</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -54901,7 +54913,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2078</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -54930,7 +54942,7 @@
         <v>444</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2079</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -55083,7 +55095,7 @@
         <v>1378</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>2080</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -55125,7 +55137,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="10" t="s">
-        <v>2081</v>
+        <v>2085</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>819</v>
@@ -55133,26 +55145,26 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="10" t="s">
-        <v>2082</v>
+        <v>2086</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>2083</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="10" t="s">
-        <v>2084</v>
+        <v>2088</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>2085</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="10" t="s">
-        <v>2086</v>
+        <v>2090</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>2087</v>
+        <v>2091</v>
       </c>
     </row>
   </sheetData>
@@ -55209,7 +55221,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2067</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -55225,7 +55237,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2088</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -55233,7 +55245,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2089</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -55249,7 +55261,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2090</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -55323,7 +55335,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2091</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -55352,7 +55364,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2092</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -55381,7 +55393,7 @@
         <v>327</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2093</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -55410,7 +55422,7 @@
         <v>327</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2093</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -55439,7 +55451,7 @@
         <v>327</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2094</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -55468,7 +55480,7 @@
         <v>327</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2094</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -55497,7 +55509,7 @@
         <v>327</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2094</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -55526,7 +55538,7 @@
         <v>327</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2094</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -55555,7 +55567,7 @@
         <v>444</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2093</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -55584,7 +55596,7 @@
         <v>327</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>2093</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -55613,7 +55625,7 @@
         <v>327</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>2093</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -55642,7 +55654,7 @@
         <v>327</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>2091</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -55671,7 +55683,7 @@
         <v>327</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>2091</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -55700,7 +55712,7 @@
         <v>327</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>2093</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -55729,7 +55741,7 @@
         <v>327</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>2093</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -55758,7 +55770,7 @@
         <v>327</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>2093</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -55787,7 +55799,7 @@
         <v>327</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>2093</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -55816,7 +55828,7 @@
         <v>444</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>2093</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -55879,26 +55891,26 @@
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="10" t="s">
-        <v>2095</v>
+        <v>2099</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>2096</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="10" t="s">
-        <v>2097</v>
+        <v>2101</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>2098</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="10" t="s">
-        <v>2099</v>
+        <v>2103</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>2100</v>
+        <v>2104</v>
       </c>
     </row>
   </sheetData>
@@ -56231,7 +56243,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2067</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -56375,7 +56387,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2067</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -56519,7 +56531,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2067</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -56687,7 +56699,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2101</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -56703,7 +56715,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2102</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -56711,7 +56723,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2103</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -56777,7 +56789,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2104</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -56835,7 +56847,7 @@
         <v>327</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2105</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -56893,7 +56905,7 @@
         <v>327</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2106</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -56951,7 +56963,7 @@
         <v>442</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2107</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -56980,7 +56992,7 @@
         <v>327</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2108</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -57120,10 +57132,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="10" t="s">
-        <v>2109</v>
+        <v>2113</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>2110</v>
+        <v>2114</v>
       </c>
     </row>
   </sheetData>
@@ -57176,7 +57188,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2067</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -57320,7 +57332,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2067</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -57464,7 +57476,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2013</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -57567,7 +57579,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2111</v>
+        <v>2115</v>
       </c>
     </row>
   </sheetData>
@@ -57619,7 +57631,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2013</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -57651,7 +57663,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>2112</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -57722,7 +57734,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2113</v>
+        <v>2117</v>
       </c>
     </row>
   </sheetData>
@@ -57774,7 +57786,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2013</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -57877,7 +57889,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2114</v>
+        <v>2118</v>
       </c>
     </row>
   </sheetData>
@@ -57929,7 +57941,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2013</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -58032,7 +58044,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2115</v>
+        <v>2119</v>
       </c>
     </row>
   </sheetData>
@@ -58595,7 +58607,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2062</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -58739,7 +58751,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -58842,7 +58854,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2117</v>
+        <v>2121</v>
       </c>
     </row>
   </sheetData>
@@ -58894,7 +58906,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -58997,7 +59009,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2118</v>
+        <v>2122</v>
       </c>
     </row>
   </sheetData>
@@ -59049,7 +59061,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>1991</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -59065,7 +59077,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2119</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -59073,7 +59085,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2120</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -59081,7 +59093,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>2121</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -59097,7 +59109,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2122</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -59163,7 +59175,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2123</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -59192,7 +59204,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2124</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -59205,7 +59217,7 @@
         <v>1325</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>2008</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -59221,7 +59233,7 @@
         <v>1636</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>2125</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -59229,7 +59241,7 @@
         <v>1641</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>2126</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -59237,7 +59249,7 @@
         <v>1643</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>2127</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -59263,42 +59275,42 @@
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="10" t="s">
-        <v>2128</v>
+        <v>2132</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>2129</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="10" t="s">
-        <v>2130</v>
+        <v>2134</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>2129</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="10" t="s">
-        <v>2131</v>
+        <v>2135</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>2129</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="10" t="s">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>2129</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="10" t="s">
-        <v>2132</v>
+        <v>2136</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>2133</v>
+        <v>2137</v>
       </c>
     </row>
   </sheetData>
@@ -59359,7 +59371,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2134</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -59503,7 +59515,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2134</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -59519,7 +59531,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2135</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -59603,10 +59615,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="10" t="s">
-        <v>2136</v>
+        <v>2140</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2137</v>
+        <v>2141</v>
       </c>
     </row>
   </sheetData>
@@ -59658,7 +59670,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2138</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -59761,7 +59773,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2139</v>
+        <v>2143</v>
       </c>
     </row>
   </sheetData>
@@ -59813,7 +59825,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2138</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -59916,7 +59928,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2140</v>
+        <v>2144</v>
       </c>
     </row>
   </sheetData>
@@ -59984,7 +59996,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2141</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -60219,7 +60231,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2142</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -60285,7 +60297,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2143</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -60314,7 +60326,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2144</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="15" spans="1:10">

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -12210,7 +12210,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-12-06T20:34:32.522418+00:00</t>
+    <t>2025-12-06T20:35:18.448982+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -12210,7 +12210,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-12-06T20:35:18.448982+00:00</t>
+    <t>2025-12-06T20:36:09.986762+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -12210,7 +12210,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-12-06T20:36:09.986762+00:00</t>
+    <t>2025-12-06T20:36:38.189891+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -12210,7 +12210,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-12-06T20:36:38.189891+00:00</t>
+    <t>2025-12-06T20:37:14.967238+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -12210,7 +12210,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-12-06T20:37:14.967238+00:00</t>
+    <t>2025-12-06T20:37:43.088934+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -1724,7 +1724,9 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>M1047 (Testing partition table parsing on standard and non-standard configurations)</t>
+          <t>M1047 (Testing partition table parsing on standard and non-standard configurations)
+M1050 (Manual verification of relevant data)
+M1027 (Dual tool verification)</t>
         </r>
       </text>
     </comment>
@@ -4922,7 +4924,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11613" uniqueCount="2336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11621" uniqueCount="2338">
   <si>
     <t>Find potential digital evidence sources</t>
   </si>
@@ -6004,7 +6006,7 @@
     <t>Applying a process that identifies the types of files.</t>
   </si>
   <si>
-    <t>Partitions are defined as ‘allocated contiguous sets of sectors from storage media’. This involves recovering the list of partitons that exist on a storage media.</t>
+    <t>Partitions are defined as ‘allocated contiguous sets of sectors from storage media’. This involves recovering the list of partitions that exist on a storage media.</t>
   </si>
   <si>
     <t>This involves parsing the live file system data structures and reconstructing the file system of the target media or device.</t>
@@ -6709,7 +6711,7 @@
     <t>W1066</t>
   </si>
   <si>
-    <t xml:space="preserve">Missing deleted but recoverable partitions </t>
+    <t>Missing deleted but recoverable partitions from unpartitioned space</t>
   </si>
   <si>
     <t>W1067</t>
@@ -8290,10 +8292,10 @@
     <t>Dual tool verification</t>
   </si>
   <si>
-    <t>['T1007', 'T1044', 'T1045', 'T1072', 'T1076', 'T1116', 'T1133']</t>
-  </si>
-  <si>
-    <t>['W1008', 'W1011', 'W1046', 'W1047', 'W1048', 'W1049', 'W1085', 'W1086', 'W1087', 'W1088', 'W1089', 'W1090', 'W1091', 'W1092', 'W1093', 'W1094', 'W1095', 'W1096', 'W1097', 'W1098', 'W1099', 'W1100', 'W1101', 'W1102', 'W1183', 'W1184', 'W1185', 'W1201', 'W1202', 'W1203', 'W1204', 'W1205', 'W1206', 'W1208', 'W1209', 'W1210', 'W1211', 'W1212', 'W1214', 'W1215', 'W1216', 'W1217', 'W1218', 'W1219', 'W1220', 'W1221', 'W1222', 'W1224', 'W1225', 'W1226', 'W1227', 'W1228', 'W1232', 'W1234', 'W1235']</t>
+    <t>['T1007', 'T1044', 'T1045', 'T1059', 'T1072', 'T1076', 'T1116', 'T1133']</t>
+  </si>
+  <si>
+    <t>['W1008', 'W1011', 'W1046', 'W1047', 'W1048', 'W1049', 'W1063', 'W1085', 'W1086', 'W1087', 'W1088', 'W1089', 'W1090', 'W1091', 'W1092', 'W1093', 'W1094', 'W1095', 'W1096', 'W1097', 'W1098', 'W1099', 'W1100', 'W1101', 'W1102', 'W1183', 'W1184', 'W1185', 'W1201', 'W1202', 'W1203', 'W1204', 'W1205', 'W1206', 'W1208', 'W1209', 'W1210', 'W1211', 'W1212', 'W1214', 'W1215', 'W1216', 'W1217', 'W1218', 'W1219', 'W1220', 'W1221', 'W1222', 'W1224', 'W1225', 'W1226', 'W1227', 'W1228', 'W1232', 'W1234', 'W1235']</t>
   </si>
   <si>
     <t>M1028</t>
@@ -8488,10 +8490,10 @@
     <t>Manual verification of relevant data</t>
   </si>
   <si>
-    <t>['T1060', 'T1072', 'T1116', 'T1133']</t>
-  </si>
-  <si>
-    <t>['W1068', 'W1069', 'W1070', 'W1071', 'W1072', 'W1073', 'W1074', 'W1075', 'W1076', 'W1077', 'W1078', 'W1079', 'W1080', 'W1081', 'W1082', 'W1083', 'W1084', 'W1087', 'W1088', 'W1089', 'W1090', 'W1091', 'W1092', 'W1093', 'W1094', 'W1095', 'W1098', 'W1099', 'W1100', 'W1101', 'W1102', 'W1184', 'W1204', 'W1206', 'W1211', 'W1212', 'W1219', 'W1220', 'W1222', 'W1224', 'W1225', 'W1227']</t>
+    <t>['T1059', 'T1060', 'T1072', 'T1116', 'T1133']</t>
+  </si>
+  <si>
+    <t>['W1063', 'W1068', 'W1069', 'W1070', 'W1071', 'W1072', 'W1073', 'W1074', 'W1075', 'W1076', 'W1077', 'W1078', 'W1079', 'W1080', 'W1081', 'W1082', 'W1083', 'W1084', 'W1087', 'W1088', 'W1089', 'W1090', 'W1091', 'W1092', 'W1093', 'W1094', 'W1095', 'W1098', 'W1099', 'W1100', 'W1101', 'W1102', 'W1184', 'W1204', 'W1206', 'W1211', 'W1212', 'W1219', 'W1220', 'W1222', 'W1224', 'W1225', 'W1227']</t>
   </si>
   <si>
     <t>M1051</t>
@@ -11205,7 +11207,7 @@
     <t>['media management analysis']</t>
   </si>
   <si>
-    <t xml:space="preserve">Partitions schemes include: MBR, GPT, APM. Some schemes such as GPT have records of the partitions in a single area (plus a backup partition table), others such as MBR make use of Extended Partitions Tables that are scattered throughout the disk.
+    <t xml:space="preserve">Partitions schemes include: MBR, GPT, APM. Some schemes such as GPT have records of the partitions in a single area (plus a backup partition table), others such as MBR make use of Extended Partition Tables (EPTs) that are scattered throughout the disk.
 Partitions can also be deleted but may be recoverable if the start sectors of the volumes contained within them can be identified. </t>
   </si>
   <si>
@@ -11216,6 +11218,9 @@
  'recoverable partition that can be used for tool evaluation.']</t>
   </si>
   <si>
+    <t>M1047, M1050, M1027</t>
+  </si>
+  <si>
     <t>M1045, M1046</t>
   </si>
   <si>
@@ -11223,6 +11228,12 @@
   </si>
   <si>
     <t>M1048, M1049</t>
+  </si>
+  <si>
+    <t>Nikkel, B., 2009. Forensic analysis of GPT disks and GUID partition tables. Digital Investigation, 6(1-2), pp.39-47.</t>
+  </si>
+  <si>
+    <t>Carrier, B., 2005. File system forensic analysis. Addison-Wesley Professional.</t>
   </si>
   <si>
     <t>V, Kethareswaran; Khurana, Surinder Singh; Singh, Parvinder (2021), “File Carving based Digital Forensic Tools Testing Data Sets (Contiguous Files)”, Mendeley Data, V3, doi: 10.17632/2kh2bdsp5b.3</t>
@@ -11268,9 +11279,6 @@
   </si>
   <si>
     <t>Casey, E., Nelson, A. and Hyde, J., 2019. Standardization of file recovery classification and authentication. Digital Investigation, 31, p.100873.</t>
-  </si>
-  <si>
-    <t>Carrier, B., 2005. File system forensic analysis. Addison-Wesley Professional.</t>
   </si>
   <si>
     <t>['Deleted file recovery', 'Deleted data recovery']</t>
@@ -12210,7 +12218,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-12-06T20:37:43.088934+00:00</t>
+    <t>2025-12-06T20:38:53.235321+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>
@@ -13964,7 +13972,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2149</v>
+        <v>2151</v>
       </c>
     </row>
   </sheetData>
@@ -14119,7 +14127,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2150</v>
+        <v>2152</v>
       </c>
     </row>
   </sheetData>
@@ -14171,7 +14179,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2142</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14274,7 +14282,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2151</v>
+        <v>2153</v>
       </c>
     </row>
   </sheetData>
@@ -14326,7 +14334,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14429,7 +14437,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2152</v>
+        <v>2154</v>
       </c>
     </row>
   </sheetData>
@@ -14481,7 +14489,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14584,7 +14592,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2153</v>
+        <v>2155</v>
       </c>
     </row>
   </sheetData>
@@ -14636,7 +14644,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14739,7 +14747,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2154</v>
+        <v>2156</v>
       </c>
     </row>
   </sheetData>
@@ -15038,7 +15046,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2155</v>
+        <v>2157</v>
       </c>
     </row>
   </sheetData>
@@ -15090,7 +15098,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2142</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -15114,7 +15122,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2156</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -15190,18 +15198,18 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="10" t="s">
-        <v>2157</v>
+        <v>2159</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2158</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2158</v>
+        <v>2160</v>
       </c>
     </row>
   </sheetData>
@@ -15804,7 +15812,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2160</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -16092,7 +16100,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -16380,7 +16388,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -16524,7 +16532,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -16668,7 +16676,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -16836,7 +16844,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2161</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -16939,7 +16947,7 @@
         <v>1427</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>2162</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -16949,7 +16957,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2163</v>
+        <v>2165</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>832</v>
@@ -17030,7 +17038,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2164</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -17046,7 +17054,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2165</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -17365,7 +17373,7 @@
         <v>1391</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>2166</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -17375,10 +17383,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="10" t="s">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
   </sheetData>
@@ -17701,7 +17709,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2169</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -17767,7 +17775,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2170</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -17796,7 +17804,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2171</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -17854,7 +17862,7 @@
         <v>327</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2172</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -17867,7 +17875,7 @@
         <v>1391</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>2166</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -17933,7 +17941,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="10" t="s">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>845</v>
@@ -17941,7 +17949,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="10" t="s">
-        <v>2173</v>
+        <v>2175</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>845</v>
@@ -17949,7 +17957,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="10" t="s">
-        <v>2174</v>
+        <v>2176</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>845</v>
@@ -17957,10 +17965,10 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="10" t="s">
-        <v>2175</v>
+        <v>2177</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>2176</v>
+        <v>2178</v>
       </c>
     </row>
   </sheetData>
@@ -18033,7 +18041,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2177</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -18041,7 +18049,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2178</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -18149,7 +18157,7 @@
         <v>1937</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2179</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -18157,7 +18165,7 @@
         <v>1854</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2180</v>
+        <v>2182</v>
       </c>
     </row>
   </sheetData>
@@ -18211,7 +18219,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2160</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -18259,7 +18267,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2181</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -18311,26 +18319,26 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="10" t="s">
-        <v>2182</v>
+        <v>2184</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2183</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>2184</v>
+        <v>2186</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2183</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
+        <v>2187</v>
+      </c>
+      <c r="I20" s="10" t="s">
         <v>2185</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>2183</v>
       </c>
     </row>
   </sheetData>
@@ -18384,7 +18392,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -18432,7 +18440,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2186</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -18498,7 +18506,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2187</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -18527,7 +18535,7 @@
         <v>444</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2188</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -18611,7 +18619,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="10" t="s">
-        <v>2189</v>
+        <v>2191</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>859</v>
@@ -18667,7 +18675,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2138</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -18781,7 +18789,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -18810,7 +18818,7 @@
         <v>442</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2190</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -18868,7 +18876,7 @@
         <v>327</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -18889,7 +18897,7 @@
         <v>1332</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>2191</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -18905,7 +18913,7 @@
         <v>1636</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>2129</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -18913,7 +18921,7 @@
         <v>1641</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>2130</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -18921,7 +18929,7 @@
         <v>1643</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>2131</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -18947,26 +18955,26 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="10" t="s">
-        <v>2192</v>
+        <v>2194</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>2193</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="10" t="s">
-        <v>2194</v>
+        <v>2196</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>2195</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="10" t="s">
-        <v>2136</v>
+        <v>2138</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>2137</v>
+        <v>2139</v>
       </c>
     </row>
   </sheetData>
@@ -19074,7 +19082,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2196</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -19221,7 +19229,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="10" t="s">
-        <v>2197</v>
+        <v>2199</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>867</v>
@@ -19277,7 +19285,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2142</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -19293,7 +19301,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2198</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -19317,7 +19325,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2199</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -19325,7 +19333,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2200</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -19414,7 +19422,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>879</v>
@@ -19422,7 +19430,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2202</v>
+        <v>2204</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>879</v>
@@ -19495,7 +19503,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2203</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -19503,7 +19511,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2204</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -19519,7 +19527,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2205</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -19527,7 +19535,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2206</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -19635,7 +19643,7 @@
         <v>1427</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>2162</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -19805,7 +19813,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2207</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -19834,7 +19842,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2208</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -19863,7 +19871,7 @@
         <v>327</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2209</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -19892,7 +19900,7 @@
         <v>327</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2210</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -19921,7 +19929,7 @@
         <v>327</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -19942,7 +19950,7 @@
         <v>1144</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>2212</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -20062,7 +20070,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2213</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -20086,7 +20094,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2214</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -20152,7 +20160,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -20239,7 +20247,7 @@
         <v>2001</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
     </row>
   </sheetData>
@@ -20502,7 +20510,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -20592,7 +20600,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -20621,7 +20629,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -20687,7 +20695,7 @@
         <v>2001</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
     </row>
   </sheetData>
@@ -20756,7 +20764,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2220</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -20854,7 +20862,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2221</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -20875,7 +20883,7 @@
         <v>1144</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>2212</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -20958,7 +20966,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2222</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -20966,7 +20974,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2223</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -21069,7 +21077,7 @@
         <v>1468</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -21087,7 +21095,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>901</v>
@@ -21095,7 +21103,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="10" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>901</v>
@@ -21170,7 +21178,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2222</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -21268,7 +21276,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2227</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -21297,7 +21305,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2227</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -21339,7 +21347,7 @@
         <v>1440</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -21347,7 +21355,7 @@
         <v>1443</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -21373,7 +21381,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="10" t="s">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>885</v>
@@ -21448,7 +21456,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2222</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -21456,7 +21464,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -21572,15 +21580,15 @@
         <v>2004</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
     </row>
   </sheetData>
@@ -21650,7 +21658,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -21658,7 +21666,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -21878,10 +21886,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="10" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2235</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -21889,7 +21897,7 @@
         <v>2014</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2235</v>
+        <v>2237</v>
       </c>
     </row>
   </sheetData>
@@ -21966,7 +21974,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2236</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -22189,7 +22197,7 @@
         <v>2023</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2237</v>
+        <v>2239</v>
       </c>
     </row>
   </sheetData>
@@ -22257,7 +22265,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2238</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -22344,7 +22352,7 @@
         <v>2023</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
     </row>
   </sheetData>
@@ -22747,7 +22755,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -22771,7 +22779,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -22787,7 +22795,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -22795,7 +22803,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -22861,7 +22869,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -22890,7 +22898,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -22919,7 +22927,7 @@
         <v>327</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -22948,7 +22956,7 @@
         <v>327</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2245</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -22977,7 +22985,7 @@
         <v>327</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2246</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -23006,7 +23014,7 @@
         <v>327</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -23064,7 +23072,7 @@
         <v>327</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2248</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -23093,7 +23101,7 @@
         <v>327</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -23122,7 +23130,7 @@
         <v>327</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>2250</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -23151,7 +23159,7 @@
         <v>327</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -23180,7 +23188,7 @@
         <v>327</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>2252</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -23238,7 +23246,7 @@
         <v>327</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>2253</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -23267,7 +23275,7 @@
         <v>327</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>2254</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -23296,7 +23304,7 @@
         <v>327</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>2255</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -23325,7 +23333,7 @@
         <v>327</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>2255</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -23354,7 +23362,7 @@
         <v>327</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>2256</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -23383,7 +23391,7 @@
         <v>327</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>2257</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -23412,7 +23420,7 @@
         <v>442</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>2258</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -23441,7 +23449,7 @@
         <v>327</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>2259</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -23470,7 +23478,7 @@
         <v>327</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>2260</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -23499,7 +23507,7 @@
         <v>327</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>2261</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -23528,7 +23536,7 @@
         <v>327</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>2262</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -23557,7 +23565,7 @@
         <v>327</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>2263</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -23586,7 +23594,7 @@
         <v>327</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>2264</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -23615,7 +23623,7 @@
         <v>327</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -23798,7 +23806,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="B66" s="10" t="s">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>904</v>
@@ -23806,7 +23814,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="B67" s="10" t="s">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>904</v>
@@ -23879,7 +23887,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2268</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -23887,7 +23895,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2269</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -23911,7 +23919,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2270</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -23977,7 +23985,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2271</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -24006,7 +24014,7 @@
         <v>442</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2272</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -24064,7 +24072,7 @@
         <v>442</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2273</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -24109,7 +24117,7 @@
         <v>1623</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>2274</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -24135,7 +24143,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="10" t="s">
-        <v>2136</v>
+        <v>2138</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>1015</v>
@@ -24208,7 +24216,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2275</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -24216,7 +24224,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -24232,7 +24240,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2277</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -24306,7 +24314,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2278</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -24364,7 +24372,7 @@
         <v>327</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -24422,7 +24430,7 @@
         <v>444</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2280</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -24559,7 +24567,7 @@
         <v>1234</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>2281</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -24567,7 +24575,7 @@
         <v>1568</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>2282</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -24591,7 +24599,7 @@
         <v>1577</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>2283</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -24601,15 +24609,15 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="10" t="s">
-        <v>2284</v>
+        <v>2286</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>2285</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="10" t="s">
-        <v>2286</v>
+        <v>2288</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>1233</v>
@@ -24617,18 +24625,18 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="10" t="s">
-        <v>2287</v>
+        <v>2289</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>2288</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="10" t="s">
-        <v>2289</v>
+        <v>2291</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>2290</v>
+        <v>2292</v>
       </c>
     </row>
   </sheetData>
@@ -24703,7 +24711,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2291</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -24727,7 +24735,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2292</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -24824,10 +24832,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2293</v>
+        <v>2295</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2294</v>
+        <v>2296</v>
       </c>
     </row>
   </sheetData>
@@ -25787,7 +25795,7 @@
         <v>1565</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>2295</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -25797,10 +25805,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2296</v>
+        <v>2298</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2297</v>
+        <v>2299</v>
       </c>
     </row>
   </sheetData>
@@ -26457,7 +26465,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2298</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -26465,7 +26473,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2299</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -26541,10 +26549,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="10" t="s">
-        <v>2300</v>
+        <v>2302</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2301</v>
+        <v>2303</v>
       </c>
     </row>
   </sheetData>
@@ -26596,7 +26604,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -26612,7 +26620,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2302</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -26620,7 +26628,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2303</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -26636,7 +26644,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2304</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -26644,7 +26652,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2305</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -26696,34 +26704,34 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="10" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>2308</v>
+        <v>2310</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
+        <v>2311</v>
+      </c>
+      <c r="I20" s="10" t="s">
         <v>2309</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>2307</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2310</v>
+        <v>2312</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
     </row>
   </sheetData>
@@ -26818,7 +26826,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2039</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -26892,7 +26900,7 @@
         <v>444</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -26921,7 +26929,7 @@
         <v>444</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -26950,7 +26958,7 @@
         <v>444</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2312</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -26979,7 +26987,7 @@
         <v>327</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2313</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -27008,7 +27016,7 @@
         <v>327</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2314</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -27037,7 +27045,7 @@
         <v>444</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -27132,15 +27140,15 @@
     </row>
     <row r="34" spans="1:9">
       <c r="B34" s="10" t="s">
-        <v>2042</v>
+        <v>2045</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="10" t="s">
-        <v>2043</v>
+        <v>2036</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>744</v>
@@ -27213,7 +27221,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -27221,7 +27229,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -27245,7 +27253,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2319</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -27311,7 +27319,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -27324,7 +27332,7 @@
         <v>1591</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -27332,7 +27340,7 @@
         <v>1594</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -27342,7 +27350,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>1010</v>
@@ -27424,7 +27432,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2324</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -27514,7 +27522,7 @@
         <v>442</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2325</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -27630,7 +27638,7 @@
         <v>1636</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>2129</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -27648,10 +27656,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="10" t="s">
-        <v>2136</v>
+        <v>2138</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>2137</v>
+        <v>2139</v>
       </c>
     </row>
   </sheetData>
@@ -28514,23 +28522,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>2326</v>
+        <v>2328</v>
       </c>
       <c r="B1" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2328</v>
+        <v>2330</v>
       </c>
       <c r="B2" t="s">
-        <v>2329</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="B3">
         <v>19</v>
@@ -28538,7 +28546,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="B4">
         <v>151</v>
@@ -28546,7 +28554,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2332</v>
+        <v>2334</v>
       </c>
       <c r="B5">
         <v>262</v>
@@ -28554,7 +28562,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>2333</v>
+        <v>2335</v>
       </c>
       <c r="B6">
         <v>220</v>
@@ -28562,7 +28570,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>2334</v>
+        <v>2336</v>
       </c>
       <c r="B7">
         <v>67</v>
@@ -28570,7 +28578,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>2335</v>
+        <v>2337</v>
       </c>
       <c r="B8">
         <v>0.44</v>
@@ -31671,7 +31679,7 @@
         <v>5</v>
       </c>
       <c r="D60">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -40504,7 +40512,7 @@
         <v>588</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E64" t="s">
         <v>589</v>
@@ -47130,7 +47138,7 @@
         <v>1123</v>
       </c>
       <c r="E28">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -47521,7 +47529,7 @@
         <v>1189</v>
       </c>
       <c r="E51">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -51460,7 +51468,7 @@
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -51610,7 +51618,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>1178</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -51639,7 +51647,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -51697,7 +51705,7 @@
         <v>327</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -51726,7 +51734,7 @@
         <v>327</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -51736,79 +51744,79 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>1168</v>
+        <v>1120</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>1169</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
         <v>1184</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B27" s="10" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="9" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="9" t="s">
         <v>1821</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="B30" s="10" t="s">
-        <v>2034</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" s="10" t="s">
-        <v>1978</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -51816,7 +51824,7 @@
         <v>2035</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>1170</v>
+        <v>589</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -51824,15 +51832,49 @@
         <v>2036</v>
       </c>
       <c r="I33" s="10" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="10" t="s">
         <v>2037</v>
       </c>
+      <c r="I34" s="10" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="10" t="s">
+        <v>1978</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="10" t="s">
+        <v>2038</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="10" t="s">
+        <v>2039</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>2040</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
+  <mergeCells count="6">
     <mergeCell ref="B32:H32"/>
     <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1" location="Main!A1" display="back to main"/>
@@ -51896,7 +51938,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2038</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -51920,7 +51962,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2039</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -51928,7 +51970,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2040</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -51994,7 +52036,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -52023,7 +52065,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -52052,7 +52094,7 @@
         <v>327</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -52081,7 +52123,7 @@
         <v>327</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -52110,7 +52152,7 @@
         <v>327</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -52139,7 +52181,7 @@
         <v>327</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -52168,7 +52210,7 @@
         <v>327</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -52197,7 +52239,7 @@
         <v>327</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -52226,7 +52268,7 @@
         <v>327</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -52255,7 +52297,7 @@
         <v>444</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -52284,7 +52326,7 @@
         <v>444</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -52313,7 +52355,7 @@
         <v>327</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -52342,7 +52384,7 @@
         <v>327</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -52371,7 +52413,7 @@
         <v>327</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -52400,7 +52442,7 @@
         <v>327</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -52429,7 +52471,7 @@
         <v>327</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -52458,7 +52500,7 @@
         <v>327</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -52505,7 +52547,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="10" t="s">
-        <v>2042</v>
+        <v>2045</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>600</v>
@@ -52513,7 +52555,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="10" t="s">
-        <v>2043</v>
+        <v>2036</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>600</v>
@@ -52586,7 +52628,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2044</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -52602,7 +52644,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>2045</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -52610,7 +52652,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2046</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -52707,10 +52749,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2042</v>
+        <v>2045</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2047</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -52875,7 +52917,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2048</v>
+        <v>2050</v>
       </c>
     </row>
   </sheetData>
@@ -53095,7 +53137,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2049</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -53185,7 +53227,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2050</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -53214,7 +53256,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -53243,7 +53285,7 @@
         <v>327</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2050</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -53290,7 +53332,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="10" t="s">
-        <v>2052</v>
+        <v>2054</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>731</v>
@@ -53301,39 +53343,39 @@
         <v>1978</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="10" t="s">
-        <v>2054</v>
+        <v>2056</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="10" t="s">
-        <v>2056</v>
+        <v>2058</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>2057</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="10" t="s">
-        <v>2058</v>
+        <v>2060</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>2057</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="10" t="s">
+        <v>2061</v>
+      </c>
+      <c r="I30" s="10" t="s">
         <v>2059</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>2057</v>
       </c>
     </row>
   </sheetData>
@@ -53431,7 +53473,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2060</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -53534,7 +53576,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2061</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -53563,7 +53605,7 @@
         <v>327</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2061</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -53621,7 +53663,7 @@
         <v>327</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2062</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -53634,7 +53676,7 @@
         <v>1216</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>2063</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -53700,10 +53742,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="10" t="s">
-        <v>2064</v>
+        <v>2066</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>2065</v>
+        <v>2067</v>
       </c>
     </row>
   </sheetData>
@@ -53757,7 +53799,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -53860,7 +53902,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2067</v>
+        <v>2069</v>
       </c>
     </row>
   </sheetData>
@@ -53912,7 +53954,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -54015,7 +54057,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2068</v>
+        <v>2070</v>
       </c>
     </row>
   </sheetData>
@@ -54067,7 +54109,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -54170,7 +54212,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2069</v>
+        <v>2071</v>
       </c>
     </row>
   </sheetData>
@@ -54222,7 +54264,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -54325,7 +54367,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2070</v>
+        <v>2072</v>
       </c>
     </row>
   </sheetData>
@@ -54377,7 +54419,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -54401,7 +54443,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2072</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -54409,7 +54451,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>2073</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -54417,7 +54459,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2074</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -54562,7 +54604,7 @@
         <v>1553</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>2075</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -54570,7 +54612,7 @@
         <v>1556</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>2076</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -54588,7 +54630,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="10" t="s">
-        <v>2077</v>
+        <v>2079</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>694</v>
@@ -54596,7 +54638,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="10" t="s">
-        <v>2078</v>
+        <v>2080</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>694</v>
@@ -54655,7 +54697,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -54815,7 +54857,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2079</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -54839,7 +54881,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2080</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -54847,7 +54889,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2081</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -54913,7 +54955,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2082</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -54942,7 +54984,7 @@
         <v>444</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2083</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -55095,7 +55137,7 @@
         <v>1378</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -55137,7 +55179,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="10" t="s">
-        <v>2085</v>
+        <v>2087</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>819</v>
@@ -55145,26 +55187,26 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="10" t="s">
-        <v>2086</v>
+        <v>2088</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>2087</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="10" t="s">
-        <v>2088</v>
+        <v>2090</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>2089</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="10" t="s">
-        <v>2090</v>
+        <v>2092</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>2091</v>
+        <v>2093</v>
       </c>
     </row>
   </sheetData>
@@ -55221,7 +55263,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -55237,7 +55279,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -55245,7 +55287,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2093</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -55261,7 +55303,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2094</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -55335,7 +55377,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -55364,7 +55406,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -55393,7 +55435,7 @@
         <v>327</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -55422,7 +55464,7 @@
         <v>327</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -55451,7 +55493,7 @@
         <v>327</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -55480,7 +55522,7 @@
         <v>327</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -55509,7 +55551,7 @@
         <v>327</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -55538,7 +55580,7 @@
         <v>327</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -55567,7 +55609,7 @@
         <v>444</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -55596,7 +55638,7 @@
         <v>327</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -55625,7 +55667,7 @@
         <v>327</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -55654,7 +55696,7 @@
         <v>327</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -55683,7 +55725,7 @@
         <v>327</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -55712,7 +55754,7 @@
         <v>327</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -55741,7 +55783,7 @@
         <v>327</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -55770,7 +55812,7 @@
         <v>327</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -55799,7 +55841,7 @@
         <v>327</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -55828,7 +55870,7 @@
         <v>444</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -55891,26 +55933,26 @@
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="10" t="s">
-        <v>2099</v>
+        <v>2101</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>2100</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="10" t="s">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>2102</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="10" t="s">
-        <v>2103</v>
+        <v>2105</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
     </row>
   </sheetData>
@@ -56243,7 +56285,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -56387,7 +56429,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -56531,7 +56573,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -56699,7 +56741,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -56715,7 +56757,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -56723,7 +56765,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2107</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -56789,7 +56831,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2108</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -56847,7 +56889,7 @@
         <v>327</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2109</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -56905,7 +56947,7 @@
         <v>327</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2110</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -56963,7 +57005,7 @@
         <v>442</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2111</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -56992,7 +57034,7 @@
         <v>327</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -57132,10 +57174,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="10" t="s">
-        <v>2113</v>
+        <v>2115</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>2114</v>
+        <v>2116</v>
       </c>
     </row>
   </sheetData>
@@ -57188,7 +57230,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -57332,7 +57374,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -57579,7 +57621,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2115</v>
+        <v>2117</v>
       </c>
     </row>
   </sheetData>
@@ -57663,7 +57705,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>2116</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -57734,7 +57776,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2117</v>
+        <v>2119</v>
       </c>
     </row>
   </sheetData>
@@ -57889,7 +57931,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2118</v>
+        <v>2120</v>
       </c>
     </row>
   </sheetData>
@@ -58044,7 +58086,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2119</v>
+        <v>2121</v>
       </c>
     </row>
   </sheetData>
@@ -58607,7 +58649,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -58751,7 +58793,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2120</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -58854,7 +58896,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2121</v>
+        <v>2123</v>
       </c>
     </row>
   </sheetData>
@@ -58906,7 +58948,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2120</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -59009,7 +59051,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2122</v>
+        <v>2124</v>
       </c>
     </row>
   </sheetData>
@@ -59077,7 +59119,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2123</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -59085,7 +59127,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2124</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -59093,7 +59135,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>2125</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -59109,7 +59151,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2126</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -59175,7 +59217,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -59204,7 +59246,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -59233,7 +59275,7 @@
         <v>1636</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>2129</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -59241,7 +59283,7 @@
         <v>1641</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>2130</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -59249,7 +59291,7 @@
         <v>1643</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>2131</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -59275,26 +59317,26 @@
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="10" t="s">
-        <v>2132</v>
+        <v>2134</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>2133</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="10" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>2133</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="10" t="s">
+        <v>2137</v>
+      </c>
+      <c r="I29" s="10" t="s">
         <v>2135</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>2133</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -59302,15 +59344,15 @@
         <v>2013</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>2133</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="10" t="s">
-        <v>2136</v>
+        <v>2138</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>2137</v>
+        <v>2139</v>
       </c>
     </row>
   </sheetData>
@@ -59371,7 +59413,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2138</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -59515,7 +59557,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2138</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -59531,7 +59573,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2139</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -59615,10 +59657,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="10" t="s">
-        <v>2140</v>
+        <v>2142</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2141</v>
+        <v>2143</v>
       </c>
     </row>
   </sheetData>
@@ -59670,7 +59712,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2142</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -59773,7 +59815,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2143</v>
+        <v>2145</v>
       </c>
     </row>
   </sheetData>
@@ -59825,7 +59867,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>2142</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -59928,7 +59970,7 @@
         <v>1861</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2144</v>
+        <v>2146</v>
       </c>
     </row>
   </sheetData>
@@ -59996,7 +60038,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -60231,7 +60273,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2146</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -60297,7 +60339,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2147</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -60326,7 +60368,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2148</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="15" spans="1:10">

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -6189,7 +6189,7 @@
     <t>Use the path of file name to determine potential relevance of artefact</t>
   </si>
   <si>
-    <t>The process of moving from a set of timeline entries to reconstructed events, or to identify times of interest (adapted from Breitinger et al. 2025).</t>
+    <t>The process of searching, filtering, sorting, highlighting, or aggregating timeline entries to determine which are relevant for event reconstruction, or to identify times of interest (adapted from Breitinger et al. 2025)</t>
   </si>
   <si>
     <t>T1134(s)</t>
@@ -12218,7 +12218,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-12-06T20:38:53.235321+00:00</t>
+    <t>2025-12-06T20:45:09.197568+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -3288,19 +3288,6 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t/>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t>M1101 (Apply time offset to timestamp)
 M1224 (Check for location artifacts to infer the time zone at a specific moment)
 M1229 (Determine last timezone used on system)
@@ -4924,7 +4911,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11621" uniqueCount="2338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11610" uniqueCount="2336">
   <si>
     <t>Find potential digital evidence sources</t>
   </si>
@@ -7272,6 +7259,9 @@
     <t>Misinterpreting events from automated processes as user generated ones</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>W1151</t>
   </si>
   <si>
@@ -7486,9 +7476,6 @@
   </si>
   <si>
     <t>Failure to decrypt internal disk using a bootable environment</t>
-  </si>
-  <si>
-    <t>[]</t>
   </si>
   <si>
     <t>W1182</t>
@@ -11783,12 +11770,6 @@
     <t>['W1149', 'M1103']</t>
   </si>
   <si>
-    <t>Jens-Petter Sandvik, André Årnes, 2018. The reliability of clocks as digital evidence under low voltage conditions. Digital Investigation, 24, pp.S10-S17.</t>
-  </si>
-  <si>
-    <t>['W1150']</t>
-  </si>
-  <si>
     <t>['Autopsy Interesting Files module']</t>
   </si>
   <si>
@@ -12218,7 +12199,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-12-06T20:45:09.197568+00:00</t>
+    <t>2025-12-06T20:45:33.850755+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>
@@ -13495,7 +13476,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -13885,7 +13866,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -13901,7 +13882,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -13909,7 +13890,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -13917,7 +13898,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -14040,7 +14021,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -14056,7 +14037,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -14064,7 +14045,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -14072,7 +14053,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -14195,7 +14176,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -14211,7 +14192,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -14219,7 +14200,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -14227,7 +14208,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -14350,7 +14331,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -14366,7 +14347,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -14374,7 +14355,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -14382,7 +14363,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -14505,7 +14486,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -14521,7 +14502,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -14529,7 +14510,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -14537,7 +14518,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -14660,7 +14641,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -14676,7 +14657,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -14684,7 +14665,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -14692,7 +14673,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -14815,7 +14796,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -14831,7 +14812,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -14839,7 +14820,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -14847,7 +14828,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -14959,7 +14940,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -14975,7 +14956,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -14983,7 +14964,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -14991,7 +14972,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -15114,7 +15095,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -15130,7 +15111,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -15138,7 +15119,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -15146,7 +15127,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -15278,7 +15259,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -15294,7 +15275,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -15302,7 +15283,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -15310,7 +15291,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -15438,7 +15419,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -15446,7 +15427,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -15828,7 +15809,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -15844,7 +15825,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -15852,7 +15833,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -15860,7 +15841,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -15972,7 +15953,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -15988,7 +15969,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -15996,7 +15977,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -16004,7 +15985,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -16116,7 +16097,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -16132,7 +16113,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -16140,7 +16121,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -16148,7 +16129,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -16244,7 +16225,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -16260,7 +16241,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -16276,7 +16257,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -16284,7 +16265,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -16292,7 +16273,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -16404,7 +16385,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -16420,7 +16401,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -16428,7 +16409,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -16436,7 +16417,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -16548,7 +16529,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -16564,7 +16545,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -16572,7 +16553,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -16580,7 +16561,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -16692,7 +16673,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -16708,7 +16689,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -16716,7 +16697,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -16724,7 +16705,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -16836,7 +16817,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -16852,7 +16833,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -16860,7 +16841,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -16868,7 +16849,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -16910,10 +16891,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="10" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>444</v>
@@ -16960,7 +16941,7 @@
         <v>2165</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
   </sheetData>
@@ -17030,7 +17011,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -17046,7 +17027,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -17062,7 +17043,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -17104,10 +17085,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="10" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>327</v>
@@ -17204,7 +17185,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -17220,7 +17201,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -17228,7 +17209,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -17236,7 +17217,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -17278,10 +17259,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="10" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>444</v>
@@ -17307,10 +17288,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="10" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>444</v>
@@ -17336,10 +17317,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="10" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>444</v>
@@ -17456,7 +17437,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -17472,7 +17453,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -17488,7 +17469,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -17677,7 +17658,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -17693,7 +17674,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -17701,7 +17682,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -17751,10 +17732,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="10" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>327</v>
@@ -17780,10 +17761,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="10" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>444</v>
@@ -17809,10 +17790,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="10" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>444</v>
@@ -17838,10 +17819,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>444</v>
@@ -17944,7 +17925,7 @@
         <v>2169</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -17952,7 +17933,7 @@
         <v>2175</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -17960,7 +17941,7 @@
         <v>2176</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -18057,7 +18038,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -18073,7 +18054,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -18235,7 +18216,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -18251,7 +18232,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -18259,7 +18240,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -18408,7 +18389,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -18424,7 +18405,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -18639,7 +18620,7 @@
 
 <file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18691,7 +18672,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -18707,7 +18688,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -18715,7 +18696,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -18723,7 +18704,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -18823,10 +18804,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="10" t="s">
-        <v>780</v>
+        <v>1027</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>781</v>
+        <v>1028</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>327</v>
@@ -18844,152 +18825,114 @@
         <v>327</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>442</v>
+        <v>327</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="10" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="I16" s="10" t="s">
         <v>2130</v>
       </c>
     </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="9" t="s">
+        <v>1820</v>
+      </c>
+    </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="9" t="s">
-        <v>1820</v>
+      <c r="A18" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>2012</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>1325</v>
+        <v>1332</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>2012</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>1332</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>2193</v>
+        <v>1632</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>1633</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>1632</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>1633</v>
+        <v>1636</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>2131</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>1636</v>
+        <v>1641</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>1643</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>2133</v>
+        <v>1645</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>1646</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>1648</v>
-      </c>
-      <c r="B26" s="10" t="s">
         <v>1649</v>
       </c>
     </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="9" t="s">
+        <v>1821</v>
+      </c>
+    </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="9" t="s">
-        <v>1821</v>
+      <c r="B29" s="10" t="s">
+        <v>2194</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>2195</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="10" t="s">
-        <v>2194</v>
+        <v>2138</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>2195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" s="10" t="s">
-        <v>2196</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>2197</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="B32" s="10" t="s">
-        <v>2138</v>
-      </c>
-      <c r="I32" s="10" t="s">
         <v>2139</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
+    <mergeCell ref="B29:H29"/>
     <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1" location="Main!A1" display="back to main"/>
-    <hyperlink ref="B19" location="T1153!A1" display="Apply time offset to timestamp (T1153)"/>
-    <hyperlink ref="B20" location="T1134!A1" display="Use 'Time Anchors' to assess clock accuracy at time of inferred event (T1134)"/>
-    <hyperlink ref="B22" location="T1134!A1" display="Estimate clock offset at a specific point in time using time anchoring (T1134)"/>
-    <hyperlink ref="B23" location="T1129!A1" display="Search for indicators of clock tampering (T1129)"/>
-    <hyperlink ref="B24" location="T1111!A1" display="Record system clock offset (T1111)"/>
+    <hyperlink ref="B18" location="T1153!A1" display="Apply time offset to timestamp (T1153)"/>
+    <hyperlink ref="B19" location="T1134!A1" display="Use 'Time Anchors' to assess clock accuracy at time of inferred event (T1134)"/>
+    <hyperlink ref="B21" location="T1134!A1" display="Estimate clock offset at a specific point in time using time anchoring (T1134)"/>
+    <hyperlink ref="B22" location="T1129!A1" display="Search for indicators of clock tampering (T1129)"/>
+    <hyperlink ref="B23" location="T1111!A1" display="Record system clock offset (T1111)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -19050,7 +18993,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -19066,7 +19009,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -19082,7 +19025,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -19229,7 +19172,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="10" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>867</v>
@@ -19301,7 +19244,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -19317,7 +19260,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -19325,7 +19268,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -19333,7 +19276,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -19422,7 +19365,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>879</v>
@@ -19430,7 +19373,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>879</v>
@@ -19503,7 +19446,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -19511,7 +19454,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -19519,7 +19462,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -19527,7 +19470,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -19535,7 +19478,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -19699,7 +19642,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -19715,7 +19658,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -19731,7 +19674,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -19739,7 +19682,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -19747,7 +19690,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -19813,7 +19756,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -19842,7 +19785,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -19871,7 +19814,7 @@
         <v>327</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -19900,7 +19843,7 @@
         <v>327</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -19929,7 +19872,7 @@
         <v>327</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -19950,7 +19893,7 @@
         <v>1144</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -20046,7 +19989,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -20062,7 +20005,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -20070,7 +20013,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -20078,7 +20021,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -20086,7 +20029,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -20094,7 +20037,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -20160,7 +20103,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -20247,7 +20190,7 @@
         <v>2001</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
     </row>
   </sheetData>
@@ -20333,7 +20276,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -20349,7 +20292,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -20486,7 +20429,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -20502,7 +20445,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -20510,7 +20453,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -20518,7 +20461,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -20526,7 +20469,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -20534,7 +20477,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -20600,7 +20543,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -20629,7 +20572,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -20695,7 +20638,7 @@
         <v>2001</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
     </row>
   </sheetData>
@@ -20748,7 +20691,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -20764,7 +20707,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -20780,7 +20723,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -20788,7 +20731,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -20796,7 +20739,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -20862,7 +20805,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -20883,7 +20826,7 @@
         <v>1144</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -20950,7 +20893,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -20966,7 +20909,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -20974,7 +20917,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -20982,7 +20925,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -20990,7 +20933,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -20998,7 +20941,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -21077,7 +21020,7 @@
         <v>1468</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -21095,7 +21038,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>901</v>
@@ -21103,7 +21046,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="10" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>901</v>
@@ -21162,7 +21105,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -21178,7 +21121,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -21194,7 +21137,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -21202,7 +21145,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -21210,7 +21153,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -21276,7 +21219,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -21305,7 +21248,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -21347,7 +21290,7 @@
         <v>1440</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -21355,7 +21298,7 @@
         <v>1443</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -21381,7 +21324,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="10" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>885</v>
@@ -21440,7 +21383,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -21456,7 +21399,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -21464,7 +21407,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -21472,7 +21415,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -21480,7 +21423,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -21488,7 +21431,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -21580,15 +21523,15 @@
         <v>2004</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
     </row>
   </sheetData>
@@ -21658,7 +21601,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -21666,7 +21609,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -21674,7 +21617,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -21682,7 +21625,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -21690,7 +21633,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -21802,7 +21745,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -21818,7 +21761,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -21826,7 +21769,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -21834,7 +21777,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -21886,10 +21829,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="10" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -21897,7 +21840,7 @@
         <v>2014</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
     </row>
   </sheetData>
@@ -21966,7 +21909,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -21974,7 +21917,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -21982,7 +21925,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -21990,7 +21933,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -21998,7 +21941,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -22110,7 +22053,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -22126,7 +22069,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -22134,7 +22077,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -22142,7 +22085,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -22197,7 +22140,7 @@
         <v>2023</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
     </row>
   </sheetData>
@@ -22265,7 +22208,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -22281,7 +22224,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -22289,7 +22232,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -22297,7 +22240,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -22352,7 +22295,7 @@
         <v>2023</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
     </row>
   </sheetData>
@@ -22420,7 +22363,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -22436,7 +22379,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -22771,7 +22714,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -22779,7 +22722,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -22787,7 +22730,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -22795,7 +22738,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -22803,7 +22746,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -22869,7 +22812,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -22898,7 +22841,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -22927,7 +22870,7 @@
         <v>327</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -22956,7 +22899,7 @@
         <v>327</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -22985,7 +22928,7 @@
         <v>327</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -23014,7 +22957,7 @@
         <v>327</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -23072,7 +23015,7 @@
         <v>327</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -23101,7 +23044,7 @@
         <v>327</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -23130,7 +23073,7 @@
         <v>327</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -23159,7 +23102,7 @@
         <v>327</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -23188,7 +23131,7 @@
         <v>327</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -23246,7 +23189,7 @@
         <v>327</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -23275,7 +23218,7 @@
         <v>327</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -23304,7 +23247,7 @@
         <v>327</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -23333,7 +23276,7 @@
         <v>327</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -23362,7 +23305,7 @@
         <v>327</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -23391,7 +23334,7 @@
         <v>327</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -23420,7 +23363,7 @@
         <v>442</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -23449,7 +23392,7 @@
         <v>327</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -23478,7 +23421,7 @@
         <v>327</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -23507,7 +23450,7 @@
         <v>327</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -23536,7 +23479,7 @@
         <v>327</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -23565,7 +23508,7 @@
         <v>327</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -23594,7 +23537,7 @@
         <v>327</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -23623,7 +23566,7 @@
         <v>327</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -23806,7 +23749,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="B66" s="10" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>904</v>
@@ -23814,7 +23757,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="B67" s="10" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>904</v>
@@ -23871,7 +23814,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -23887,7 +23830,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -23895,7 +23838,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -23903,7 +23846,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -23911,7 +23854,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -23919,7 +23862,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -23985,7 +23928,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -24014,7 +23957,7 @@
         <v>442</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -24072,7 +24015,7 @@
         <v>442</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -24117,7 +24060,7 @@
         <v>1623</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -24200,7 +24143,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -24216,7 +24159,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -24224,7 +24167,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -24232,7 +24175,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -24240,7 +24183,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -24248,7 +24191,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -24314,7 +24257,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -24372,7 +24315,7 @@
         <v>327</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -24430,7 +24373,7 @@
         <v>444</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -24567,7 +24510,7 @@
         <v>1234</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -24575,7 +24518,7 @@
         <v>1568</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -24599,7 +24542,7 @@
         <v>1577</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -24609,15 +24552,15 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="10" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="10" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>1233</v>
@@ -24625,18 +24568,18 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="10" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="10" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
     </row>
   </sheetData>
@@ -24695,7 +24638,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -24711,7 +24654,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -24727,7 +24670,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -24735,7 +24678,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -24743,7 +24686,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -24832,10 +24775,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
     </row>
   </sheetData>
@@ -24888,7 +24831,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -24904,7 +24847,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -24920,7 +24863,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -24928,7 +24871,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -24936,7 +24879,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -25032,7 +24975,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -25048,7 +24991,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -25064,7 +25007,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -25072,7 +25015,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -25080,7 +25023,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -25176,7 +25119,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -25192,7 +25135,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -25208,7 +25151,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -25216,7 +25159,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -25224,7 +25167,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -25350,7 +25293,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -25366,7 +25309,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -25382,7 +25325,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -25390,7 +25333,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -25398,7 +25341,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -25524,7 +25467,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -25540,7 +25483,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -25556,7 +25499,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -25564,7 +25507,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -25572,7 +25515,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -25668,7 +25611,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -25684,7 +25627,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -25700,7 +25643,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -25708,7 +25651,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -25716,7 +25659,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -25795,7 +25738,7 @@
         <v>1565</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -25805,10 +25748,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
     </row>
   </sheetData>
@@ -25878,7 +25821,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -25894,7 +25837,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -25902,7 +25845,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -25910,7 +25853,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -26017,7 +25960,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -26033,7 +25976,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -26049,7 +25992,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -26057,7 +26000,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -26065,7 +26008,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -26161,7 +26104,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -26177,7 +26120,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -26193,7 +26136,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -26201,7 +26144,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -26209,7 +26152,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -26305,7 +26248,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -26321,7 +26264,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -26337,7 +26280,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -26345,7 +26288,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -26353,7 +26296,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -26449,7 +26392,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -26465,7 +26408,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -26473,7 +26416,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -26481,7 +26424,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -26489,7 +26432,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -26497,7 +26440,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -26549,10 +26492,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="10" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
     </row>
   </sheetData>
@@ -26620,7 +26563,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -26628,7 +26571,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -26636,7 +26579,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -26644,7 +26587,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -26652,7 +26595,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -26704,34 +26647,34 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="10" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
     </row>
   </sheetData>
@@ -26786,7 +26729,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -26802,7 +26745,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -26818,7 +26761,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -26834,7 +26777,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -26900,7 +26843,7 @@
         <v>444</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -26929,7 +26872,7 @@
         <v>444</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -26958,7 +26901,7 @@
         <v>444</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -26987,7 +26930,7 @@
         <v>327</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -27016,7 +26959,7 @@
         <v>327</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -27045,7 +26988,7 @@
         <v>444</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -27143,7 +27086,7 @@
         <v>2045</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -27205,7 +27148,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -27221,7 +27164,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -27229,7 +27172,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -27237,7 +27180,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -27245,7 +27188,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -27253,7 +27196,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -27319,7 +27262,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -27332,7 +27275,7 @@
         <v>1591</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -27340,7 +27283,7 @@
         <v>1594</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -27350,7 +27293,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>1010</v>
@@ -27408,7 +27351,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -27424,7 +27367,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -27432,7 +27375,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -27440,7 +27383,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -27448,7 +27391,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -27456,7 +27399,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -27522,7 +27465,7 @@
         <v>442</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -27729,7 +27672,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -27745,7 +27688,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -27753,7 +27696,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -27761,7 +27704,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -27884,7 +27827,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -27900,7 +27843,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -27908,7 +27851,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -27916,7 +27859,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -28135,7 +28078,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -28151,7 +28094,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -28159,7 +28102,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -28167,7 +28110,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -28279,7 +28222,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -28295,7 +28238,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -28303,7 +28246,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -28311,7 +28254,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -28522,23 +28465,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="B1" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="B2" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="B3">
         <v>19</v>
@@ -28546,7 +28489,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="B4">
         <v>151</v>
@@ -28554,7 +28497,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="B5">
         <v>262</v>
@@ -28562,7 +28505,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="B6">
         <v>220</v>
@@ -28570,7 +28513,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="B7">
         <v>67</v>
@@ -28578,7 +28521,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="B8">
         <v>0.44</v>
@@ -28643,7 +28586,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -28659,7 +28602,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -28667,7 +28610,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -28675,7 +28618,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -28798,7 +28741,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -28814,7 +28757,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -28822,7 +28765,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -28830,7 +28773,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -28953,7 +28896,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -28969,7 +28912,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -28977,7 +28920,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -29265,7 +29208,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -29543,7 +29486,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -29559,7 +29502,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -29567,7 +29510,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -29575,7 +29518,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -29698,7 +29641,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -29714,7 +29657,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -29722,7 +29665,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -29730,7 +29673,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -29853,7 +29796,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -29869,7 +29812,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -29877,7 +29820,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -30194,7 +30137,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -30210,7 +30153,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -30226,7 +30169,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -30268,10 +30211,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="10" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>327</v>
@@ -30297,10 +30240,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="10" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>444</v>
@@ -30326,10 +30269,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="10" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>444</v>
@@ -30355,10 +30298,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="10" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>444</v>
@@ -30384,10 +30327,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="10" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>444</v>
@@ -30413,10 +30356,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="10" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>444</v>
@@ -30495,7 +30438,7 @@
         <v>1917</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -30503,7 +30446,7 @@
         <v>1918</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -30511,7 +30454,7 @@
         <v>1919</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
   </sheetData>
@@ -30586,7 +30529,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -30602,7 +30545,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -30730,7 +30673,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -30746,7 +30689,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -30754,7 +30697,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -30762,7 +30705,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -32488,7 +32431,7 @@
         <v>256</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D118">
         <v>11</v>
@@ -33167,7 +33110,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -33183,7 +33126,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -33191,7 +33134,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -33199,7 +33142,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -33322,7 +33265,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -33338,7 +33281,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -33346,7 +33289,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -33354,7 +33297,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -33493,7 +33436,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -33501,7 +33444,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -33670,7 +33613,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -33686,7 +33629,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -33702,7 +33645,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -33744,10 +33687,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="10" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>444</v>
@@ -33844,7 +33787,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -33860,7 +33803,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -33868,7 +33811,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -33876,7 +33819,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -33999,7 +33942,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -34015,7 +33958,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -34023,7 +33966,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -34031,7 +33974,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -34154,7 +34097,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -34170,7 +34113,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -34178,7 +34121,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -34186,7 +34129,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -34309,7 +34252,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -34325,7 +34268,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -34333,7 +34276,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -34341,7 +34284,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -34464,7 +34407,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -34480,7 +34423,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -34488,7 +34431,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -34712,7 +34655,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -34728,7 +34671,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -34736,7 +34679,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -34744,7 +34687,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -37151,7 +37094,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -37167,7 +37110,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -37175,7 +37118,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -37183,7 +37126,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -37322,7 +37265,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -37338,7 +37281,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -37582,7 +37525,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -37598,7 +37541,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -37614,7 +37557,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -37916,7 +37859,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -37932,7 +37875,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -37940,7 +37883,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -37948,7 +37891,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -38071,7 +38014,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -38087,7 +38030,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -38095,7 +38038,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -38103,7 +38046,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -38226,7 +38169,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -38242,7 +38185,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -38250,7 +38193,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -38258,7 +38201,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -38381,7 +38324,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -38397,7 +38340,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -38405,7 +38348,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -38413,7 +38356,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -38545,7 +38488,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -38561,7 +38504,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -38569,7 +38512,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -38619,10 +38562,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="10" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>444</v>
@@ -38648,10 +38591,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="10" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>444</v>
@@ -38777,7 +38720,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -38793,7 +38736,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -38801,7 +38744,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -38809,7 +38752,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -38932,7 +38875,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -38948,7 +38891,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -38956,7 +38899,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -38964,7 +38907,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -42111,7 +42054,7 @@
         <v>442</v>
       </c>
       <c r="E151" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="G151" t="s">
         <v>444</v>
@@ -42122,10 +42065,10 @@
     </row>
     <row r="152" spans="1:11">
       <c r="A152" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B152" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -42142,16 +42085,16 @@
     </row>
     <row r="153" spans="1:11">
       <c r="A153" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B153" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C153">
         <v>2</v>
       </c>
       <c r="E153" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F153" t="s">
         <v>444</v>
@@ -42159,16 +42102,16 @@
     </row>
     <row r="154" spans="1:11">
       <c r="A154" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B154" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C154">
         <v>2</v>
       </c>
       <c r="E154" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F154" t="s">
         <v>444</v>
@@ -42179,16 +42122,16 @@
     </row>
     <row r="155" spans="1:11">
       <c r="A155" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B155" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="E155" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="J155" t="s">
         <v>444</v>
@@ -42196,10 +42139,10 @@
     </row>
     <row r="156" spans="1:11">
       <c r="A156" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B156" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -42208,7 +42151,7 @@
         <v>442</v>
       </c>
       <c r="E156" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F156" t="s">
         <v>444</v>
@@ -42216,10 +42159,10 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B157" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -42228,7 +42171,7 @@
         <v>442</v>
       </c>
       <c r="E157" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="I157" t="s">
         <v>444</v>
@@ -42236,10 +42179,10 @@
     </row>
     <row r="158" spans="1:11">
       <c r="A158" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B158" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -42248,7 +42191,7 @@
         <v>442</v>
       </c>
       <c r="E158" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F158" t="s">
         <v>444</v>
@@ -42259,10 +42202,10 @@
     </row>
     <row r="159" spans="1:11">
       <c r="A159" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B159" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -42271,7 +42214,7 @@
         <v>442</v>
       </c>
       <c r="E159" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F159" t="s">
         <v>444</v>
@@ -42279,16 +42222,16 @@
     </row>
     <row r="160" spans="1:11">
       <c r="A160" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B160" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="E160" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="K160" t="s">
         <v>444</v>
@@ -42296,10 +42239,10 @@
     </row>
     <row r="161" spans="1:11">
       <c r="A161" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B161" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -42308,7 +42251,7 @@
         <v>442</v>
       </c>
       <c r="E161" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F161" t="s">
         <v>444</v>
@@ -42316,16 +42259,16 @@
     </row>
     <row r="162" spans="1:11">
       <c r="A162" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B162" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F162" t="s">
         <v>444</v>
@@ -42333,10 +42276,10 @@
     </row>
     <row r="163" spans="1:11">
       <c r="A163" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B163" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -42345,7 +42288,7 @@
         <v>442</v>
       </c>
       <c r="E163" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F163" t="s">
         <v>444</v>
@@ -42356,10 +42299,10 @@
     </row>
     <row r="164" spans="1:11">
       <c r="A164" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B164" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -42368,7 +42311,7 @@
         <v>442</v>
       </c>
       <c r="E164" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F164" t="s">
         <v>444</v>
@@ -42379,16 +42322,16 @@
     </row>
     <row r="165" spans="1:11">
       <c r="A165" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B165" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C165">
         <v>3</v>
       </c>
       <c r="E165" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F165" t="s">
         <v>444</v>
@@ -42396,10 +42339,10 @@
     </row>
     <row r="166" spans="1:11">
       <c r="A166" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B166" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -42408,7 +42351,7 @@
         <v>442</v>
       </c>
       <c r="E166" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F166" t="s">
         <v>444</v>
@@ -42422,16 +42365,16 @@
     </row>
     <row r="167" spans="1:11">
       <c r="A167" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B167" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C167">
         <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F167" t="s">
         <v>444</v>
@@ -42439,16 +42382,16 @@
     </row>
     <row r="168" spans="1:11">
       <c r="A168" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B168" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C168">
         <v>4</v>
       </c>
       <c r="E168" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H168" t="s">
         <v>444</v>
@@ -42462,10 +42405,10 @@
     </row>
     <row r="169" spans="1:11">
       <c r="A169" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B169" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -42474,7 +42417,7 @@
         <v>442</v>
       </c>
       <c r="E169" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H169" t="s">
         <v>444</v>
@@ -42485,10 +42428,10 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B170" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -42497,7 +42440,7 @@
         <v>442</v>
       </c>
       <c r="E170" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H170" t="s">
         <v>444</v>
@@ -42511,16 +42454,16 @@
     </row>
     <row r="171" spans="1:11">
       <c r="A171" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B171" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="E171" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F171" t="s">
         <v>444</v>
@@ -42528,16 +42471,16 @@
     </row>
     <row r="172" spans="1:11">
       <c r="A172" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B172" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="E172" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F172" t="s">
         <v>444</v>
@@ -42545,16 +42488,16 @@
     </row>
     <row r="173" spans="1:11">
       <c r="A173" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B173" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="E173" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F173" t="s">
         <v>444</v>
@@ -42568,10 +42511,10 @@
     </row>
     <row r="174" spans="1:11">
       <c r="A174" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B174" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -42580,7 +42523,7 @@
         <v>442</v>
       </c>
       <c r="E174" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H174" t="s">
         <v>444</v>
@@ -42588,10 +42531,10 @@
     </row>
     <row r="175" spans="1:11">
       <c r="A175" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B175" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -42600,7 +42543,7 @@
         <v>442</v>
       </c>
       <c r="E175" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F175" t="s">
         <v>444</v>
@@ -42608,10 +42551,10 @@
     </row>
     <row r="176" spans="1:11">
       <c r="A176" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B176" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -42620,7 +42563,7 @@
         <v>442</v>
       </c>
       <c r="E176" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F176" t="s">
         <v>444</v>
@@ -42628,16 +42571,16 @@
     </row>
     <row r="177" spans="1:11">
       <c r="A177" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B177" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="E177" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F177" t="s">
         <v>444</v>
@@ -42645,16 +42588,16 @@
     </row>
     <row r="178" spans="1:11">
       <c r="A178" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B178" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C178">
         <v>2</v>
       </c>
       <c r="E178" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H178" t="s">
         <v>444</v>
@@ -42665,16 +42608,16 @@
     </row>
     <row r="179" spans="1:11">
       <c r="A179" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B179" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C179">
         <v>3</v>
       </c>
       <c r="E179" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F179" t="s">
         <v>444</v>
@@ -42682,16 +42625,16 @@
     </row>
     <row r="180" spans="1:11">
       <c r="A180" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B180" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="E180" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F180" t="s">
         <v>444</v>
@@ -42699,16 +42642,16 @@
     </row>
     <row r="181" spans="1:11">
       <c r="A181" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B181" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C181">
         <v>2</v>
       </c>
       <c r="E181" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F181" t="s">
         <v>444</v>
@@ -42716,10 +42659,10 @@
     </row>
     <row r="182" spans="1:11">
       <c r="A182" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B182" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -42728,7 +42671,7 @@
         <v>442</v>
       </c>
       <c r="E182" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
       <c r="F182" t="s">
         <v>444</v>
@@ -42745,7 +42688,7 @@
         <v>3</v>
       </c>
       <c r="E183" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
       <c r="F183" t="s">
         <v>444</v>
@@ -44273,7 +44216,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -44603,7 +44546,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -44619,7 +44562,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -44627,7 +44570,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -44635,7 +44578,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -44957,7 +44900,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -44973,7 +44916,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -44989,7 +44932,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -45155,7 +45098,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -45171,7 +45114,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -45179,7 +45122,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -45187,7 +45130,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -45310,7 +45253,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -45326,7 +45269,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -45334,7 +45277,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -45342,7 +45285,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -45504,7 +45447,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -45520,7 +45463,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -45528,7 +45471,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -45536,7 +45479,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -45683,7 +45626,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -45691,7 +45634,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -46014,7 +45957,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -46030,7 +45973,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -46038,7 +45981,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -46046,7 +45989,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -46208,7 +46151,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -46224,7 +46167,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -46232,7 +46175,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -46240,7 +46183,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -46387,7 +46330,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -46553,10 +46496,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="10" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>327</v>
@@ -48441,7 +48384,7 @@
         <v>1336</v>
       </c>
       <c r="C105" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D105" t="s">
         <v>1337</v>
@@ -48458,7 +48401,7 @@
         <v>1339</v>
       </c>
       <c r="C106" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D106" t="s">
         <v>1337</v>
@@ -48475,7 +48418,7 @@
         <v>1341</v>
       </c>
       <c r="C107" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D107" t="s">
         <v>1342</v>
@@ -48492,7 +48435,7 @@
         <v>1344</v>
       </c>
       <c r="C108" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D108" t="s">
         <v>1342</v>
@@ -48509,7 +48452,7 @@
         <v>1346</v>
       </c>
       <c r="C109" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D109" t="s">
         <v>1347</v>
@@ -48594,7 +48537,7 @@
         <v>1359</v>
       </c>
       <c r="C114" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D114" t="s">
         <v>1360</v>
@@ -48611,7 +48554,7 @@
         <v>1362</v>
       </c>
       <c r="C115" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D115" t="s">
         <v>1363</v>
@@ -48628,7 +48571,7 @@
         <v>1365</v>
       </c>
       <c r="C116" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D116" t="s">
         <v>1366</v>
@@ -48645,7 +48588,7 @@
         <v>1368</v>
       </c>
       <c r="C117" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D117" t="s">
         <v>1366</v>
@@ -48662,7 +48605,7 @@
         <v>1370</v>
       </c>
       <c r="C118" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D118" t="s">
         <v>1366</v>
@@ -48679,7 +48622,7 @@
         <v>1372</v>
       </c>
       <c r="C119" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D119" t="s">
         <v>1373</v>
@@ -48696,7 +48639,7 @@
         <v>1375</v>
       </c>
       <c r="C120" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D120" t="s">
         <v>1373</v>
@@ -48713,7 +48656,7 @@
         <v>1377</v>
       </c>
       <c r="C121" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D121" t="s">
         <v>1373</v>
@@ -48730,7 +48673,7 @@
         <v>1379</v>
       </c>
       <c r="C122" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D122" t="s">
         <v>1373</v>
@@ -48747,7 +48690,7 @@
         <v>1381</v>
       </c>
       <c r="C123" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D123" t="s">
         <v>1382</v>
@@ -48764,7 +48707,7 @@
         <v>1384</v>
       </c>
       <c r="C124" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D124" t="s">
         <v>1382</v>
@@ -48781,7 +48724,7 @@
         <v>1386</v>
       </c>
       <c r="C125" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D125" t="s">
         <v>1387</v>
@@ -48798,7 +48741,7 @@
         <v>1389</v>
       </c>
       <c r="C126" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D126" t="s">
         <v>1390</v>
@@ -48832,7 +48775,7 @@
         <v>1396</v>
       </c>
       <c r="C128" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D128" t="s">
         <v>1397</v>
@@ -48849,7 +48792,7 @@
         <v>1399</v>
       </c>
       <c r="C129" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D129" t="s">
         <v>1400</v>
@@ -48866,7 +48809,7 @@
         <v>1402</v>
       </c>
       <c r="C130" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D130" t="s">
         <v>1400</v>
@@ -48883,7 +48826,7 @@
         <v>1404</v>
       </c>
       <c r="C131" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D131" t="s">
         <v>1400</v>
@@ -48900,7 +48843,7 @@
         <v>1406</v>
       </c>
       <c r="C132" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D132" t="s">
         <v>1407</v>
@@ -48917,7 +48860,7 @@
         <v>1409</v>
       </c>
       <c r="C133" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D133" t="s">
         <v>1410</v>
@@ -48934,7 +48877,7 @@
         <v>1412</v>
       </c>
       <c r="C134" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D134" t="s">
         <v>1410</v>
@@ -50481,7 +50424,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -50497,7 +50440,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -50505,7 +50448,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -50513,7 +50456,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -50636,7 +50579,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -50652,7 +50595,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -50660,7 +50603,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -50668,7 +50611,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -50900,7 +50843,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -50916,7 +50859,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -50924,7 +50867,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -50932,7 +50875,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -51055,7 +50998,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -51071,7 +51014,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -51079,7 +51022,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -51087,7 +51030,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -51210,7 +51153,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -51226,7 +51169,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -51234,7 +51177,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -51242,7 +51185,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -51365,7 +51308,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -51381,7 +51324,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -51389,7 +51332,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -51397,7 +51340,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -51536,7 +51479,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -51954,7 +51897,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -52660,7 +52603,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -52830,7 +52773,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -52846,7 +52789,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -52854,7 +52797,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -52862,7 +52805,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -52969,7 +52912,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -52985,7 +52928,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -53001,7 +52944,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -53009,7 +52952,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -53017,7 +52960,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -53129,7 +53072,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -53145,7 +53088,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -53153,7 +53096,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -53161,7 +53104,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -53433,7 +53376,7 @@
         <v>1808</v>
       </c>
       <c r="B3" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -53449,7 +53392,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -53465,7 +53408,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -53481,7 +53424,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -53815,7 +53758,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -53831,7 +53774,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -53839,7 +53782,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -53847,7 +53790,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -53970,7 +53913,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -53986,7 +53929,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -53994,7 +53937,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -54002,7 +53945,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -54125,7 +54068,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -54141,7 +54084,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -54149,7 +54092,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -54157,7 +54100,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -54280,7 +54223,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -54296,7 +54239,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -54304,7 +54247,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -54312,7 +54255,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -54435,7 +54378,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -54467,7 +54410,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -54713,7 +54656,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -54729,7 +54672,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -54737,7 +54680,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -54745,7 +54688,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -54873,7 +54816,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -54931,10 +54874,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="10" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>444</v>
@@ -54960,10 +54903,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="10" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>327</v>
@@ -54989,10 +54932,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="10" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>327</v>
@@ -55018,10 +54961,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="10" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>327</v>
@@ -55047,10 +54990,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="10" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>444</v>
@@ -55076,10 +55019,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="10" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>444</v>
@@ -55182,7 +55125,7 @@
         <v>2087</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -55295,7 +55238,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -55311,7 +55254,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -56023,7 +55966,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -56039,7 +55982,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -56047,7 +55990,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -56055,7 +55998,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -56301,7 +56244,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -56317,7 +56260,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -56325,7 +56268,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -56333,7 +56276,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -56445,7 +56388,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -56461,7 +56404,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -56469,7 +56412,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -56477,7 +56420,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -56589,7 +56532,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -56605,7 +56548,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -56613,7 +56556,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -56621,7 +56564,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -56733,7 +56676,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -56749,7 +56692,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -57246,7 +57189,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -57262,7 +57205,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -57270,7 +57213,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -57278,7 +57221,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -57390,7 +57333,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -57406,7 +57349,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -57414,7 +57357,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -57422,7 +57365,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -57534,7 +57477,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -57550,7 +57493,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -57558,7 +57501,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -57566,7 +57509,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -57689,7 +57632,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -57713,7 +57656,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -57721,7 +57664,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -57844,7 +57787,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -57860,7 +57803,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -57868,7 +57811,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -57876,7 +57819,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -57999,7 +57942,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -58015,7 +57958,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -58023,7 +57966,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -58031,7 +57974,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -58154,7 +58097,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -58170,7 +58113,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -58665,7 +58608,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -58681,7 +58624,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -58689,7 +58632,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -58697,7 +58640,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -58809,7 +58752,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -58825,7 +58768,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -58833,7 +58776,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -58841,7 +58784,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -58964,7 +58907,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -58980,7 +58923,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -58988,7 +58931,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -58996,7 +58939,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -59143,7 +59086,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -59429,7 +59372,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -59445,7 +59388,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -59453,7 +59396,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -59461,7 +59404,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -59589,7 +59532,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -59597,7 +59540,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -59605,7 +59548,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -59728,7 +59671,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -59744,7 +59687,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -59752,7 +59695,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -59760,7 +59703,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -59883,7 +59826,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -59899,7 +59842,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -59907,7 +59850,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -59915,7 +59858,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -60054,7 +59997,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -60062,7 +60005,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -60070,7 +60013,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -60112,10 +60055,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="10" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>442</v>
@@ -60141,10 +60084,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="10" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>327</v>
@@ -60241,7 +60184,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -60257,7 +60200,7 @@
         <v>1812</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -60265,7 +60208,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -60315,10 +60258,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="10" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>442</v>
@@ -60344,10 +60287,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="10" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>442</v>
@@ -60373,10 +60316,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="10" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>327</v>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -3273,9 +3273,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>M1103 (Use 'Time Anchors' to assess clock accuracy at time of inferred event)
-M1227 (Search for indicators of clock tampering)
-M1228 (Record system clock offset)</t>
+          <t>M1103 (Check that analysis of timestamp accuracy on which event reconstruction is based has been performed)</t>
         </r>
       </text>
     </comment>
@@ -4911,7 +4909,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11610" uniqueCount="2336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11610" uniqueCount="2334">
   <si>
     <t>Find potential digital evidence sources</t>
   </si>
@@ -7247,7 +7245,7 @@
     <t>W1149</t>
   </si>
   <si>
-    <t>Failure to determine clock accuracy at time of inferred event</t>
+    <t>Failure to consider timestamp inaccuracy at time of inferred event</t>
   </si>
   <si>
     <t>['T1117']</t>
@@ -8912,7 +8910,7 @@
     <t>M1103</t>
   </si>
   <si>
-    <t>Use 'Time Anchors' to assess clock accuracy at time of inferred event</t>
+    <t>Check that analysis of timestamp accuracy on which event reconstruction is based has been performed</t>
   </si>
   <si>
     <t>['W1149']</t>
@@ -9839,7 +9837,7 @@
     <t>M1227</t>
   </si>
   <si>
-    <t>['W1148', 'W1149']</t>
+    <t>['W1148']</t>
   </si>
   <si>
     <t>M1228</t>
@@ -11758,16 +11756,10 @@
     <t>ALEAPP abd_hots.py, https://github.com/abrignoni/ALEAPP/blob/main/scripts/artifacts/adb_hosts.py</t>
   </si>
   <si>
-    <t>M1103, M1227, M1228</t>
-  </si>
-  <si>
-    <t>Use 'Time Anchors' to assess clock accuracy at time of inferred event (T1134)</t>
-  </si>
-  <si>
-    <t>Céline Vanini, Christopher J. Hargreaves, Harm van Beek, Frank Breitinger, 2024. Was the clock correct? Exploring timestamp interpretation through time anchors for digital forensic event reconstruction. Digital Investigation, 49.</t>
-  </si>
-  <si>
-    <t>['W1149', 'M1103']</t>
+    <t>['Temporal-based event reconstruction']</t>
+  </si>
+  <si>
+    <t>['core:startTime', 'core:endTime', 'core:confidence']</t>
   </si>
   <si>
     <t>['Autopsy Interesting Files module']</t>
@@ -12199,7 +12191,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-12-06T20:45:33.850755+00:00</t>
+    <t>2025-12-06T20:49:32.640216+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>
@@ -18620,7 +18612,7 @@
 
 <file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18672,7 +18664,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>782</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -18696,7 +18688,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>782</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -18781,13 +18773,13 @@
         <v>778</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>327</v>
+        <v>442</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>442</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>327</v>
+        <v>442</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>327</v>
@@ -18799,7 +18791,7 @@
         <v>442</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2192</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -18848,8 +18840,8 @@
       <c r="A19" t="s">
         <v>1332</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>2193</v>
+      <c r="B19" s="10" t="s">
+        <v>1333</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -18907,29 +18899,19 @@
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="10" t="s">
-        <v>2194</v>
+        <v>2138</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>2195</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="B30" s="10" t="s">
-        <v>2138</v>
-      </c>
-      <c r="I30" s="10" t="s">
         <v>2139</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1" location="Main!A1" display="back to main"/>
     <hyperlink ref="B18" location="T1153!A1" display="Apply time offset to timestamp (T1153)"/>
-    <hyperlink ref="B19" location="T1134!A1" display="Use 'Time Anchors' to assess clock accuracy at time of inferred event (T1134)"/>
     <hyperlink ref="B21" location="T1134!A1" display="Estimate clock offset at a specific point in time using time anchoring (T1134)"/>
     <hyperlink ref="B22" location="T1129!A1" display="Search for indicators of clock tampering (T1129)"/>
     <hyperlink ref="B23" location="T1111!A1" display="Record system clock offset (T1111)"/>
@@ -19025,7 +19007,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -19172,7 +19154,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="10" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>867</v>
@@ -19244,7 +19226,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -19268,7 +19250,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -19276,7 +19258,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -19365,7 +19347,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>879</v>
@@ -19373,7 +19355,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>879</v>
@@ -19446,7 +19428,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -19454,7 +19436,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -19470,7 +19452,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -19478,7 +19460,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -19756,7 +19738,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -19785,7 +19767,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -19814,7 +19796,7 @@
         <v>327</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -19843,7 +19825,7 @@
         <v>327</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -19872,7 +19854,7 @@
         <v>327</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -19893,7 +19875,7 @@
         <v>1144</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -20013,7 +19995,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -20037,7 +20019,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -20103,7 +20085,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -20190,7 +20172,7 @@
         <v>2001</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
     </row>
   </sheetData>
@@ -20453,7 +20435,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -20543,7 +20525,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -20572,7 +20554,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -20638,7 +20620,7 @@
         <v>2001</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
     </row>
   </sheetData>
@@ -20707,7 +20689,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -20805,7 +20787,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -20826,7 +20808,7 @@
         <v>1144</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -20909,7 +20891,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -20917,7 +20899,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -21020,7 +21002,7 @@
         <v>1468</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -21038,7 +21020,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>901</v>
@@ -21046,7 +21028,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="10" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>901</v>
@@ -21121,7 +21103,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -21219,7 +21201,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -21248,7 +21230,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -21290,7 +21272,7 @@
         <v>1440</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -21298,7 +21280,7 @@
         <v>1443</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -21324,7 +21306,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="10" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>885</v>
@@ -21399,7 +21381,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -21407,7 +21389,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -21523,15 +21505,15 @@
         <v>2004</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
     </row>
   </sheetData>
@@ -21601,7 +21583,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -21609,7 +21591,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -21829,10 +21811,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="10" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -21840,7 +21822,7 @@
         <v>2014</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
     </row>
   </sheetData>
@@ -21917,7 +21899,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -22140,7 +22122,7 @@
         <v>2023</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
     </row>
   </sheetData>
@@ -22208,7 +22190,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -22295,7 +22277,7 @@
         <v>2023</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
     </row>
   </sheetData>
@@ -22722,7 +22704,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -22738,7 +22720,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -22746,7 +22728,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -22812,7 +22794,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -22841,7 +22823,7 @@
         <v>327</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -22870,7 +22852,7 @@
         <v>327</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -22899,7 +22881,7 @@
         <v>327</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -22928,7 +22910,7 @@
         <v>327</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -22957,7 +22939,7 @@
         <v>327</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -23015,7 +22997,7 @@
         <v>327</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -23044,7 +23026,7 @@
         <v>327</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -23073,7 +23055,7 @@
         <v>327</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -23102,7 +23084,7 @@
         <v>327</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -23131,7 +23113,7 @@
         <v>327</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -23189,7 +23171,7 @@
         <v>327</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -23218,7 +23200,7 @@
         <v>327</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -23247,7 +23229,7 @@
         <v>327</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -23276,7 +23258,7 @@
         <v>327</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -23305,7 +23287,7 @@
         <v>327</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -23334,7 +23316,7 @@
         <v>327</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -23363,7 +23345,7 @@
         <v>442</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -23392,7 +23374,7 @@
         <v>327</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -23421,7 +23403,7 @@
         <v>327</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -23450,7 +23432,7 @@
         <v>327</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -23479,7 +23461,7 @@
         <v>327</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -23508,7 +23490,7 @@
         <v>327</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -23537,7 +23519,7 @@
         <v>327</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -23566,7 +23548,7 @@
         <v>327</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -23749,7 +23731,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="B66" s="10" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>904</v>
@@ -23757,7 +23739,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="B67" s="10" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>904</v>
@@ -23830,7 +23812,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -23838,7 +23820,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -23862,7 +23844,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -23928,7 +23910,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -23957,7 +23939,7 @@
         <v>442</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -24015,7 +23997,7 @@
         <v>442</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -24060,7 +24042,7 @@
         <v>1623</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -24159,7 +24141,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -24167,7 +24149,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -24183,7 +24165,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -24257,7 +24239,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -24315,7 +24297,7 @@
         <v>327</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -24373,7 +24355,7 @@
         <v>444</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -24510,7 +24492,7 @@
         <v>1234</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -24518,7 +24500,7 @@
         <v>1568</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -24542,7 +24524,7 @@
         <v>1577</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -24552,15 +24534,15 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="10" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="10" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>1233</v>
@@ -24568,18 +24550,18 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="10" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="10" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
     </row>
   </sheetData>
@@ -24654,7 +24636,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -24678,7 +24660,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -24775,10 +24757,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
     </row>
   </sheetData>
@@ -25738,7 +25720,7 @@
         <v>1565</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -25748,10 +25730,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
     </row>
   </sheetData>
@@ -26408,7 +26390,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -26416,7 +26398,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -26492,10 +26474,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="10" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
     </row>
   </sheetData>
@@ -26563,7 +26545,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -26571,7 +26553,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -26587,7 +26569,7 @@
         <v>1813</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -26595,7 +26577,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -26647,34 +26629,34 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="10" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="10" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
     </row>
   </sheetData>
@@ -26843,7 +26825,7 @@
         <v>444</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -26872,7 +26854,7 @@
         <v>444</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -26901,7 +26883,7 @@
         <v>444</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -26930,7 +26912,7 @@
         <v>327</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -26959,7 +26941,7 @@
         <v>327</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -26988,7 +26970,7 @@
         <v>444</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -27086,7 +27068,7 @@
         <v>2045</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -27164,7 +27146,7 @@
         <v>1810</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -27172,7 +27154,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -27196,7 +27178,7 @@
         <v>1814</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -27262,7 +27244,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -27275,7 +27257,7 @@
         <v>1591</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -27283,7 +27265,7 @@
         <v>1594</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -27293,7 +27275,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>1010</v>
@@ -27375,7 +27357,7 @@
         <v>1811</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -27465,7 +27447,7 @@
         <v>442</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -28465,23 +28447,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="B1" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="B2" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="B3">
         <v>19</v>
@@ -28489,7 +28471,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="B4">
         <v>151</v>
@@ -28497,7 +28479,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="B5">
         <v>262</v>
@@ -28505,7 +28487,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="B6">
         <v>220</v>
@@ -28513,7 +28495,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="B7">
         <v>67</v>
@@ -28521,7 +28503,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="B8">
         <v>0.44</v>
@@ -32434,7 +32416,7 @@
         <v>3</v>
       </c>
       <c r="D118">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -42028,12 +42010,18 @@
         <v>778</v>
       </c>
       <c r="C150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E150" t="s">
         <v>779</v>
       </c>
+      <c r="F150" t="s">
+        <v>444</v>
+      </c>
       <c r="G150" t="s">
+        <v>444</v>
+      </c>
+      <c r="I150" t="s">
         <v>444</v>
       </c>
       <c r="K150" t="s">
@@ -50311,7 +50299,7 @@
         <v>1642</v>
       </c>
       <c r="E218">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -50328,7 +50316,7 @@
         <v>1642</v>
       </c>
       <c r="E219">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:5">

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -12270,7 +12270,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2025-12-06T20:51:17.680749+00:00</t>
+    <t>2025-12-06T20:52:58.734611+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13087,7 +13087,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-05T01:58:17.085558+00:00</t>
+    <t>2026-02-05T02:00:54.532638+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>

--- a/.repo_info/solve-it-latest.xlsx
+++ b/.repo_info/solve-it-latest.xlsx
@@ -13080,7 +13080,7 @@
     <t>Workbook generated</t>
   </si>
   <si>
-    <t>2026-02-12T20:09:06.460738+00:00</t>
+    <t>2026-02-12T20:36:41.868894+00:00</t>
   </si>
   <si>
     <t>Number of objectives</t>
